--- a/output2/【河洛話注音】金剛般若波羅蜜經005。如理實見分第五.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經005。如理實見分第五.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11D22362-FEB8-4437-A25E-14C79A139C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DB551CB-12A0-4571-9D78-E80F37463D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="12495" windowWidth="36150" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -1260,10 +1260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kian3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1320,14 +1316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1372,26 +1360,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siong3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1416,10 +1388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄨㄣ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1456,14 +1424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsiah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄚㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hui1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1472,14 +1432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>put8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ko3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1496,14 +1448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kai1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1516,10 +1460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hi1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1549,6 +1489,66 @@
   </si>
   <si>
     <t>ㄉㄚ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄣ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3652,16 +3652,16 @@
         <v>234</v>
       </c>
       <c r="G4" s="88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H4" s="88" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I4" s="88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J4" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K4" s="88"/>
       <c r="L4" s="88"/>
@@ -3720,19 +3720,19 @@
         <v>233</v>
       </c>
       <c r="F6" s="93" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="G6" s="93" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H6" s="93" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I6" s="93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J6" s="93" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K6" s="93"/>
       <c r="L6" s="93"/>
@@ -3771,42 +3771,42 @@
       <c r="C8" s="52"/>
       <c r="D8" s="88"/>
       <c r="E8" s="88" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H8" s="88"/>
       <c r="I8" s="88" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="J8" s="88" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K8" s="88" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L8" s="88" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M8" s="88"/>
       <c r="N8" s="88" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O8" s="88" t="s">
+        <v>257</v>
+      </c>
+      <c r="P8" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q8" s="88" t="s">
         <v>260</v>
       </c>
-      <c r="P8" s="88" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q8" s="88" t="s">
-        <v>264</v>
-      </c>
       <c r="R8" s="88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="102"/>
@@ -3871,42 +3871,42 @@
       <c r="C10" s="52"/>
       <c r="D10" s="93"/>
       <c r="E10" s="93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F10" s="93" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G10" s="93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="93" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="J10" s="93" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K10" s="93" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L10" s="93" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M10" s="93"/>
       <c r="N10" s="93" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O10" s="93" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P10" s="93" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="93" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="R10" s="93" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="102"/>
@@ -3939,36 +3939,36 @@
         <v>230</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="F12" s="88" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G12" s="88"/>
       <c r="H12" s="88"/>
       <c r="I12" s="88"/>
       <c r="J12" s="88" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K12" s="88" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L12" s="88"/>
       <c r="M12" s="88" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="N12" s="88" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="O12" s="88"/>
       <c r="P12" s="88" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="88" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="R12" s="88" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="102"/>
@@ -4034,36 +4034,36 @@
         <v>231</v>
       </c>
       <c r="E14" s="93" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="F14" s="93" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G14" s="93"/>
       <c r="H14" s="93"/>
       <c r="I14" s="93"/>
       <c r="J14" s="93" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K14" s="93" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L14" s="93"/>
       <c r="M14" s="93" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="N14" s="93" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="O14" s="93"/>
       <c r="P14" s="93" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="93" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="R14" s="93" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="69"/>
@@ -4093,45 +4093,45 @@
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="88" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E16" s="88" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F16" s="88" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H16" s="88" t="s">
         <v>230</v>
       </c>
       <c r="I16" s="88" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="J16" s="88"/>
       <c r="K16" s="88" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L16" s="88" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M16" s="88" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="N16" s="88"/>
       <c r="O16" s="88" t="s">
         <v>230</v>
       </c>
       <c r="P16" s="88" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="88" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="R16" s="88" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="69"/>
@@ -4194,45 +4194,45 @@
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="93" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="E18" s="93" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="F18" s="93" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G18" s="93" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H18" s="93" t="s">
         <v>231</v>
       </c>
       <c r="I18" s="93" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="J18" s="93"/>
       <c r="K18" s="93" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L18" s="93" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M18" s="93" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N18" s="93"/>
       <c r="O18" s="93" t="s">
         <v>231</v>
       </c>
       <c r="P18" s="93" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="93" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="R18" s="93" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="69"/>
@@ -4262,40 +4262,40 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="88" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E20" s="88" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F20" s="88"/>
       <c r="G20" s="88" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="H20" s="88" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="I20" s="88" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J20" s="88" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K20" s="88"/>
       <c r="L20" s="88"/>
       <c r="M20" s="88" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="N20" s="88" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="O20" s="88" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P20" s="88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q20" s="88" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R20" s="88"/>
       <c r="S20" s="53"/>
@@ -4359,40 +4359,40 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="93" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="E22" s="93" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="F22" s="93"/>
       <c r="G22" s="93" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="H22" s="93" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="I22" s="93" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="J22" s="93" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="K22" s="93"/>
       <c r="L22" s="93"/>
       <c r="M22" s="93" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="N22" s="93" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="O22" s="93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P22" s="93" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R22" s="93"/>
       <c r="S22" s="58"/>
@@ -4424,42 +4424,42 @@
       <c r="C24" s="52"/>
       <c r="D24" s="88"/>
       <c r="E24" s="88" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F24" s="88" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G24" s="88" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="H24" s="88" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I24" s="88"/>
       <c r="J24" s="88" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="K24" s="88" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="L24" s="88" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="M24" s="88" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="N24" s="88"/>
       <c r="O24" s="88" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="P24" s="88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q24" s="88" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="R24" s="88" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="69"/>
@@ -4523,42 +4523,42 @@
       <c r="C26" s="52"/>
       <c r="D26" s="93"/>
       <c r="E26" s="93" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F26" s="93" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G26" s="93" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="H26" s="93" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="I26" s="93"/>
       <c r="J26" s="93" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="K26" s="93" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="L26" s="93" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="M26" s="93" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="N26" s="93"/>
       <c r="O26" s="93" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="P26" s="93" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q26" s="93" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="R26" s="93" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
@@ -4596,23 +4596,23 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="88" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E28" s="88" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F28" s="88"/>
       <c r="G28" s="88" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="H28" s="88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I28" s="88" t="s">
         <v>230</v>
       </c>
       <c r="J28" s="88" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="K28" s="88"/>
       <c r="L28" s="88"/>
@@ -4679,23 +4679,23 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="93" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E30" s="93" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="F30" s="93"/>
       <c r="G30" s="93" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="H30" s="93" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I30" s="93" t="s">
         <v>231</v>
       </c>
       <c r="J30" s="93" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="K30" s="93"/>
       <c r="L30" s="93"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經005。如理實見分第五.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經005。如理實見分第五.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DB551CB-12A0-4571-9D78-E80F37463D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5DDC41F-D81F-4812-80AC-16B62A8EB53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="310">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1264,42 +1264,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄧㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hun1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>te7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goo6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>su1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phoo5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1320,10 +1296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>un5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1332,14 +1304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ua5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kho2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1364,34 +1328,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆬ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ia7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>se3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tit4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1404,10 +1348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soo2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1428,18 +1368,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄨㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ko3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄜ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>huan5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1452,10 +1384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>si6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1464,34 +1392,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bong7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆠㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ta1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄒㄧㆵ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1504,14 +1408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lai5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1549,6 +1445,118 @@
   </si>
   <si>
     <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄫㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄜ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄨˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3432,7 +3440,7 @@
   </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3532,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A2:V86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3655,13 +3663,13 @@
         <v>235</v>
       </c>
       <c r="H4" s="88" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="I4" s="88" t="s">
-        <v>239</v>
-      </c>
       <c r="J4" s="88" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="K4" s="88"/>
       <c r="L4" s="88"/>
@@ -3720,19 +3728,19 @@
         <v>233</v>
       </c>
       <c r="F6" s="93" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="G6" s="93" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="H6" s="93" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="I6" s="93" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="J6" s="93" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="K6" s="93"/>
       <c r="L6" s="93"/>
@@ -3771,39 +3779,39 @@
       <c r="C8" s="52"/>
       <c r="D8" s="88"/>
       <c r="E8" s="88" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H8" s="88"/>
       <c r="I8" s="88" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="J8" s="88" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K8" s="88" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L8" s="88" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="M8" s="88"/>
       <c r="N8" s="88" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O8" s="88" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="P8" s="88" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="Q8" s="88" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="R8" s="88" t="s">
         <v>235</v>
@@ -3871,42 +3879,42 @@
       <c r="C10" s="52"/>
       <c r="D10" s="93"/>
       <c r="E10" s="93" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="F10" s="93" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G10" s="93" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="93" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="J10" s="93" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="K10" s="93" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L10" s="93" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="M10" s="93"/>
       <c r="N10" s="93" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="O10" s="93" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="P10" s="93" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="93" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="R10" s="93" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="102"/>
@@ -3916,7 +3924,9 @@
       <c r="C11" s="80"/>
       <c r="D11" s="78"/>
       <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="F11" s="78" t="s">
+        <v>308</v>
+      </c>
       <c r="G11" s="78"/>
       <c r="H11" s="78"/>
       <c r="I11" s="78"/>
@@ -3939,36 +3949,36 @@
         <v>230</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="F12" s="88" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="G12" s="88"/>
       <c r="H12" s="88"/>
       <c r="I12" s="88"/>
       <c r="J12" s="88" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="K12" s="88" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="L12" s="88"/>
       <c r="M12" s="88" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="N12" s="88" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="O12" s="88"/>
       <c r="P12" s="88" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="Q12" s="88" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="R12" s="88" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="102"/>
@@ -4034,36 +4044,36 @@
         <v>231</v>
       </c>
       <c r="E14" s="93" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="F14" s="93" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="G14" s="93"/>
       <c r="H14" s="93"/>
       <c r="I14" s="93"/>
       <c r="J14" s="93" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="K14" s="93" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="L14" s="93"/>
       <c r="M14" s="93" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="N14" s="93" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="O14" s="93"/>
       <c r="P14" s="93" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="93" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="R14" s="93" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="69"/>
@@ -4093,13 +4103,13 @@
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="88" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E16" s="88" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F16" s="88" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="G16" s="88" t="s">
         <v>235</v>
@@ -4108,30 +4118,30 @@
         <v>230</v>
       </c>
       <c r="I16" s="88" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="J16" s="88"/>
       <c r="K16" s="88" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="L16" s="88" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="M16" s="88" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="N16" s="88"/>
       <c r="O16" s="88" t="s">
         <v>230</v>
       </c>
       <c r="P16" s="88" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="88" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="R16" s="88" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="69"/>
@@ -4194,45 +4204,45 @@
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="93" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E18" s="93" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F18" s="93" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="G18" s="93" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="H18" s="93" t="s">
         <v>231</v>
       </c>
       <c r="I18" s="93" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J18" s="93"/>
       <c r="K18" s="93" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="L18" s="93" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M18" s="93" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="N18" s="93"/>
       <c r="O18" s="93" t="s">
         <v>231</v>
       </c>
       <c r="P18" s="93" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="Q18" s="93" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="R18" s="93" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="69"/>
@@ -4262,40 +4272,40 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="88" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E20" s="88" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F20" s="88"/>
       <c r="G20" s="88" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="H20" s="88" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I20" s="88" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="J20" s="88" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="K20" s="88"/>
       <c r="L20" s="88"/>
       <c r="M20" s="88" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="N20" s="88" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="O20" s="88" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P20" s="88" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q20" s="88" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="R20" s="88"/>
       <c r="S20" s="53"/>
@@ -4359,40 +4369,40 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="93" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E22" s="93" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F22" s="93"/>
       <c r="G22" s="93" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="H22" s="93" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="I22" s="93" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J22" s="93" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K22" s="93"/>
       <c r="L22" s="93"/>
       <c r="M22" s="93" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="N22" s="93" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="O22" s="93" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="P22" s="93" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="93" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="R22" s="93"/>
       <c r="S22" s="58"/>
@@ -4424,42 +4434,42 @@
       <c r="C24" s="52"/>
       <c r="D24" s="88"/>
       <c r="E24" s="88" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="F24" s="88" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="G24" s="88" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="H24" s="88" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="I24" s="88"/>
       <c r="J24" s="88" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="K24" s="88" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="L24" s="88" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="M24" s="88" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="N24" s="88"/>
       <c r="O24" s="88" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="P24" s="88" t="s">
         <v>235</v>
       </c>
       <c r="Q24" s="88" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="R24" s="88" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="69"/>
@@ -4523,42 +4533,42 @@
       <c r="C26" s="52"/>
       <c r="D26" s="93"/>
       <c r="E26" s="93" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="F26" s="93" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="G26" s="93" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="H26" s="93" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I26" s="93"/>
       <c r="J26" s="93" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="K26" s="93" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="L26" s="93" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="M26" s="93" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="N26" s="93"/>
       <c r="O26" s="93" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="P26" s="93" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="Q26" s="93" t="s">
+        <v>307</v>
+      </c>
+      <c r="R26" s="93" t="s">
         <v>292</v>
-      </c>
-      <c r="R26" s="93" t="s">
-        <v>297</v>
       </c>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
@@ -4596,14 +4606,14 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="88" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E28" s="88" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F28" s="88"/>
       <c r="G28" s="88" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="H28" s="88" t="s">
         <v>235</v>
@@ -4612,7 +4622,7 @@
         <v>230</v>
       </c>
       <c r="J28" s="88" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="K28" s="88"/>
       <c r="L28" s="88"/>
@@ -4679,23 +4689,23 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="93" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="E30" s="93" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F30" s="93"/>
       <c r="G30" s="93" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="H30" s="93" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="I30" s="93" t="s">
         <v>231</v>
       </c>
       <c r="J30" s="93" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="K30" s="93"/>
       <c r="L30" s="93"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經005。如理實見分第五.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經005。如理實見分第五.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5DDC41F-D81F-4812-80AC-16B62A8EB53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82A80EB9-B050-460D-9642-4BB2565FDD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -3540,9 +3540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A2:V86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>

--- a/output2/【河洛話注音】金剛般若波羅蜜經005。如理實見分第五.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經005。如理實見分第五.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82A80EB9-B050-460D-9642-4BB2565FDD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A61F85D-4A40-4776-B0E7-1DF2C4412FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -49,30 +49,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="312">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1048,523 +1026,450 @@
     <t>，</t>
   </si>
   <si>
+    <t>分</t>
+  </si>
+  <si>
+    <t>第</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
+    <t>ㄚˋ</t>
+  </si>
+  <si>
+    <t>ㄚ</t>
+  </si>
+  <si>
+    <t>ㄚˇ</t>
+  </si>
+  <si>
+    <t>ㄚ+</t>
+  </si>
+  <si>
+    <t>ㄚ_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㄚ" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㄚ' </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚㄏ</t>
+  </si>
+  <si>
+    <t>ㄚㄏˊ</t>
+  </si>
+  <si>
+    <t>須</t>
+  </si>
+  <si>
+    <t>菩</t>
+  </si>
+  <si>
+    <t>提</t>
+  </si>
+  <si>
+    <t>「</t>
+  </si>
+  <si>
+    <t>！</t>
+  </si>
+  <si>
+    <t>」</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>https://shoplineimg.com/5db585d59db3cb0012a18bce/5f2a9d3f30cc6200455c1c25/1296x.webp?source_format=jpg</t>
+  </si>
+  <si>
+    <t>每頁總列數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每列總字數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>C:\\work\\Piau-Im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTPUT_PATH</t>
+  </si>
+  <si>
+    <t>output2</t>
+  </si>
+  <si>
+    <t>世</t>
+  </si>
+  <si>
+    <t>說</t>
+  </si>
+  <si>
     <t>若</t>
   </si>
   <si>
-    <t>分</t>
-  </si>
-  <si>
-    <t>第</t>
+    <t>以</t>
+  </si>
+  <si>
+    <t>於</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>諸</t>
+  </si>
+  <si>
+    <t>得</t>
+  </si>
+  <si>
+    <t>故</t>
+  </si>
+  <si>
+    <t>皆</t>
+  </si>
+  <si>
+    <t>：</t>
+  </si>
+  <si>
+    <t>佛</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>尊</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>告</t>
   </si>
   <si>
     <t>如</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>：</t>
-  </si>
-  <si>
-    <t>。</t>
-  </si>
-  <si>
-    <t>世</t>
-  </si>
-  <si>
-    <t>尊</t>
-  </si>
-  <si>
-    <t>ㄚˋ</t>
-  </si>
-  <si>
-    <t>ㄚ</t>
-  </si>
-  <si>
-    <t>ㄚˇ</t>
-  </si>
-  <si>
-    <t>ㄚ+</t>
-  </si>
-  <si>
-    <t>ㄚ_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ㄚ" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ㄚ' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄚㄏ</t>
-  </si>
-  <si>
-    <t>ㄚㄏˊ</t>
-  </si>
-  <si>
-    <t>須</t>
-  </si>
-  <si>
-    <t>菩</t>
-  </si>
-  <si>
-    <t>提</t>
-  </si>
-  <si>
-    <t>「</t>
-  </si>
-  <si>
-    <t>！</t>
-  </si>
-  <si>
-    <t>何</t>
-  </si>
-  <si>
-    <t>？</t>
-  </si>
-  <si>
-    <t>」</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>https://shoplineimg.com/5db585d59db3cb0012a18bce/5f2a9d3f30cc6200455c1c25/1296x.webp?source_format=jpg</t>
-  </si>
-  <si>
-    <t>以</t>
-  </si>
-  <si>
-    <t>故</t>
+    <t>實</t>
   </si>
   <si>
     <t>相</t>
   </si>
   <si>
-    <t>於</t>
-  </si>
-  <si>
-    <t>不</t>
-  </si>
-  <si>
-    <t>每頁總列數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每列總字數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>實</t>
+    <t>非</t>
+  </si>
+  <si>
+    <t>意</t>
+  </si>
+  <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>也</t>
+  </si>
+  <si>
+    <t>即</t>
+  </si>
+  <si>
+    <t>虛</t>
+  </si>
+  <si>
+    <t>身</t>
+  </si>
+  <si>
+    <t>章節序號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo2</t>
+  </si>
+  <si>
+    <t>ㄫㆦˋ</t>
+  </si>
+  <si>
+    <t>hun1</t>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+  </si>
+  <si>
+    <t>te7</t>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+  </si>
+  <si>
+    <t>su1</t>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+  </si>
+  <si>
+    <t>phoo5</t>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+  </si>
+  <si>
+    <t>the5</t>
+  </si>
+  <si>
+    <t>ㄊㆤˊ</t>
+  </si>
+  <si>
+    <t>hut8</t>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+  </si>
+  <si>
+    <t>se3</t>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+  </si>
+  <si>
+    <t>zun1</t>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+  </si>
+  <si>
+    <t>un5</t>
+  </si>
+  <si>
+    <t>ㄨㄣˊ</t>
+  </si>
+  <si>
+    <t>ho5</t>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+  </si>
+  <si>
+    <t>ko3</t>
+  </si>
+  <si>
+    <t>ㄍㄜ˪</t>
+  </si>
+  <si>
+    <t>ju5</t>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+  </si>
+  <si>
+    <t>si6</t>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+  </si>
+  <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+  </si>
+  <si>
+    <t>iu2</t>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+  </si>
+  <si>
+    <t>sit8</t>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+  </si>
+  <si>
+    <t>koo3</t>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+  </si>
+  <si>
+    <t>jiok8</t>
+  </si>
+  <si>
+    <t>ㆢㄧㆦㆻ˙</t>
+  </si>
+  <si>
+    <t>siong3</t>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˪</t>
+  </si>
+  <si>
+    <t>zik4</t>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+  </si>
+  <si>
+    <t>hui1</t>
+  </si>
+  <si>
+    <t>ㄏㄨㄧˉ</t>
+  </si>
+  <si>
+    <t>soo2</t>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+  </si>
+  <si>
+    <t>u5</t>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+  </si>
+  <si>
+    <t>i3</t>
+  </si>
+  <si>
+    <t>ㄧ˪</t>
+  </si>
+  <si>
+    <t>lai5</t>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+  </si>
+  <si>
+    <t>tit4</t>
+  </si>
+  <si>
+    <t>ㄉㄧㆵ</t>
+  </si>
+  <si>
+    <t>put4</t>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ</t>
+  </si>
+  <si>
+    <t>ia7</t>
+  </si>
+  <si>
+    <t>ㄧㄚ˫</t>
+  </si>
+  <si>
+    <t>suat4</t>
+  </si>
+  <si>
+    <t>ㄙㄨㄚㆵ</t>
+  </si>
+  <si>
+    <t>zu1</t>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+  </si>
+  <si>
+    <t>hi1</t>
+  </si>
+  <si>
+    <t>ㄏㄧˉ</t>
+  </si>
+  <si>
+    <t>kai1</t>
+  </si>
+  <si>
+    <t>ㄍㄞˉ</t>
+  </si>
+  <si>
+    <t>sin1</t>
+  </si>
+  <si>
+    <t>ㄒㄧㄣˉ</t>
+  </si>
+  <si>
+    <t>hiu2</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>kho2</t>
+  </si>
+  <si>
+    <t>ㄎㄜˋ</t>
+  </si>
+  <si>
+    <t>ㄏㄧㄨˋ</t>
   </si>
   <si>
     <t>見</t>
   </si>
   <si>
+    <t>kian3</t>
+  </si>
+  <si>
+    <t>ㄍㄧㄢ˪</t>
+  </si>
+  <si>
     <t>五</t>
   </si>
   <si>
-    <t>來</t>
-  </si>
-  <si>
-    <t>得</t>
-  </si>
-  <si>
-    <t>說</t>
-  </si>
-  <si>
-    <t>即</t>
-  </si>
-  <si>
-    <t>非</t>
-  </si>
-  <si>
-    <t>佛</t>
-  </si>
-  <si>
-    <t>告</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>諸</t>
-  </si>
-  <si>
-    <t>C:\\work\\Piau-Im</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUTPUT_PATH</t>
-  </si>
-  <si>
-    <t>output2</t>
+    <t>凡</t>
+  </si>
+  <si>
+    <t>huan5</t>
+  </si>
+  <si>
+    <t>ㄏㄨㄢˊ</t>
+  </si>
+  <si>
+    <t>理</t>
+  </si>
+  <si>
+    <t>li2</t>
+  </si>
+  <si>
+    <t>ㄌㄧˋ</t>
   </si>
   <si>
     <t>如理實見分第五
-「須菩提！於意云何？可以身相見如來不？」「不也，世尊！不可以身相得見如來。何以故？如來所說身相，即非身相。」佛告須菩提：「凡所有相，皆是虛妄。若見諸相非相，即見如來。」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理</t>
-  </si>
-  <si>
-    <t>意</t>
-  </si>
-  <si>
-    <t>云</t>
-  </si>
-  <si>
-    <t>可</t>
-  </si>
-  <si>
-    <t>身</t>
-  </si>
-  <si>
-    <t>也</t>
-  </si>
-  <si>
-    <t>凡</t>
-  </si>
-  <si>
-    <t>皆</t>
-  </si>
-  <si>
-    <t>虛</t>
+　　「須菩提！於意云何？可以身相見如來不？」「不也，世尊！不可以身相得見如來。何以故？如來所說身相，即非身相。」佛告須菩提：「凡所有相，皆是虛妄。若見諸相非相，即見如來。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>妄</t>
   </si>
   <si>
-    <t>ju5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>li2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kian3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>un5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄫㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ho5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>put4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄚ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆦ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄧˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄜ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄞˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="75">
+  <fonts count="79">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2023,18 +1928,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="Iansui 094"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Sitka Text Semibold"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Noto Serif TC Medium"/>
@@ -2064,21 +1957,6 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="霞鶩文楷 TC"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="48"/>
-      <color rgb="FF000000"/>
-      <name val="吳守禮細明台語注音"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="細明體"/>
       <family val="2"/>
@@ -2087,6 +1965,58 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <name val="吳守禮細明台語破音01"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="霞鶩文楷 TC"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Sitka Text Semibold"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="芫荽 0.94"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2135,7 +2065,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2206,35 +2136,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -2290,7 +2191,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2432,35 +2333,8 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="7" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2471,19 +2345,19 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2492,50 +2366,20 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
@@ -2546,53 +2390,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2604,6 +2490,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2611,151 +2500,7 @@
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{AF644068-9C78-42CD-96C0-AD9C8A3B8BDE}"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <b/>
@@ -3441,87 +3186,95 @@
   <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="62" customWidth="1"/>
-    <col min="2" max="2" width="21.19921875" style="62" customWidth="1"/>
-    <col min="3" max="3" width="93.796875" style="62" customWidth="1"/>
-    <col min="4" max="16384" width="12" style="62"/>
+    <col min="1" max="1" width="3.69921875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="93.796875" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="12" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="52" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="99" t="s">
-        <v>216</v>
+      <c r="C2" s="78" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="78" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="63" t="str">
-        <f xml:space="preserve"> "金剛般若波羅蜜經" &amp; TEXT(5, "000") &amp; _xlfn.CONCAT("。", 漢字注音!D5:R5)</f>
+      <c r="C4" s="54" t="str">
+        <f xml:space="preserve"> "金剛般若波羅蜜經" &amp; TEXT(C7, "000") &amp; _xlfn.CONCAT("。", 漢字注音!D5:R5)</f>
         <v>金剛般若波羅蜜經005。如理實見分第五</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="70" t="s">
-        <v>196</v>
+      <c r="C5" s="61" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="95" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>218</v>
+      <c r="B6" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="103">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="97" t="b">
+      <c r="C8" s="76" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="95" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="98">
-        <v>21</v>
+      <c r="B9" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="77">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="98">
+      <c r="B10" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="77">
         <v>15</v>
       </c>
     </row>
@@ -3538,2520 +3291,5498 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
-  <dimension ref="A2:V86"/>
+  <dimension ref="B2:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
     <col min="1" max="1" width="0.69921875" customWidth="1"/>
     <col min="2" max="2" width="4.5" customWidth="1"/>
     <col min="3" max="3" width="3.69921875" customWidth="1"/>
-    <col min="4" max="18" width="20.69921875" style="1" customWidth="1"/>
+    <col min="4" max="18" width="22.796875" style="82" customWidth="1"/>
     <col min="19" max="19" width="3.69921875" style="1" customWidth="1"/>
     <col min="20" max="20" width="2.796875" customWidth="1"/>
     <col min="21" max="21" width="6.19921875" customWidth="1"/>
-    <col min="22" max="22" width="71.69921875" style="69" customWidth="1"/>
+    <col min="22" max="22" width="71.69921875" style="60" customWidth="1"/>
     <col min="23" max="23" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" s="59" customFormat="1" ht="36" customHeight="1">
-      <c r="D2" s="60" cm="1">
-        <f t="array" ref="D2">COLUMN() - COLUMN($C:$C)</f>
+    <row r="2" spans="2:22" s="51" customFormat="1" ht="36" customHeight="1">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="91"/>
+      <c r="V2" s="59">
+        <f xml:space="preserve"> LEN(V3)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" s="64" customFormat="1" ht="60" customHeight="1">
+      <c r="B3" s="63"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="T3" s="92"/>
+      <c r="V3" s="97" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B4" s="56"/>
+      <c r="D4" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="93"/>
+      <c r="V4" s="98"/>
+    </row>
+    <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B5" s="57">
         <v>1</v>
       </c>
-      <c r="E2" s="60" cm="1">
-        <f t="array" ref="E2">COLUMN() - COLUMN($C:$C)</f>
-        <v>2</v>
-      </c>
-      <c r="F2" s="60" cm="1">
-        <f t="array" ref="F2">COLUMN() - COLUMN($C:$C)</f>
-        <v>3</v>
-      </c>
-      <c r="G2" s="60" cm="1">
-        <f t="array" ref="G2">COLUMN() - COLUMN($C:$C)</f>
-        <v>4</v>
-      </c>
-      <c r="H2" s="60" cm="1">
-        <f t="array" ref="H2">COLUMN() - COLUMN($C:$C)</f>
-        <v>5</v>
-      </c>
-      <c r="I2" s="60" cm="1">
-        <f t="array" ref="I2">COLUMN() - COLUMN($C:$C)</f>
-        <v>6</v>
-      </c>
-      <c r="J2" s="60" cm="1">
-        <f t="array" ref="J2">COLUMN() - COLUMN($C:$C)</f>
-        <v>7</v>
-      </c>
-      <c r="K2" s="60" cm="1">
-        <f t="array" ref="K2">COLUMN() - COLUMN($C:$C)</f>
-        <v>8</v>
-      </c>
-      <c r="L2" s="60" cm="1">
-        <f t="array" ref="L2">COLUMN() - COLUMN($C:$C)</f>
-        <v>9</v>
-      </c>
-      <c r="M2" s="60" cm="1">
-        <f t="array" ref="M2">COLUMN() - COLUMN($C:$C)</f>
-        <v>10</v>
-      </c>
-      <c r="N2" s="60" cm="1">
-        <f t="array" ref="N2">COLUMN() - COLUMN($C:$C)</f>
-        <v>11</v>
-      </c>
-      <c r="O2" s="60" cm="1">
-        <f t="array" ref="O2">COLUMN() - COLUMN($C:$C)</f>
-        <v>12</v>
-      </c>
-      <c r="P2" s="60" cm="1">
-        <f t="array" ref="P2">COLUMN() - COLUMN($C:$C)</f>
-        <v>13</v>
-      </c>
-      <c r="Q2" s="60" cm="1">
-        <f t="array" ref="Q2">COLUMN() - COLUMN($C:$C)</f>
-        <v>14</v>
-      </c>
-      <c r="R2" s="60" cm="1">
-        <f t="array" ref="R2">COLUMN() - COLUMN($C:$C)</f>
-        <v>15</v>
-      </c>
-      <c r="S2" s="60"/>
-      <c r="V2" s="68">
-        <f xml:space="preserve"> LEN(V3)</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" s="77" customFormat="1" ht="60" customHeight="1">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="71"/>
-      <c r="V3" s="101" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B4" s="65"/>
-      <c r="D4" s="88" t="s">
+      <c r="D5" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="94"/>
+      <c r="V5" s="98"/>
+    </row>
+    <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
+      <c r="B6" s="58"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>300</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="88" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" s="88" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="88" t="s">
+      <c r="J6" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="95"/>
+      <c r="V6" s="98"/>
+    </row>
+    <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
+      <c r="B7" s="55"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="66"/>
+      <c r="V7" s="98"/>
+    </row>
+    <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B8" s="56"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="I8" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="H4" s="88" t="s">
-        <v>236</v>
-      </c>
-      <c r="I4" s="88" t="s">
-        <v>237</v>
-      </c>
-      <c r="J4" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="53"/>
-      <c r="V4" s="102"/>
-    </row>
-    <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B5" s="66">
-        <v>1</v>
-      </c>
-      <c r="D5" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="F5" s="94" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="I5" s="94" t="s">
-        <v>170</v>
-      </c>
-      <c r="J5" s="94" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="54"/>
-      <c r="V5" s="102"/>
-    </row>
-    <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
-      <c r="B6" s="67"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6" s="93" t="s">
-        <v>269</v>
-      </c>
-      <c r="G6" s="93" t="s">
-        <v>282</v>
-      </c>
-      <c r="H6" s="93" t="s">
-        <v>283</v>
-      </c>
-      <c r="I6" s="93" t="s">
-        <v>284</v>
-      </c>
-      <c r="J6" s="93" t="s">
-        <v>286</v>
-      </c>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="55"/>
-      <c r="V6" s="102"/>
-    </row>
-    <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
-      <c r="B7" s="64"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="57"/>
-      <c r="V7" s="102"/>
-    </row>
-    <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B8" s="65"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="G8" s="88" t="s">
-        <v>241</v>
-      </c>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="J8" s="88" t="s">
+      <c r="J8" s="84"/>
+      <c r="K8" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="L8" s="84" t="s">
+        <v>273</v>
+      </c>
+      <c r="M8" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="K8" s="88" t="s">
-        <v>244</v>
-      </c>
-      <c r="L8" s="88" t="s">
-        <v>289</v>
-      </c>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88" t="s">
-        <v>246</v>
-      </c>
-      <c r="O8" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="P8" s="88" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q8" s="88" t="s">
-        <v>251</v>
-      </c>
-      <c r="R8" s="88" t="s">
-        <v>235</v>
-      </c>
-      <c r="S8" s="53"/>
-      <c r="V8" s="102"/>
+      <c r="N8" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q8" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="R8" s="84" t="s">
+        <v>291</v>
+      </c>
+      <c r="S8" s="93"/>
+      <c r="V8" s="98"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B9" s="66">
+      <c r="B9" s="57">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="94" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="94" t="s">
-        <v>189</v>
-      </c>
-      <c r="H9" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="I9" s="94" t="s">
+      <c r="D9" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="J9" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="K9" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="L9" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="M9" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="N9" s="94" t="s">
+      <c r="L9" s="80" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="N9" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="O9" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="P9" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q9" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="R9" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="O9" s="94" t="s">
-        <v>197</v>
-      </c>
-      <c r="P9" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q9" s="94" t="s">
-        <v>199</v>
-      </c>
-      <c r="R9" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="S9" s="54"/>
-      <c r="T9" s="71"/>
-      <c r="V9" s="102"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="92"/>
+      <c r="V9" s="98"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B10" s="67"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93" t="s">
-        <v>287</v>
-      </c>
-      <c r="F10" s="93" t="s">
-        <v>240</v>
-      </c>
-      <c r="G10" s="93" t="s">
-        <v>242</v>
-      </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93" t="s">
-        <v>271</v>
-      </c>
-      <c r="J10" s="93" t="s">
-        <v>288</v>
-      </c>
-      <c r="K10" s="93" t="s">
-        <v>245</v>
-      </c>
-      <c r="L10" s="93" t="s">
-        <v>290</v>
-      </c>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93" t="s">
-        <v>247</v>
-      </c>
-      <c r="O10" s="93" t="s">
+      <c r="B10" s="58"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="I10" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="L10" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="M10" s="85" t="s">
+        <v>244</v>
+      </c>
+      <c r="N10" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q10" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="R10" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="S10" s="96"/>
+      <c r="V10" s="98"/>
+    </row>
+    <row r="11" spans="2:22" s="66" customFormat="1" ht="60" customHeight="1">
+      <c r="B11" s="65"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="V11" s="98"/>
+    </row>
+    <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B12" s="56"/>
+      <c r="D12" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>299</v>
+      </c>
+      <c r="F12" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="P10" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q10" s="93" t="s">
-        <v>292</v>
-      </c>
-      <c r="R10" s="93" t="s">
-        <v>282</v>
-      </c>
-      <c r="S10" s="58"/>
-      <c r="V10" s="102"/>
-    </row>
-    <row r="11" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78" t="s">
-        <v>308</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="57"/>
-      <c r="V11" s="102"/>
-    </row>
-    <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B12" s="65"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="88" t="s">
-        <v>230</v>
-      </c>
-      <c r="E12" s="88" t="s">
-        <v>272</v>
-      </c>
-      <c r="F12" s="88" t="s">
-        <v>308</v>
-      </c>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88" t="s">
+      <c r="G12" s="84" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" s="84" t="s">
         <v>293</v>
       </c>
-      <c r="K12" s="88" t="s">
-        <v>252</v>
-      </c>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="N12" s="88" t="s">
-        <v>274</v>
-      </c>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q12" s="88" t="s">
-        <v>246</v>
-      </c>
-      <c r="R12" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="S12" s="53"/>
-      <c r="V12" s="102"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84" t="s">
+        <v>279</v>
+      </c>
+      <c r="M12" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="P12" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84" t="s">
+        <v>279</v>
+      </c>
+      <c r="S12" s="93"/>
+      <c r="V12" s="98"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B13" s="66">
+      <c r="B13" s="57">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" s="94" t="s">
+      <c r="D13" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="G13" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="H13" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="J13" s="94" t="s">
+      <c r="I13" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="L13" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="K13" s="94" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="94" t="s">
+      <c r="M13" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="N13" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="M13" s="94" t="s">
-        <v>175</v>
-      </c>
-      <c r="N13" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="O13" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="P13" s="94" t="s">
+      <c r="O13" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="P13" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q13" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="R13" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="Q13" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="R13" s="94" t="s">
-        <v>197</v>
-      </c>
-      <c r="S13" s="54"/>
-      <c r="V13" s="103"/>
+      <c r="S13" s="94"/>
+      <c r="V13" s="98"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B14" s="67"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="E14" s="93" t="s">
-        <v>273</v>
-      </c>
-      <c r="F14" s="93" t="s">
-        <v>309</v>
-      </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93" t="s">
-        <v>294</v>
-      </c>
-      <c r="K14" s="93" t="s">
+      <c r="B14" s="58"/>
+      <c r="D14" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14" s="85" t="s">
+        <v>297</v>
+      </c>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="M14" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="P14" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="S14" s="96"/>
+      <c r="V14" s="98"/>
+    </row>
+    <row r="15" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B15" s="63"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="V15" s="98"/>
+    </row>
+    <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B16" s="56"/>
+      <c r="D16" s="84" t="s">
         <v>295</v>
       </c>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93" t="s">
-        <v>296</v>
-      </c>
-      <c r="N14" s="93" t="s">
-        <v>297</v>
-      </c>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q14" s="93" t="s">
-        <v>247</v>
-      </c>
-      <c r="R14" s="93" t="s">
+      <c r="E16" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>291</v>
+      </c>
+      <c r="G16" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="I16" s="84" t="s">
+        <v>299</v>
+      </c>
+      <c r="J16" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="S14" s="58"/>
-      <c r="V14" s="69"/>
-    </row>
-    <row r="15" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B15" s="74"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="84"/>
-      <c r="V15" s="86"/>
-    </row>
-    <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B16" s="65"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="88" t="s">
-        <v>250</v>
-      </c>
-      <c r="E16" s="88" t="s">
-        <v>251</v>
-      </c>
-      <c r="F16" s="88" t="s">
-        <v>254</v>
-      </c>
-      <c r="G16" s="88" t="s">
-        <v>235</v>
-      </c>
-      <c r="H16" s="88" t="s">
-        <v>230</v>
-      </c>
-      <c r="I16" s="88" t="s">
-        <v>272</v>
-      </c>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="M16" s="88" t="s">
-        <v>256</v>
-      </c>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88" t="s">
-        <v>230</v>
-      </c>
-      <c r="P16" s="88" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q16" s="88" t="s">
-        <v>257</v>
-      </c>
-      <c r="R16" s="88" t="s">
+      <c r="K16" s="84" t="s">
+        <v>275</v>
+      </c>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="N16" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="O16" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="S16" s="53"/>
-      <c r="V16" s="69"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="R16" s="84" t="s">
+        <v>275</v>
+      </c>
+      <c r="S16" s="93"/>
+      <c r="V16" s="98"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B17" s="66">
+      <c r="B17" s="57">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" s="94" t="s">
+      <c r="D17" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="94" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="H17" s="94" t="s">
+      <c r="F17" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="G17" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="I17" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="J17" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="K17" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="L17" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="I17" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="J17" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="K17" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="L17" s="94" t="s">
-        <v>197</v>
-      </c>
-      <c r="M17" s="94" t="s">
-        <v>198</v>
-      </c>
-      <c r="N17" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="O17" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="P17" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q17" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="R17" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="S17" s="54"/>
-      <c r="V17" s="69"/>
+      <c r="M17" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="N17" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="O17" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="P17" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q17" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="R17" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="S17" s="94"/>
+      <c r="V17" s="98"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B18" s="67"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="93" t="s">
+      <c r="B18" s="58"/>
+      <c r="D18" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="H18" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="I18" s="85" t="s">
+        <v>300</v>
+      </c>
+      <c r="J18" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="K18" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="N18" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="O18" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="R18" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="S18" s="96"/>
+      <c r="V18" s="98"/>
+    </row>
+    <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B19" s="63"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="V19" s="98"/>
+    </row>
+    <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B20" s="56"/>
+      <c r="D20" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="84" t="s">
+        <v>283</v>
+      </c>
+      <c r="F20" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="E18" s="93" t="s">
-        <v>292</v>
-      </c>
-      <c r="F18" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="G18" s="93" t="s">
-        <v>282</v>
-      </c>
-      <c r="H18" s="93" t="s">
+      <c r="G20" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="J20" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="84" t="s">
+        <v>291</v>
+      </c>
+      <c r="L20" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="P20" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q20" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="I18" s="93" t="s">
-        <v>273</v>
-      </c>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93" t="s">
-        <v>290</v>
-      </c>
-      <c r="L18" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="M18" s="93" t="s">
-        <v>298</v>
-      </c>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="P18" s="93" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q18" s="93" t="s">
-        <v>258</v>
-      </c>
-      <c r="R18" s="93" t="s">
-        <v>260</v>
-      </c>
-      <c r="S18" s="58"/>
-      <c r="V18" s="69"/>
-    </row>
-    <row r="19" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B19" s="74"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="84"/>
-      <c r="V19" s="86"/>
-    </row>
-    <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B20" s="65"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="88" t="s">
-        <v>250</v>
-      </c>
-      <c r="E20" s="88" t="s">
-        <v>251</v>
-      </c>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88" t="s">
-        <v>275</v>
-      </c>
-      <c r="H20" s="88" t="s">
-        <v>261</v>
-      </c>
-      <c r="I20" s="88" t="s">
-        <v>250</v>
-      </c>
-      <c r="J20" s="88" t="s">
-        <v>251</v>
-      </c>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88" t="s">
-        <v>277</v>
-      </c>
-      <c r="N20" s="88" t="s">
-        <v>262</v>
-      </c>
-      <c r="O20" s="88" t="s">
-        <v>238</v>
-      </c>
-      <c r="P20" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q20" s="88" t="s">
-        <v>241</v>
-      </c>
-      <c r="R20" s="88"/>
-      <c r="S20" s="53"/>
-      <c r="V20" s="69"/>
+      <c r="R20" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="S20" s="93"/>
+      <c r="V20" s="98"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B21" s="66">
+      <c r="B21" s="57">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="E21" s="94" t="s">
-        <v>199</v>
-      </c>
-      <c r="F21" s="94" t="s">
+      <c r="D21" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="G21" s="94" t="s">
-        <v>210</v>
-      </c>
-      <c r="H21" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="I21" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="J21" s="94" t="s">
-        <v>199</v>
-      </c>
-      <c r="K21" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="L21" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="M21" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="N21" s="94" t="s">
+      <c r="I21" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="L21" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="N21" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="P21" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="O21" s="94" t="s">
-        <v>187</v>
-      </c>
-      <c r="P21" s="94" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q21" s="94" t="s">
-        <v>189</v>
-      </c>
-      <c r="R21" s="94" t="s">
-        <v>173</v>
-      </c>
-      <c r="S21" s="54"/>
-      <c r="V21" s="69"/>
+      <c r="Q21" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="R21" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="S21" s="94"/>
+      <c r="V21" s="98"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B22" s="67"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="E22" s="93" t="s">
+      <c r="B22" s="58"/>
+      <c r="D22" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="85" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="H22" s="93" t="s">
+      <c r="G22" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="J22" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="K22" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="L22" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="P22" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q22" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="R22" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="S22" s="96"/>
+      <c r="V22" s="99"/>
+    </row>
+    <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B23" s="63"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="V23" s="68"/>
+    </row>
+    <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B24" s="56"/>
+      <c r="D24" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="H24" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="I24" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="J24" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84" t="s">
+        <v>289</v>
+      </c>
+      <c r="M24" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="N24" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="O24" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84" t="s">
+        <v>261</v>
+      </c>
+      <c r="R24" s="84" t="s">
         <v>299</v>
       </c>
-      <c r="I22" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="J22" s="93" t="s">
-        <v>292</v>
-      </c>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="N22" s="93" t="s">
-        <v>300</v>
-      </c>
-      <c r="O22" s="93" t="s">
-        <v>287</v>
-      </c>
-      <c r="P22" s="93" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q22" s="93" t="s">
-        <v>242</v>
-      </c>
-      <c r="R22" s="93"/>
-      <c r="S22" s="58"/>
-      <c r="V22" s="69"/>
-    </row>
-    <row r="23" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B23" s="74"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="84"/>
-      <c r="V23" s="86"/>
-    </row>
-    <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B24" s="65"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88" t="s">
-        <v>263</v>
-      </c>
-      <c r="F24" s="88" t="s">
-        <v>257</v>
-      </c>
-      <c r="G24" s="88" t="s">
-        <v>279</v>
-      </c>
-      <c r="H24" s="88" t="s">
-        <v>251</v>
-      </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88" t="s">
-        <v>265</v>
-      </c>
-      <c r="K24" s="88" t="s">
-        <v>266</v>
-      </c>
-      <c r="L24" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="M24" s="88" t="s">
-        <v>268</v>
-      </c>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88" t="s">
-        <v>304</v>
-      </c>
-      <c r="P24" s="88" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q24" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="R24" s="88" t="s">
-        <v>251</v>
-      </c>
-      <c r="S24" s="53"/>
-      <c r="V24" s="69"/>
+      <c r="S24" s="93"/>
+      <c r="V24" s="60"/>
     </row>
     <row r="25" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B25" s="66">
+      <c r="B25" s="57">
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="F25" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="G25" s="94" t="s">
-        <v>214</v>
-      </c>
-      <c r="H25" s="94" t="s">
-        <v>199</v>
-      </c>
-      <c r="I25" s="94" t="s">
+      <c r="D25" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="H25" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="I25" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="J25" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="J25" s="94" t="s">
-        <v>227</v>
-      </c>
-      <c r="K25" s="94" t="s">
-        <v>172</v>
-      </c>
-      <c r="L25" s="94" t="s">
-        <v>228</v>
-      </c>
-      <c r="M25" s="94" t="s">
-        <v>229</v>
-      </c>
-      <c r="N25" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="O25" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="P25" s="94" t="s">
+      <c r="L25" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="Q25" s="94" t="s">
-        <v>215</v>
-      </c>
-      <c r="R25" s="94" t="s">
-        <v>199</v>
-      </c>
-      <c r="S25" s="54"/>
-      <c r="V25" s="69"/>
+      <c r="M25" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="N25" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="O25" s="80" t="s">
+        <v>309</v>
+      </c>
+      <c r="P25" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q25" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="R25" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="S25" s="94"/>
+      <c r="V25" s="60"/>
     </row>
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B26" s="67"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93" t="s">
+      <c r="B26" s="58"/>
+      <c r="D26" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85" t="s">
+        <v>304</v>
+      </c>
+      <c r="H26" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="I26" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="F26" s="93" t="s">
-        <v>258</v>
-      </c>
-      <c r="G26" s="93" t="s">
-        <v>280</v>
-      </c>
-      <c r="H26" s="93" t="s">
-        <v>292</v>
-      </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93" t="s">
-        <v>301</v>
-      </c>
-      <c r="K26" s="93" t="s">
-        <v>281</v>
-      </c>
-      <c r="L26" s="93" t="s">
-        <v>302</v>
-      </c>
-      <c r="M26" s="93" t="s">
-        <v>303</v>
-      </c>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93" t="s">
-        <v>305</v>
-      </c>
-      <c r="P26" s="93" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q26" s="93" t="s">
-        <v>307</v>
-      </c>
-      <c r="R26" s="93" t="s">
-        <v>292</v>
-      </c>
-      <c r="S26" s="58"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="M26" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="N26" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="O26" s="85" t="s">
+        <v>311</v>
+      </c>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="R26" s="85" t="s">
+        <v>300</v>
+      </c>
+      <c r="S26" s="96"/>
       <c r="U26" s="1" t="str">
         <f xml:space="preserve"> MID($N$26,3,1)</f>
-        <v/>
-      </c>
-      <c r="V26" s="69"/>
-    </row>
-    <row r="27" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B27" s="74"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="84"/>
-      <c r="U27" s="85" t="str">
+        <v>ˉ</v>
+      </c>
+      <c r="V26" s="60"/>
+    </row>
+    <row r="27" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B27" s="63"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="U27" s="67" t="str">
         <f xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
       </c>
-      <c r="V27" s="86"/>
+      <c r="V27" s="68"/>
     </row>
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B28" s="65"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="88" t="s">
-        <v>261</v>
-      </c>
-      <c r="E28" s="88" t="s">
-        <v>251</v>
-      </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88" t="s">
+      <c r="B28" s="56"/>
+      <c r="D28" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="F28" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="J28" s="84" t="s">
+        <v>299</v>
+      </c>
+      <c r="K28" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="H28" s="88" t="s">
-        <v>235</v>
-      </c>
-      <c r="I28" s="88" t="s">
-        <v>230</v>
-      </c>
-      <c r="J28" s="88" t="s">
-        <v>272</v>
-      </c>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="53"/>
-      <c r="U28" s="85" t="str">
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="93"/>
+      <c r="U28" s="67" t="str">
         <f t="shared" ref="U28:U32" si="0" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
       </c>
-      <c r="V28" s="69"/>
+      <c r="V28" s="60"/>
     </row>
     <row r="29" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B29" s="66">
+      <c r="B29" s="57">
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="E29" s="94" t="s">
-        <v>199</v>
-      </c>
-      <c r="F29" s="94" t="s">
+      <c r="D29" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="G29" s="94" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="I29" s="94" t="s">
+      <c r="I29" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="K29" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="J29" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="K29" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="L29" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="54"/>
-      <c r="U29" s="85" t="str">
+      <c r="N29" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="94"/>
+      <c r="U29" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V29" s="69"/>
+      <c r="V29" s="60"/>
     </row>
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B30" s="67"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="93" t="s">
-        <v>299</v>
-      </c>
-      <c r="E30" s="93" t="s">
-        <v>292</v>
-      </c>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93" t="s">
+      <c r="B30" s="58"/>
+      <c r="D30" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="F30" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" s="85" t="s">
+        <v>300</v>
+      </c>
+      <c r="K30" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" s="85" t="s">
         <v>276</v>
       </c>
-      <c r="H30" s="93" t="s">
-        <v>282</v>
-      </c>
-      <c r="I30" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="J30" s="93" t="s">
-        <v>273</v>
-      </c>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="58"/>
-      <c r="U30" s="85" t="str">
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="96"/>
+      <c r="U30" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V30" s="69"/>
-    </row>
-    <row r="31" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B31" s="74"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="84"/>
-      <c r="U31" s="85" t="str">
+      <c r="V30" s="60"/>
+    </row>
+    <row r="31" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B31" s="63"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="U31" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V31" s="86"/>
+      <c r="V31" s="68"/>
     </row>
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B32" s="65"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="53"/>
-      <c r="U32" s="85" t="str">
+      <c r="B32" s="56"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="93"/>
+      <c r="U32" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V32" s="69"/>
+      <c r="V32" s="60"/>
     </row>
     <row r="33" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B33" s="66">
+      <c r="B33" s="57">
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="54"/>
-      <c r="V33" s="69"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="94"/>
+      <c r="V33" s="60"/>
     </row>
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B34" s="67"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="58"/>
-      <c r="V34" s="69"/>
-    </row>
-    <row r="35" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B35" s="74"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="78"/>
-      <c r="Q35" s="78"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="84"/>
-      <c r="V35" s="86"/>
+      <c r="B34" s="58"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="96"/>
+      <c r="V34" s="60"/>
+    </row>
+    <row r="35" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B35" s="63"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="V35" s="68"/>
     </row>
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B36" s="65"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="88"/>
-      <c r="S36" s="53"/>
-      <c r="V36" s="69"/>
+      <c r="B36" s="56"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="93"/>
+      <c r="V36" s="60"/>
     </row>
     <row r="37" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B37" s="66">
+      <c r="B37" s="57">
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
-      <c r="O37" s="94"/>
-      <c r="P37" s="94"/>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="54"/>
-      <c r="V37" s="69"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="94"/>
+      <c r="V37" s="60"/>
     </row>
     <row r="38" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B38" s="67"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="93"/>
-      <c r="S38" s="58"/>
-      <c r="V38" s="69"/>
-    </row>
-    <row r="39" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B39" s="74"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
-      <c r="Q39" s="78"/>
-      <c r="R39" s="78"/>
-      <c r="S39" s="84"/>
-      <c r="V39" s="86"/>
+      <c r="B38" s="58"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="96"/>
+      <c r="V38" s="60"/>
+    </row>
+    <row r="39" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B39" s="63"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="83"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="V39" s="68"/>
     </row>
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B40" s="65"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="53"/>
-      <c r="V40" s="69"/>
+      <c r="B40" s="56"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="84"/>
+      <c r="R40" s="84"/>
+      <c r="S40" s="93"/>
+      <c r="V40" s="60"/>
     </row>
     <row r="41" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B41" s="66">
+      <c r="B41" s="57">
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="94"/>
-      <c r="Q41" s="94"/>
-      <c r="R41" s="94"/>
-      <c r="S41" s="54"/>
-      <c r="V41" s="69"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="80"/>
+      <c r="Q41" s="80"/>
+      <c r="R41" s="80"/>
+      <c r="S41" s="94"/>
+      <c r="V41" s="60"/>
     </row>
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B42" s="67"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="93"/>
-      <c r="S42" s="58"/>
-      <c r="V42" s="69"/>
-    </row>
-    <row r="43" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B43" s="74"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="78"/>
-      <c r="R43" s="78"/>
-      <c r="S43" s="84"/>
-      <c r="V43" s="86"/>
+      <c r="B42" s="58"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="96"/>
+      <c r="V42" s="60"/>
+    </row>
+    <row r="43" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B43" s="63"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="83"/>
+      <c r="Q43" s="83"/>
+      <c r="R43" s="83"/>
+      <c r="V43" s="68"/>
     </row>
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B44" s="65"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="53"/>
-      <c r="V44" s="69"/>
+      <c r="B44" s="56"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="84"/>
+      <c r="R44" s="84"/>
+      <c r="S44" s="93"/>
+      <c r="V44" s="60"/>
     </row>
     <row r="45" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B45" s="66">
+      <c r="B45" s="57">
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
-      <c r="R45" s="94"/>
-      <c r="S45" s="54"/>
-      <c r="V45" s="69"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="94"/>
+      <c r="V45" s="60"/>
     </row>
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B46" s="67"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="93"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="93"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="93"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="93"/>
-      <c r="R46" s="93"/>
-      <c r="S46" s="58"/>
-      <c r="V46" s="69"/>
-    </row>
-    <row r="47" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B47" s="74"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="78"/>
-      <c r="P47" s="78"/>
-      <c r="Q47" s="78"/>
-      <c r="R47" s="78"/>
-      <c r="S47" s="84"/>
-      <c r="V47" s="86"/>
+      <c r="B46" s="58"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="85"/>
+      <c r="S46" s="96"/>
+      <c r="V46" s="60"/>
+    </row>
+    <row r="47" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B47" s="63"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="83"/>
+      <c r="V47" s="68"/>
     </row>
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B48" s="65"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="88"/>
-      <c r="R48" s="88"/>
-      <c r="S48" s="53"/>
-      <c r="V48" s="69"/>
+      <c r="B48" s="56"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="84"/>
+      <c r="Q48" s="84"/>
+      <c r="R48" s="84"/>
+      <c r="S48" s="93"/>
+      <c r="V48" s="60"/>
     </row>
     <row r="49" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B49" s="66">
+      <c r="B49" s="57">
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="94"/>
-      <c r="P49" s="94"/>
-      <c r="Q49" s="94"/>
-      <c r="R49" s="94"/>
-      <c r="S49" s="54"/>
-      <c r="V49" s="69"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="80"/>
+      <c r="S49" s="94"/>
+      <c r="V49" s="60"/>
     </row>
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B50" s="67"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
-      <c r="L50" s="93"/>
-      <c r="M50" s="93"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="93"/>
-      <c r="P50" s="93"/>
-      <c r="Q50" s="93"/>
-      <c r="R50" s="93"/>
-      <c r="S50" s="58"/>
-      <c r="V50" s="69"/>
-    </row>
-    <row r="51" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B51" s="74"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="78"/>
-      <c r="R51" s="78"/>
-      <c r="S51" s="84"/>
-      <c r="V51" s="86"/>
+      <c r="B50" s="58"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="85"/>
+      <c r="N50" s="85"/>
+      <c r="O50" s="85"/>
+      <c r="P50" s="85"/>
+      <c r="Q50" s="85"/>
+      <c r="R50" s="85"/>
+      <c r="S50" s="96"/>
+      <c r="V50" s="60"/>
+    </row>
+    <row r="51" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B51" s="63"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="83"/>
+      <c r="R51" s="83"/>
+      <c r="V51" s="68"/>
     </row>
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B52" s="65"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="88"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="88"/>
-      <c r="P52" s="88"/>
-      <c r="Q52" s="88"/>
-      <c r="R52" s="88"/>
-      <c r="S52" s="53"/>
-      <c r="V52" s="69"/>
+      <c r="B52" s="56"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="84"/>
+      <c r="S52" s="93"/>
+      <c r="V52" s="60"/>
     </row>
     <row r="53" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B53" s="66">
+      <c r="B53" s="57">
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="94"/>
-      <c r="M53" s="94"/>
-      <c r="N53" s="94"/>
-      <c r="O53" s="94"/>
-      <c r="P53" s="94"/>
-      <c r="Q53" s="94"/>
-      <c r="R53" s="94"/>
-      <c r="S53" s="54"/>
-      <c r="V53" s="69"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="80"/>
+      <c r="O53" s="80"/>
+      <c r="P53" s="80"/>
+      <c r="Q53" s="80"/>
+      <c r="R53" s="80"/>
+      <c r="S53" s="94"/>
+      <c r="V53" s="60"/>
     </row>
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B54" s="67"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="93"/>
-      <c r="M54" s="93"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="93"/>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="93"/>
-      <c r="R54" s="93"/>
-      <c r="S54" s="58"/>
-      <c r="V54" s="69"/>
-    </row>
-    <row r="55" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B55" s="74"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
-      <c r="Q55" s="78"/>
-      <c r="R55" s="78"/>
-      <c r="S55" s="84"/>
-      <c r="V55" s="86"/>
+      <c r="B54" s="58"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="85"/>
+      <c r="N54" s="85"/>
+      <c r="O54" s="85"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="85"/>
+      <c r="R54" s="85"/>
+      <c r="S54" s="96"/>
+      <c r="V54" s="60"/>
+    </row>
+    <row r="55" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B55" s="63"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="83"/>
+      <c r="O55" s="83"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="V55" s="68"/>
     </row>
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B56" s="65"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="88"/>
-      <c r="M56" s="88"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="88"/>
-      <c r="P56" s="88"/>
-      <c r="Q56" s="88"/>
-      <c r="R56" s="88"/>
-      <c r="S56" s="53"/>
-      <c r="V56" s="69"/>
+      <c r="B56" s="56"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="84"/>
+      <c r="S56" s="93"/>
+      <c r="V56" s="60"/>
     </row>
     <row r="57" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B57" s="66">
+      <c r="B57" s="57">
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="94"/>
-      <c r="N57" s="94"/>
-      <c r="O57" s="94"/>
-      <c r="P57" s="94"/>
-      <c r="Q57" s="94"/>
-      <c r="R57" s="94"/>
-      <c r="S57" s="54"/>
-      <c r="V57" s="69"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="80"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="80"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="80"/>
+      <c r="S57" s="94"/>
+      <c r="V57" s="60"/>
     </row>
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B58" s="67"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="93"/>
-      <c r="H58" s="93"/>
-      <c r="I58" s="93"/>
-      <c r="J58" s="93"/>
-      <c r="K58" s="93"/>
-      <c r="L58" s="93"/>
-      <c r="M58" s="93"/>
-      <c r="N58" s="93"/>
-      <c r="O58" s="93"/>
-      <c r="P58" s="93"/>
-      <c r="Q58" s="93"/>
-      <c r="R58" s="93"/>
-      <c r="S58" s="58"/>
-      <c r="V58" s="69"/>
-    </row>
-    <row r="59" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B59" s="74"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="78"/>
-      <c r="R59" s="78"/>
-      <c r="S59" s="84"/>
-      <c r="V59" s="86"/>
+      <c r="B58" s="58"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="85"/>
+      <c r="O58" s="85"/>
+      <c r="P58" s="85"/>
+      <c r="Q58" s="85"/>
+      <c r="R58" s="85"/>
+      <c r="S58" s="96"/>
+      <c r="V58" s="60"/>
+    </row>
+    <row r="59" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B59" s="63"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="83"/>
+      <c r="Q59" s="83"/>
+      <c r="R59" s="83"/>
+      <c r="V59" s="68"/>
     </row>
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B60" s="65"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
-      <c r="Q60" s="88"/>
-      <c r="R60" s="88"/>
-      <c r="S60" s="53"/>
-      <c r="V60" s="69"/>
+      <c r="B60" s="56"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="84"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="84"/>
+      <c r="Q60" s="84"/>
+      <c r="R60" s="84"/>
+      <c r="S60" s="93"/>
+      <c r="V60" s="60"/>
     </row>
     <row r="61" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B61" s="66">
+      <c r="B61" s="57">
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="C61" s="52"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="94"/>
-      <c r="I61" s="94"/>
-      <c r="J61" s="94"/>
-      <c r="K61" s="94"/>
-      <c r="L61" s="94"/>
-      <c r="M61" s="94"/>
-      <c r="N61" s="94"/>
-      <c r="O61" s="94"/>
-      <c r="P61" s="94"/>
-      <c r="Q61" s="94"/>
-      <c r="R61" s="94"/>
-      <c r="S61" s="54"/>
-      <c r="V61" s="69"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="80"/>
+      <c r="R61" s="80"/>
+      <c r="S61" s="94"/>
+      <c r="V61" s="60"/>
     </row>
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B62" s="67"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="93"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="93"/>
-      <c r="J62" s="93"/>
-      <c r="K62" s="93"/>
-      <c r="L62" s="93"/>
-      <c r="M62" s="93"/>
-      <c r="N62" s="93"/>
-      <c r="O62" s="93"/>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="93"/>
-      <c r="R62" s="93"/>
-      <c r="S62" s="58"/>
-      <c r="V62" s="69"/>
-    </row>
-    <row r="63" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B63" s="74"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="78"/>
-      <c r="J63" s="78"/>
-      <c r="K63" s="78"/>
-      <c r="L63" s="78"/>
-      <c r="M63" s="78"/>
-      <c r="N63" s="78"/>
-      <c r="O63" s="78"/>
-      <c r="P63" s="78"/>
-      <c r="Q63" s="78"/>
-      <c r="R63" s="78"/>
-      <c r="S63" s="84"/>
-      <c r="V63" s="86"/>
+      <c r="B62" s="58"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="85"/>
+      <c r="J62" s="85"/>
+      <c r="K62" s="85"/>
+      <c r="L62" s="85"/>
+      <c r="M62" s="85"/>
+      <c r="N62" s="85"/>
+      <c r="O62" s="85"/>
+      <c r="P62" s="85"/>
+      <c r="Q62" s="85"/>
+      <c r="R62" s="85"/>
+      <c r="S62" s="96"/>
+      <c r="V62" s="60"/>
+    </row>
+    <row r="63" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B63" s="63"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="83"/>
+      <c r="J63" s="83"/>
+      <c r="K63" s="83"/>
+      <c r="L63" s="83"/>
+      <c r="M63" s="83"/>
+      <c r="N63" s="83"/>
+      <c r="O63" s="83"/>
+      <c r="P63" s="83"/>
+      <c r="Q63" s="83"/>
+      <c r="R63" s="83"/>
+      <c r="V63" s="68"/>
     </row>
     <row r="64" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B64" s="65"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="88"/>
-      <c r="L64" s="88"/>
-      <c r="M64" s="88"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="88"/>
-      <c r="P64" s="88"/>
-      <c r="Q64" s="88"/>
-      <c r="R64" s="88"/>
-      <c r="S64" s="53"/>
-      <c r="V64" s="69"/>
+      <c r="B64" s="56"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="84"/>
+      <c r="Q64" s="84"/>
+      <c r="R64" s="84"/>
+      <c r="S64" s="93"/>
+      <c r="V64" s="60"/>
     </row>
     <row r="65" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B65" s="66">
+      <c r="B65" s="57">
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="C65" s="52"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="94"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="94"/>
-      <c r="H65" s="94"/>
-      <c r="I65" s="94"/>
-      <c r="J65" s="94"/>
-      <c r="K65" s="94"/>
-      <c r="L65" s="94"/>
-      <c r="M65" s="94"/>
-      <c r="N65" s="94"/>
-      <c r="O65" s="94"/>
-      <c r="P65" s="94"/>
-      <c r="Q65" s="94"/>
-      <c r="R65" s="94"/>
-      <c r="S65" s="54"/>
-      <c r="V65" s="69"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="80"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="80"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="80"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="80"/>
+      <c r="P65" s="80"/>
+      <c r="Q65" s="80"/>
+      <c r="R65" s="80"/>
+      <c r="S65" s="94"/>
+      <c r="V65" s="60"/>
     </row>
     <row r="66" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B66" s="67"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="93"/>
-      <c r="F66" s="93"/>
-      <c r="G66" s="93"/>
-      <c r="H66" s="93"/>
-      <c r="I66" s="93"/>
-      <c r="J66" s="93"/>
-      <c r="K66" s="93"/>
-      <c r="L66" s="93"/>
-      <c r="M66" s="93"/>
-      <c r="N66" s="93"/>
-      <c r="O66" s="93"/>
-      <c r="P66" s="93"/>
-      <c r="Q66" s="93"/>
-      <c r="R66" s="93"/>
-      <c r="S66" s="58"/>
-      <c r="V66" s="69"/>
-    </row>
-    <row r="67" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B67" s="74"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="78"/>
-      <c r="L67" s="78"/>
-      <c r="M67" s="78"/>
-      <c r="N67" s="78"/>
-      <c r="O67" s="78"/>
-      <c r="P67" s="78"/>
-      <c r="Q67" s="78"/>
-      <c r="R67" s="78"/>
-      <c r="S67" s="84"/>
-      <c r="V67" s="86"/>
+      <c r="B66" s="58"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="85"/>
+      <c r="K66" s="85"/>
+      <c r="L66" s="85"/>
+      <c r="M66" s="85"/>
+      <c r="N66" s="85"/>
+      <c r="O66" s="85"/>
+      <c r="P66" s="85"/>
+      <c r="Q66" s="85"/>
+      <c r="R66" s="85"/>
+      <c r="S66" s="96"/>
+      <c r="V66" s="60"/>
+    </row>
+    <row r="67" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B67" s="63"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="83"/>
+      <c r="N67" s="83"/>
+      <c r="O67" s="83"/>
+      <c r="P67" s="83"/>
+      <c r="Q67" s="83"/>
+      <c r="R67" s="83"/>
+      <c r="V67" s="68"/>
     </row>
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B68" s="65"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="88"/>
-      <c r="K68" s="88"/>
-      <c r="L68" s="88"/>
-      <c r="M68" s="88"/>
-      <c r="N68" s="88"/>
-      <c r="O68" s="88"/>
-      <c r="P68" s="88"/>
-      <c r="Q68" s="88"/>
-      <c r="R68" s="88"/>
-      <c r="S68" s="53"/>
-      <c r="V68" s="69"/>
+      <c r="B68" s="56"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="84"/>
+      <c r="K68" s="84"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="84"/>
+      <c r="N68" s="84"/>
+      <c r="O68" s="84"/>
+      <c r="P68" s="84"/>
+      <c r="Q68" s="84"/>
+      <c r="R68" s="84"/>
+      <c r="S68" s="93"/>
+      <c r="V68" s="60"/>
     </row>
     <row r="69" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B69" s="66">
+      <c r="B69" s="57">
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="C69" s="52"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="94"/>
-      <c r="J69" s="94"/>
-      <c r="K69" s="94"/>
-      <c r="L69" s="94"/>
-      <c r="M69" s="94"/>
-      <c r="N69" s="94"/>
-      <c r="O69" s="94"/>
-      <c r="P69" s="94"/>
-      <c r="Q69" s="94"/>
-      <c r="R69" s="94"/>
-      <c r="S69" s="54"/>
-      <c r="V69" s="69"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="80"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="80"/>
+      <c r="M69" s="80"/>
+      <c r="N69" s="80"/>
+      <c r="O69" s="80"/>
+      <c r="P69" s="80"/>
+      <c r="Q69" s="80"/>
+      <c r="R69" s="80"/>
+      <c r="S69" s="94"/>
+      <c r="V69" s="60"/>
     </row>
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B70" s="67"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="93"/>
-      <c r="E70" s="93"/>
-      <c r="F70" s="93"/>
-      <c r="G70" s="93"/>
-      <c r="H70" s="93"/>
-      <c r="I70" s="93"/>
-      <c r="J70" s="93"/>
-      <c r="K70" s="93"/>
-      <c r="L70" s="93"/>
-      <c r="M70" s="93"/>
-      <c r="N70" s="93"/>
-      <c r="O70" s="93"/>
-      <c r="P70" s="93"/>
-      <c r="Q70" s="93"/>
-      <c r="R70" s="93"/>
-      <c r="S70" s="58"/>
-      <c r="V70" s="69"/>
-    </row>
-    <row r="71" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B71" s="74"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="78"/>
-      <c r="E71" s="78"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="78"/>
-      <c r="H71" s="78"/>
-      <c r="I71" s="78"/>
-      <c r="J71" s="78"/>
-      <c r="K71" s="78"/>
-      <c r="L71" s="78"/>
-      <c r="M71" s="78"/>
-      <c r="N71" s="78"/>
-      <c r="O71" s="78"/>
-      <c r="P71" s="78"/>
-      <c r="Q71" s="78"/>
-      <c r="R71" s="78"/>
-      <c r="S71" s="84"/>
-      <c r="V71" s="86"/>
+      <c r="B70" s="58"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
+      <c r="I70" s="85"/>
+      <c r="J70" s="85"/>
+      <c r="K70" s="85"/>
+      <c r="L70" s="85"/>
+      <c r="M70" s="85"/>
+      <c r="N70" s="85"/>
+      <c r="O70" s="85"/>
+      <c r="P70" s="85"/>
+      <c r="Q70" s="85"/>
+      <c r="R70" s="85"/>
+      <c r="S70" s="96"/>
+      <c r="V70" s="60"/>
+    </row>
+    <row r="71" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B71" s="63"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="83"/>
+      <c r="J71" s="83"/>
+      <c r="K71" s="83"/>
+      <c r="L71" s="83"/>
+      <c r="M71" s="83"/>
+      <c r="N71" s="83"/>
+      <c r="O71" s="83"/>
+      <c r="P71" s="83"/>
+      <c r="Q71" s="83"/>
+      <c r="R71" s="83"/>
+      <c r="V71" s="68"/>
     </row>
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B72" s="65"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="88"/>
-      <c r="H72" s="88"/>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="K72" s="88"/>
-      <c r="L72" s="88"/>
-      <c r="M72" s="88"/>
-      <c r="N72" s="88"/>
-      <c r="O72" s="88"/>
-      <c r="P72" s="88"/>
-      <c r="Q72" s="88"/>
-      <c r="R72" s="88"/>
-      <c r="S72" s="53"/>
-      <c r="V72" s="69"/>
+      <c r="B72" s="56"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="84"/>
+      <c r="J72" s="84"/>
+      <c r="K72" s="84"/>
+      <c r="L72" s="84"/>
+      <c r="M72" s="84"/>
+      <c r="N72" s="84"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="84"/>
+      <c r="Q72" s="84"/>
+      <c r="R72" s="84"/>
+      <c r="S72" s="93"/>
+      <c r="V72" s="60"/>
     </row>
     <row r="73" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B73" s="66">
+      <c r="B73" s="57">
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="C73" s="52"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="94"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
-      <c r="M73" s="94"/>
-      <c r="N73" s="94"/>
-      <c r="O73" s="94"/>
-      <c r="P73" s="94"/>
-      <c r="Q73" s="94"/>
-      <c r="R73" s="94"/>
-      <c r="S73" s="54"/>
-      <c r="V73" s="69"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="80"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="80"/>
+      <c r="M73" s="80"/>
+      <c r="N73" s="80"/>
+      <c r="O73" s="80"/>
+      <c r="P73" s="80"/>
+      <c r="Q73" s="80"/>
+      <c r="R73" s="80"/>
+      <c r="S73" s="94"/>
+      <c r="V73" s="60"/>
     </row>
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B74" s="67"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="93"/>
-      <c r="F74" s="93"/>
-      <c r="G74" s="93"/>
-      <c r="H74" s="93"/>
-      <c r="I74" s="93"/>
-      <c r="J74" s="93"/>
-      <c r="K74" s="93"/>
-      <c r="L74" s="93"/>
-      <c r="M74" s="93"/>
-      <c r="N74" s="93"/>
-      <c r="O74" s="93"/>
-      <c r="P74" s="93"/>
-      <c r="Q74" s="93"/>
-      <c r="R74" s="93"/>
-      <c r="S74" s="58"/>
-      <c r="V74" s="69"/>
-    </row>
-    <row r="75" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B75" s="74"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="78"/>
-      <c r="H75" s="78"/>
-      <c r="I75" s="78"/>
-      <c r="J75" s="78"/>
-      <c r="K75" s="78"/>
-      <c r="L75" s="78"/>
-      <c r="M75" s="78"/>
-      <c r="N75" s="78"/>
-      <c r="O75" s="78"/>
-      <c r="P75" s="78"/>
-      <c r="Q75" s="78"/>
-      <c r="R75" s="78"/>
-      <c r="S75" s="84"/>
-      <c r="V75" s="86"/>
+      <c r="B74" s="58"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="85"/>
+      <c r="K74" s="85"/>
+      <c r="L74" s="85"/>
+      <c r="M74" s="85"/>
+      <c r="N74" s="85"/>
+      <c r="O74" s="85"/>
+      <c r="P74" s="85"/>
+      <c r="Q74" s="85"/>
+      <c r="R74" s="85"/>
+      <c r="S74" s="96"/>
+      <c r="V74" s="60"/>
+    </row>
+    <row r="75" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B75" s="63"/>
+      <c r="C75" s="90"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="83"/>
+      <c r="J75" s="83"/>
+      <c r="K75" s="83"/>
+      <c r="L75" s="83"/>
+      <c r="M75" s="83"/>
+      <c r="N75" s="83"/>
+      <c r="O75" s="83"/>
+      <c r="P75" s="83"/>
+      <c r="Q75" s="83"/>
+      <c r="R75" s="83"/>
+      <c r="V75" s="68"/>
     </row>
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B76" s="65"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="88"/>
-      <c r="F76" s="88"/>
-      <c r="G76" s="88"/>
-      <c r="H76" s="88"/>
-      <c r="I76" s="88"/>
-      <c r="J76" s="88"/>
-      <c r="K76" s="88"/>
-      <c r="L76" s="88"/>
-      <c r="M76" s="88"/>
-      <c r="N76" s="88"/>
-      <c r="O76" s="88"/>
-      <c r="P76" s="88"/>
-      <c r="Q76" s="88"/>
-      <c r="R76" s="88"/>
-      <c r="S76" s="53"/>
-      <c r="V76" s="69"/>
+      <c r="B76" s="56"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
+      <c r="J76" s="84"/>
+      <c r="K76" s="84"/>
+      <c r="L76" s="84"/>
+      <c r="M76" s="84"/>
+      <c r="N76" s="84"/>
+      <c r="O76" s="84"/>
+      <c r="P76" s="84"/>
+      <c r="Q76" s="84"/>
+      <c r="R76" s="84"/>
+      <c r="S76" s="93"/>
+      <c r="V76" s="60"/>
     </row>
     <row r="77" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B77" s="66">
+      <c r="B77" s="57">
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="C77" s="52"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="94"/>
-      <c r="F77" s="94"/>
-      <c r="G77" s="94"/>
-      <c r="H77" s="94"/>
-      <c r="I77" s="94"/>
-      <c r="J77" s="94"/>
-      <c r="K77" s="94"/>
-      <c r="L77" s="94"/>
-      <c r="M77" s="94"/>
-      <c r="N77" s="94"/>
-      <c r="O77" s="94"/>
-      <c r="P77" s="94"/>
-      <c r="Q77" s="94"/>
-      <c r="R77" s="94"/>
-      <c r="S77" s="54"/>
-      <c r="V77" s="69"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="80"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="80"/>
+      <c r="I77" s="80"/>
+      <c r="J77" s="80"/>
+      <c r="K77" s="80"/>
+      <c r="L77" s="80"/>
+      <c r="M77" s="80"/>
+      <c r="N77" s="80"/>
+      <c r="O77" s="80"/>
+      <c r="P77" s="80"/>
+      <c r="Q77" s="80"/>
+      <c r="R77" s="80"/>
+      <c r="S77" s="94"/>
+      <c r="V77" s="60"/>
     </row>
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B78" s="67"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="93"/>
-      <c r="E78" s="93"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="93"/>
-      <c r="H78" s="93"/>
-      <c r="I78" s="93"/>
-      <c r="J78" s="93"/>
-      <c r="K78" s="93"/>
-      <c r="L78" s="93"/>
-      <c r="M78" s="93"/>
-      <c r="N78" s="93"/>
-      <c r="O78" s="93"/>
-      <c r="P78" s="93"/>
-      <c r="Q78" s="93"/>
-      <c r="R78" s="93"/>
-      <c r="S78" s="58"/>
-      <c r="V78" s="69"/>
-    </row>
-    <row r="79" spans="2:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B79" s="74"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="78"/>
-      <c r="F79" s="78"/>
-      <c r="G79" s="78"/>
-      <c r="H79" s="78"/>
-      <c r="I79" s="78"/>
-      <c r="J79" s="78"/>
-      <c r="K79" s="78"/>
-      <c r="L79" s="78"/>
-      <c r="M79" s="78"/>
-      <c r="N79" s="78"/>
-      <c r="O79" s="78"/>
-      <c r="P79" s="78"/>
-      <c r="Q79" s="78"/>
-      <c r="R79" s="78"/>
-      <c r="S79" s="84"/>
-      <c r="V79" s="86"/>
+      <c r="B78" s="58"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="85"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="85"/>
+      <c r="J78" s="85"/>
+      <c r="K78" s="85"/>
+      <c r="L78" s="85"/>
+      <c r="M78" s="85"/>
+      <c r="N78" s="85"/>
+      <c r="O78" s="85"/>
+      <c r="P78" s="85"/>
+      <c r="Q78" s="85"/>
+      <c r="R78" s="85"/>
+      <c r="S78" s="96"/>
+      <c r="V78" s="60"/>
+    </row>
+    <row r="79" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B79" s="63"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="83"/>
+      <c r="I79" s="83"/>
+      <c r="J79" s="83"/>
+      <c r="K79" s="83"/>
+      <c r="L79" s="83"/>
+      <c r="M79" s="83"/>
+      <c r="N79" s="83"/>
+      <c r="O79" s="83"/>
+      <c r="P79" s="83"/>
+      <c r="Q79" s="83"/>
+      <c r="R79" s="83"/>
+      <c r="V79" s="68"/>
     </row>
     <row r="80" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B80" s="65"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="88"/>
-      <c r="G80" s="88"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="88"/>
-      <c r="J80" s="88"/>
-      <c r="K80" s="88"/>
-      <c r="L80" s="88"/>
-      <c r="M80" s="88"/>
-      <c r="N80" s="88"/>
-      <c r="O80" s="88"/>
-      <c r="P80" s="88"/>
-      <c r="Q80" s="88"/>
-      <c r="R80" s="88"/>
-      <c r="S80" s="53"/>
-      <c r="V80" s="69"/>
-    </row>
-    <row r="81" spans="1:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B81" s="66">
+      <c r="B80" s="56"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="84"/>
+      <c r="J80" s="84"/>
+      <c r="K80" s="84"/>
+      <c r="L80" s="84"/>
+      <c r="M80" s="84"/>
+      <c r="N80" s="84"/>
+      <c r="O80" s="84"/>
+      <c r="P80" s="84"/>
+      <c r="Q80" s="84"/>
+      <c r="R80" s="84"/>
+      <c r="S80" s="93"/>
+      <c r="V80" s="60"/>
+    </row>
+    <row r="81" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B81" s="57">
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="C81" s="52"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="94"/>
-      <c r="F81" s="94"/>
-      <c r="G81" s="94"/>
-      <c r="H81" s="94"/>
-      <c r="I81" s="94"/>
-      <c r="J81" s="94"/>
-      <c r="K81" s="94"/>
-      <c r="L81" s="94"/>
-      <c r="M81" s="94"/>
-      <c r="N81" s="94"/>
-      <c r="O81" s="94"/>
-      <c r="P81" s="94"/>
-      <c r="Q81" s="94"/>
-      <c r="R81" s="94"/>
-      <c r="S81" s="54"/>
-      <c r="V81" s="69"/>
-    </row>
-    <row r="82" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B82" s="67"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="93"/>
-      <c r="E82" s="93"/>
-      <c r="F82" s="93"/>
-      <c r="G82" s="93"/>
-      <c r="H82" s="93"/>
-      <c r="I82" s="93"/>
-      <c r="J82" s="93"/>
-      <c r="K82" s="93"/>
-      <c r="L82" s="93"/>
-      <c r="M82" s="93"/>
-      <c r="N82" s="93"/>
-      <c r="O82" s="93"/>
-      <c r="P82" s="93"/>
-      <c r="Q82" s="93"/>
-      <c r="R82" s="93"/>
-      <c r="S82" s="58"/>
-      <c r="V82" s="69"/>
-    </row>
-    <row r="83" spans="1:22" s="85" customFormat="1" ht="60" customHeight="1">
-      <c r="B83" s="74"/>
-      <c r="C83" s="83"/>
-      <c r="D83" s="78"/>
-      <c r="E83" s="78"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="78"/>
-      <c r="H83" s="78"/>
-      <c r="I83" s="78"/>
-      <c r="J83" s="78"/>
-      <c r="K83" s="78"/>
-      <c r="L83" s="78"/>
-      <c r="M83" s="78"/>
-      <c r="N83" s="78"/>
-      <c r="O83" s="78"/>
-      <c r="P83" s="78"/>
-      <c r="Q83" s="78"/>
-      <c r="R83" s="78"/>
-      <c r="S83" s="84"/>
-      <c r="V83" s="86"/>
-    </row>
-    <row r="84" spans="1:22">
-      <c r="A84" s="1"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="88"/>
-      <c r="G84" s="88"/>
-      <c r="H84" s="88"/>
-      <c r="I84" s="88"/>
-      <c r="J84" s="88"/>
-      <c r="K84" s="88"/>
-      <c r="L84" s="88"/>
-      <c r="M84" s="88"/>
-      <c r="N84" s="88"/>
-      <c r="O84" s="88"/>
-      <c r="P84" s="88"/>
-      <c r="Q84" s="88"/>
-      <c r="R84" s="88"/>
-      <c r="S84" s="53"/>
-    </row>
-    <row r="85" spans="1:22" ht="67.5">
-      <c r="A85" s="1"/>
-      <c r="B85" s="66">
+      <c r="D81" s="80"/>
+      <c r="E81" s="80"/>
+      <c r="F81" s="80"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="80"/>
+      <c r="I81" s="80"/>
+      <c r="J81" s="80"/>
+      <c r="K81" s="80"/>
+      <c r="L81" s="80"/>
+      <c r="M81" s="80"/>
+      <c r="N81" s="80"/>
+      <c r="O81" s="80"/>
+      <c r="P81" s="80"/>
+      <c r="Q81" s="80"/>
+      <c r="R81" s="80"/>
+      <c r="S81" s="94"/>
+      <c r="V81" s="60"/>
+    </row>
+    <row r="82" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B82" s="58"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="85"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="85"/>
+      <c r="O82" s="85"/>
+      <c r="P82" s="85"/>
+      <c r="Q82" s="85"/>
+      <c r="R82" s="85"/>
+      <c r="S82" s="96"/>
+      <c r="V82" s="60"/>
+    </row>
+    <row r="83" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B83" s="63"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="83"/>
+      <c r="G83" s="83"/>
+      <c r="H83" s="83"/>
+      <c r="I83" s="83"/>
+      <c r="J83" s="83"/>
+      <c r="K83" s="83"/>
+      <c r="L83" s="83"/>
+      <c r="M83" s="83"/>
+      <c r="N83" s="83"/>
+      <c r="O83" s="83"/>
+      <c r="P83" s="83"/>
+      <c r="Q83" s="83"/>
+      <c r="R83" s="83"/>
+      <c r="V83" s="68"/>
+    </row>
+    <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B84" s="56"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="84"/>
+      <c r="I84" s="84"/>
+      <c r="J84" s="84"/>
+      <c r="K84" s="84"/>
+      <c r="L84" s="84"/>
+      <c r="M84" s="84"/>
+      <c r="N84" s="84"/>
+      <c r="O84" s="84"/>
+      <c r="P84" s="84"/>
+      <c r="Q84" s="84"/>
+      <c r="R84" s="84"/>
+      <c r="S84" s="93"/>
+      <c r="V84" s="60"/>
+    </row>
+    <row r="85" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B85" s="57">
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="C85" s="52"/>
-      <c r="D85" s="94"/>
-      <c r="E85" s="94"/>
-      <c r="F85" s="94"/>
-      <c r="G85" s="94"/>
-      <c r="H85" s="94"/>
-      <c r="I85" s="94"/>
-      <c r="J85" s="94"/>
-      <c r="K85" s="94"/>
-      <c r="L85" s="94"/>
-      <c r="M85" s="94"/>
-      <c r="N85" s="94"/>
-      <c r="O85" s="94"/>
-      <c r="P85" s="94"/>
-      <c r="Q85" s="94"/>
-      <c r="R85" s="94"/>
-      <c r="S85" s="54"/>
-    </row>
-    <row r="86" spans="1:22">
-      <c r="A86" s="1"/>
-      <c r="B86" s="67"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="93"/>
-      <c r="E86" s="93"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="93"/>
-      <c r="H86" s="93"/>
-      <c r="I86" s="93"/>
-      <c r="J86" s="93"/>
-      <c r="K86" s="93"/>
-      <c r="L86" s="93"/>
-      <c r="M86" s="93"/>
-      <c r="N86" s="93"/>
-      <c r="O86" s="93"/>
-      <c r="P86" s="93"/>
-      <c r="Q86" s="93"/>
-      <c r="R86" s="93"/>
-      <c r="S86" s="58"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="80"/>
+      <c r="F85" s="80"/>
+      <c r="G85" s="81"/>
+      <c r="H85" s="80"/>
+      <c r="I85" s="80"/>
+      <c r="J85" s="80"/>
+      <c r="K85" s="80"/>
+      <c r="L85" s="80"/>
+      <c r="M85" s="80"/>
+      <c r="N85" s="80"/>
+      <c r="O85" s="80"/>
+      <c r="P85" s="80"/>
+      <c r="Q85" s="80"/>
+      <c r="R85" s="80"/>
+      <c r="S85" s="94"/>
+      <c r="V85" s="60"/>
+    </row>
+    <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B86" s="58"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="85"/>
+      <c r="I86" s="85"/>
+      <c r="J86" s="85"/>
+      <c r="K86" s="85"/>
+      <c r="L86" s="85"/>
+      <c r="M86" s="85"/>
+      <c r="N86" s="85"/>
+      <c r="O86" s="85"/>
+      <c r="P86" s="85"/>
+      <c r="Q86" s="85"/>
+      <c r="R86" s="85"/>
+      <c r="S86" s="96"/>
+      <c r="V86" s="60"/>
+    </row>
+    <row r="87" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B87" s="63"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="83"/>
+      <c r="E87" s="83"/>
+      <c r="F87" s="83"/>
+      <c r="G87" s="83"/>
+      <c r="H87" s="83"/>
+      <c r="I87" s="83"/>
+      <c r="J87" s="83"/>
+      <c r="K87" s="83"/>
+      <c r="L87" s="83"/>
+      <c r="M87" s="83"/>
+      <c r="N87" s="83"/>
+      <c r="O87" s="83"/>
+      <c r="P87" s="83"/>
+      <c r="Q87" s="83"/>
+      <c r="R87" s="83"/>
+      <c r="V87" s="68"/>
+    </row>
+    <row r="88" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B88" s="56"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="84"/>
+      <c r="F88" s="84"/>
+      <c r="G88" s="84"/>
+      <c r="H88" s="84"/>
+      <c r="I88" s="84"/>
+      <c r="J88" s="84"/>
+      <c r="K88" s="84"/>
+      <c r="L88" s="84"/>
+      <c r="M88" s="84"/>
+      <c r="N88" s="84"/>
+      <c r="O88" s="84"/>
+      <c r="P88" s="84"/>
+      <c r="Q88" s="84"/>
+      <c r="R88" s="84"/>
+      <c r="S88" s="93"/>
+      <c r="V88" s="60"/>
+    </row>
+    <row r="89" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B89" s="57">
+        <f>B85+1</f>
+        <v>22</v>
+      </c>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="80"/>
+      <c r="G89" s="80"/>
+      <c r="H89" s="80"/>
+      <c r="I89" s="80"/>
+      <c r="J89" s="80"/>
+      <c r="K89" s="80"/>
+      <c r="L89" s="80"/>
+      <c r="M89" s="80"/>
+      <c r="N89" s="80"/>
+      <c r="O89" s="80"/>
+      <c r="P89" s="80"/>
+      <c r="Q89" s="80"/>
+      <c r="R89" s="80"/>
+      <c r="S89" s="94"/>
+      <c r="V89" s="60"/>
+    </row>
+    <row r="90" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B90" s="58"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+      <c r="K90" s="85"/>
+      <c r="L90" s="85"/>
+      <c r="M90" s="85"/>
+      <c r="N90" s="85"/>
+      <c r="O90" s="85"/>
+      <c r="P90" s="85"/>
+      <c r="Q90" s="85"/>
+      <c r="R90" s="85"/>
+      <c r="S90" s="96"/>
+      <c r="V90" s="60"/>
+    </row>
+    <row r="91" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B91" s="63"/>
+      <c r="C91" s="90"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="83"/>
+      <c r="H91" s="83"/>
+      <c r="I91" s="83"/>
+      <c r="J91" s="83"/>
+      <c r="K91" s="83"/>
+      <c r="L91" s="83"/>
+      <c r="M91" s="83"/>
+      <c r="N91" s="83"/>
+      <c r="O91" s="83"/>
+      <c r="P91" s="83"/>
+      <c r="Q91" s="83"/>
+      <c r="R91" s="83"/>
+      <c r="V91" s="68"/>
+    </row>
+    <row r="92" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B92" s="56"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="84"/>
+      <c r="G92" s="84"/>
+      <c r="H92" s="84"/>
+      <c r="I92" s="84"/>
+      <c r="J92" s="84"/>
+      <c r="K92" s="84"/>
+      <c r="L92" s="84"/>
+      <c r="M92" s="84"/>
+      <c r="N92" s="84"/>
+      <c r="O92" s="84"/>
+      <c r="P92" s="84"/>
+      <c r="Q92" s="84"/>
+      <c r="R92" s="84"/>
+      <c r="S92" s="93"/>
+      <c r="V92" s="60"/>
+    </row>
+    <row r="93" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B93" s="57">
+        <f>B89+1</f>
+        <v>23</v>
+      </c>
+      <c r="D93" s="80"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="81"/>
+      <c r="H93" s="80"/>
+      <c r="I93" s="80"/>
+      <c r="J93" s="80"/>
+      <c r="K93" s="80"/>
+      <c r="L93" s="80"/>
+      <c r="M93" s="80"/>
+      <c r="N93" s="80"/>
+      <c r="O93" s="80"/>
+      <c r="P93" s="80"/>
+      <c r="Q93" s="80"/>
+      <c r="R93" s="80"/>
+      <c r="S93" s="94"/>
+      <c r="V93" s="60"/>
+    </row>
+    <row r="94" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B94" s="58"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85"/>
+      <c r="L94" s="85"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="85"/>
+      <c r="O94" s="85"/>
+      <c r="P94" s="85"/>
+      <c r="Q94" s="85"/>
+      <c r="R94" s="85"/>
+      <c r="S94" s="96"/>
+      <c r="V94" s="60"/>
+    </row>
+    <row r="95" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B95" s="63"/>
+      <c r="C95" s="90"/>
+      <c r="D95" s="83"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="83"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="83"/>
+      <c r="I95" s="83"/>
+      <c r="J95" s="83"/>
+      <c r="K95" s="83"/>
+      <c r="L95" s="83"/>
+      <c r="M95" s="83"/>
+      <c r="N95" s="83"/>
+      <c r="O95" s="83"/>
+      <c r="P95" s="83"/>
+      <c r="Q95" s="83"/>
+      <c r="R95" s="83"/>
+      <c r="V95" s="68"/>
+    </row>
+    <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B96" s="56"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="84"/>
+      <c r="G96" s="84"/>
+      <c r="H96" s="84"/>
+      <c r="I96" s="84"/>
+      <c r="J96" s="84"/>
+      <c r="K96" s="84"/>
+      <c r="L96" s="84"/>
+      <c r="M96" s="84"/>
+      <c r="N96" s="84"/>
+      <c r="O96" s="84"/>
+      <c r="P96" s="84"/>
+      <c r="Q96" s="84"/>
+      <c r="R96" s="84"/>
+      <c r="S96" s="93"/>
+      <c r="V96" s="60"/>
+    </row>
+    <row r="97" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B97" s="57">
+        <f>B93+1</f>
+        <v>24</v>
+      </c>
+      <c r="D97" s="80"/>
+      <c r="E97" s="80"/>
+      <c r="F97" s="80"/>
+      <c r="G97" s="81"/>
+      <c r="H97" s="80"/>
+      <c r="I97" s="80"/>
+      <c r="J97" s="80"/>
+      <c r="K97" s="80"/>
+      <c r="L97" s="80"/>
+      <c r="M97" s="80"/>
+      <c r="N97" s="80"/>
+      <c r="O97" s="80"/>
+      <c r="P97" s="80"/>
+      <c r="Q97" s="80"/>
+      <c r="R97" s="80"/>
+      <c r="S97" s="94"/>
+      <c r="V97" s="60"/>
+    </row>
+    <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B98" s="58"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="85"/>
+      <c r="H98" s="85"/>
+      <c r="I98" s="85"/>
+      <c r="J98" s="85"/>
+      <c r="K98" s="85"/>
+      <c r="L98" s="85"/>
+      <c r="M98" s="85"/>
+      <c r="N98" s="85"/>
+      <c r="O98" s="85"/>
+      <c r="P98" s="85"/>
+      <c r="Q98" s="85"/>
+      <c r="R98" s="85"/>
+      <c r="S98" s="96"/>
+      <c r="V98" s="60"/>
+    </row>
+    <row r="99" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B99" s="63"/>
+      <c r="C99" s="90"/>
+      <c r="D99" s="83"/>
+      <c r="E99" s="83"/>
+      <c r="F99" s="83"/>
+      <c r="G99" s="83"/>
+      <c r="H99" s="83"/>
+      <c r="I99" s="83"/>
+      <c r="J99" s="83"/>
+      <c r="K99" s="83"/>
+      <c r="L99" s="83"/>
+      <c r="M99" s="83"/>
+      <c r="N99" s="83"/>
+      <c r="O99" s="83"/>
+      <c r="P99" s="83"/>
+      <c r="Q99" s="83"/>
+      <c r="R99" s="83"/>
+      <c r="V99" s="68"/>
+    </row>
+    <row r="100" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B100" s="56"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="84"/>
+      <c r="G100" s="84"/>
+      <c r="H100" s="84"/>
+      <c r="I100" s="84"/>
+      <c r="J100" s="84"/>
+      <c r="K100" s="84"/>
+      <c r="L100" s="84"/>
+      <c r="M100" s="84"/>
+      <c r="N100" s="84"/>
+      <c r="O100" s="84"/>
+      <c r="P100" s="84"/>
+      <c r="Q100" s="84"/>
+      <c r="R100" s="84"/>
+      <c r="S100" s="93"/>
+      <c r="V100" s="60"/>
+    </row>
+    <row r="101" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B101" s="57">
+        <f>B97+1</f>
+        <v>25</v>
+      </c>
+      <c r="D101" s="80"/>
+      <c r="E101" s="80"/>
+      <c r="F101" s="80"/>
+      <c r="G101" s="81"/>
+      <c r="H101" s="80"/>
+      <c r="I101" s="80"/>
+      <c r="J101" s="80"/>
+      <c r="K101" s="80"/>
+      <c r="L101" s="80"/>
+      <c r="M101" s="80"/>
+      <c r="N101" s="80"/>
+      <c r="O101" s="80"/>
+      <c r="P101" s="80"/>
+      <c r="Q101" s="80"/>
+      <c r="R101" s="80"/>
+      <c r="S101" s="94"/>
+      <c r="V101" s="60"/>
+    </row>
+    <row r="102" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B102" s="58"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="85"/>
+      <c r="F102" s="85"/>
+      <c r="G102" s="85"/>
+      <c r="H102" s="85"/>
+      <c r="I102" s="85"/>
+      <c r="J102" s="85"/>
+      <c r="K102" s="85"/>
+      <c r="L102" s="85"/>
+      <c r="M102" s="85"/>
+      <c r="N102" s="85"/>
+      <c r="O102" s="85"/>
+      <c r="P102" s="85"/>
+      <c r="Q102" s="85"/>
+      <c r="R102" s="85"/>
+      <c r="S102" s="96"/>
+      <c r="V102" s="60"/>
+    </row>
+    <row r="103" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B103" s="63"/>
+      <c r="C103" s="90"/>
+      <c r="D103" s="83"/>
+      <c r="E103" s="83"/>
+      <c r="F103" s="83"/>
+      <c r="G103" s="83"/>
+      <c r="H103" s="83"/>
+      <c r="I103" s="83"/>
+      <c r="J103" s="83"/>
+      <c r="K103" s="83"/>
+      <c r="L103" s="83"/>
+      <c r="M103" s="83"/>
+      <c r="N103" s="83"/>
+      <c r="O103" s="83"/>
+      <c r="P103" s="83"/>
+      <c r="Q103" s="83"/>
+      <c r="R103" s="83"/>
+      <c r="V103" s="68"/>
+    </row>
+    <row r="104" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B104" s="56"/>
+      <c r="D104" s="84"/>
+      <c r="E104" s="84"/>
+      <c r="F104" s="84"/>
+      <c r="G104" s="84"/>
+      <c r="H104" s="84"/>
+      <c r="I104" s="84"/>
+      <c r="J104" s="84"/>
+      <c r="K104" s="84"/>
+      <c r="L104" s="84"/>
+      <c r="M104" s="84"/>
+      <c r="N104" s="84"/>
+      <c r="O104" s="84"/>
+      <c r="P104" s="84"/>
+      <c r="Q104" s="84"/>
+      <c r="R104" s="84"/>
+      <c r="S104" s="93"/>
+      <c r="V104" s="60"/>
+    </row>
+    <row r="105" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B105" s="57">
+        <f>B101+1</f>
+        <v>26</v>
+      </c>
+      <c r="D105" s="80"/>
+      <c r="E105" s="80"/>
+      <c r="F105" s="80"/>
+      <c r="G105" s="81"/>
+      <c r="H105" s="80"/>
+      <c r="I105" s="80"/>
+      <c r="J105" s="80"/>
+      <c r="K105" s="80"/>
+      <c r="L105" s="80"/>
+      <c r="M105" s="80"/>
+      <c r="N105" s="80"/>
+      <c r="O105" s="80"/>
+      <c r="P105" s="80"/>
+      <c r="Q105" s="80"/>
+      <c r="R105" s="80"/>
+      <c r="S105" s="94"/>
+      <c r="V105" s="60"/>
+    </row>
+    <row r="106" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B106" s="58"/>
+      <c r="D106" s="85"/>
+      <c r="E106" s="85"/>
+      <c r="F106" s="85"/>
+      <c r="G106" s="85"/>
+      <c r="H106" s="85"/>
+      <c r="I106" s="85"/>
+      <c r="J106" s="85"/>
+      <c r="K106" s="85"/>
+      <c r="L106" s="85"/>
+      <c r="M106" s="85"/>
+      <c r="N106" s="85"/>
+      <c r="O106" s="85"/>
+      <c r="P106" s="85"/>
+      <c r="Q106" s="85"/>
+      <c r="R106" s="85"/>
+      <c r="S106" s="96"/>
+      <c r="V106" s="60"/>
+    </row>
+    <row r="107" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B107" s="63"/>
+      <c r="C107" s="90"/>
+      <c r="D107" s="83"/>
+      <c r="E107" s="83"/>
+      <c r="F107" s="83"/>
+      <c r="G107" s="83"/>
+      <c r="H107" s="83"/>
+      <c r="I107" s="83"/>
+      <c r="J107" s="83"/>
+      <c r="K107" s="83"/>
+      <c r="L107" s="83"/>
+      <c r="M107" s="83"/>
+      <c r="N107" s="83"/>
+      <c r="O107" s="83"/>
+      <c r="P107" s="83"/>
+      <c r="Q107" s="83"/>
+      <c r="R107" s="83"/>
+      <c r="V107" s="68"/>
+    </row>
+    <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B108" s="56"/>
+      <c r="D108" s="84"/>
+      <c r="E108" s="84"/>
+      <c r="F108" s="84"/>
+      <c r="G108" s="84"/>
+      <c r="H108" s="84"/>
+      <c r="I108" s="84"/>
+      <c r="J108" s="84"/>
+      <c r="K108" s="84"/>
+      <c r="L108" s="84"/>
+      <c r="M108" s="84"/>
+      <c r="N108" s="84"/>
+      <c r="O108" s="84"/>
+      <c r="P108" s="84"/>
+      <c r="Q108" s="84"/>
+      <c r="R108" s="84"/>
+      <c r="S108" s="93"/>
+      <c r="V108" s="60"/>
+    </row>
+    <row r="109" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B109" s="57">
+        <f>B105+1</f>
+        <v>27</v>
+      </c>
+      <c r="D109" s="80"/>
+      <c r="E109" s="80"/>
+      <c r="F109" s="80"/>
+      <c r="G109" s="80"/>
+      <c r="H109" s="80"/>
+      <c r="I109" s="80"/>
+      <c r="J109" s="80"/>
+      <c r="K109" s="80"/>
+      <c r="L109" s="80"/>
+      <c r="M109" s="80"/>
+      <c r="N109" s="80"/>
+      <c r="O109" s="80"/>
+      <c r="P109" s="80"/>
+      <c r="Q109" s="80"/>
+      <c r="R109" s="80"/>
+      <c r="S109" s="94"/>
+      <c r="V109" s="60"/>
+    </row>
+    <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B110" s="58"/>
+      <c r="D110" s="85"/>
+      <c r="E110" s="85"/>
+      <c r="F110" s="85"/>
+      <c r="G110" s="85"/>
+      <c r="H110" s="85"/>
+      <c r="I110" s="85"/>
+      <c r="J110" s="85"/>
+      <c r="K110" s="85"/>
+      <c r="L110" s="85"/>
+      <c r="M110" s="85"/>
+      <c r="N110" s="85"/>
+      <c r="O110" s="85"/>
+      <c r="P110" s="85"/>
+      <c r="Q110" s="85"/>
+      <c r="R110" s="85"/>
+      <c r="S110" s="96"/>
+      <c r="V110" s="60"/>
+    </row>
+    <row r="111" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B111" s="63"/>
+      <c r="C111" s="90"/>
+      <c r="D111" s="83"/>
+      <c r="E111" s="83"/>
+      <c r="F111" s="83"/>
+      <c r="G111" s="83"/>
+      <c r="H111" s="83"/>
+      <c r="I111" s="83"/>
+      <c r="J111" s="83"/>
+      <c r="K111" s="83"/>
+      <c r="L111" s="83"/>
+      <c r="M111" s="83"/>
+      <c r="N111" s="83"/>
+      <c r="O111" s="83"/>
+      <c r="P111" s="83"/>
+      <c r="Q111" s="83"/>
+      <c r="R111" s="83"/>
+      <c r="V111" s="68"/>
+    </row>
+    <row r="112" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B112" s="56"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="84"/>
+      <c r="F112" s="84"/>
+      <c r="G112" s="84"/>
+      <c r="H112" s="84"/>
+      <c r="I112" s="84"/>
+      <c r="J112" s="84"/>
+      <c r="K112" s="84"/>
+      <c r="L112" s="84"/>
+      <c r="M112" s="84"/>
+      <c r="N112" s="84"/>
+      <c r="O112" s="84"/>
+      <c r="P112" s="84"/>
+      <c r="Q112" s="84"/>
+      <c r="R112" s="84"/>
+      <c r="S112" s="93"/>
+      <c r="V112" s="60"/>
+    </row>
+    <row r="113" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B113" s="57">
+        <f>B109+1</f>
+        <v>28</v>
+      </c>
+      <c r="D113" s="80"/>
+      <c r="E113" s="80"/>
+      <c r="F113" s="80"/>
+      <c r="G113" s="80"/>
+      <c r="H113" s="80"/>
+      <c r="I113" s="80"/>
+      <c r="J113" s="80"/>
+      <c r="K113" s="80"/>
+      <c r="L113" s="80"/>
+      <c r="M113" s="80"/>
+      <c r="N113" s="80"/>
+      <c r="O113" s="80"/>
+      <c r="P113" s="80"/>
+      <c r="Q113" s="80"/>
+      <c r="R113" s="80"/>
+      <c r="S113" s="94"/>
+      <c r="V113" s="60"/>
+    </row>
+    <row r="114" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B114" s="58"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="85"/>
+      <c r="F114" s="85"/>
+      <c r="G114" s="85"/>
+      <c r="H114" s="85"/>
+      <c r="I114" s="85"/>
+      <c r="J114" s="85"/>
+      <c r="K114" s="85"/>
+      <c r="L114" s="85"/>
+      <c r="M114" s="85"/>
+      <c r="N114" s="85"/>
+      <c r="O114" s="85"/>
+      <c r="P114" s="85"/>
+      <c r="Q114" s="85"/>
+      <c r="R114" s="85"/>
+      <c r="S114" s="96"/>
+      <c r="V114" s="60"/>
+    </row>
+    <row r="115" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B115" s="63"/>
+      <c r="C115" s="90"/>
+      <c r="D115" s="83"/>
+      <c r="E115" s="83"/>
+      <c r="F115" s="83"/>
+      <c r="G115" s="83"/>
+      <c r="H115" s="83"/>
+      <c r="I115" s="83"/>
+      <c r="J115" s="83"/>
+      <c r="K115" s="83"/>
+      <c r="L115" s="83"/>
+      <c r="M115" s="83"/>
+      <c r="N115" s="83"/>
+      <c r="O115" s="83"/>
+      <c r="P115" s="83"/>
+      <c r="Q115" s="83"/>
+      <c r="R115" s="83"/>
+      <c r="V115" s="68"/>
+    </row>
+    <row r="116" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B116" s="56"/>
+      <c r="D116" s="84"/>
+      <c r="E116" s="84"/>
+      <c r="F116" s="84"/>
+      <c r="G116" s="84"/>
+      <c r="H116" s="84"/>
+      <c r="I116" s="84"/>
+      <c r="J116" s="84"/>
+      <c r="K116" s="84"/>
+      <c r="L116" s="84"/>
+      <c r="M116" s="84"/>
+      <c r="N116" s="84"/>
+      <c r="O116" s="84"/>
+      <c r="P116" s="84"/>
+      <c r="Q116" s="84"/>
+      <c r="R116" s="84"/>
+      <c r="S116" s="93"/>
+      <c r="V116" s="60"/>
+    </row>
+    <row r="117" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B117" s="57">
+        <f>B113+1</f>
+        <v>29</v>
+      </c>
+      <c r="D117" s="80"/>
+      <c r="E117" s="80"/>
+      <c r="F117" s="80"/>
+      <c r="G117" s="81"/>
+      <c r="H117" s="80"/>
+      <c r="I117" s="80"/>
+      <c r="J117" s="80"/>
+      <c r="K117" s="80"/>
+      <c r="L117" s="80"/>
+      <c r="M117" s="80"/>
+      <c r="N117" s="80"/>
+      <c r="O117" s="80"/>
+      <c r="P117" s="80"/>
+      <c r="Q117" s="80"/>
+      <c r="R117" s="80"/>
+      <c r="S117" s="94"/>
+      <c r="V117" s="60"/>
+    </row>
+    <row r="118" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B118" s="58"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="85"/>
+      <c r="L118" s="85"/>
+      <c r="M118" s="85"/>
+      <c r="N118" s="85"/>
+      <c r="O118" s="85"/>
+      <c r="P118" s="85"/>
+      <c r="Q118" s="85"/>
+      <c r="R118" s="85"/>
+      <c r="S118" s="96"/>
+      <c r="V118" s="60"/>
+    </row>
+    <row r="119" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B119" s="63"/>
+      <c r="C119" s="90"/>
+      <c r="D119" s="83"/>
+      <c r="E119" s="83"/>
+      <c r="F119" s="83"/>
+      <c r="G119" s="83"/>
+      <c r="H119" s="83"/>
+      <c r="I119" s="83"/>
+      <c r="J119" s="83"/>
+      <c r="K119" s="83"/>
+      <c r="L119" s="83"/>
+      <c r="M119" s="83"/>
+      <c r="N119" s="83"/>
+      <c r="O119" s="83"/>
+      <c r="P119" s="83"/>
+      <c r="Q119" s="83"/>
+      <c r="R119" s="83"/>
+      <c r="V119" s="68"/>
+    </row>
+    <row r="120" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B120" s="56"/>
+      <c r="D120" s="84"/>
+      <c r="E120" s="84"/>
+      <c r="F120" s="84"/>
+      <c r="G120" s="84"/>
+      <c r="H120" s="84"/>
+      <c r="I120" s="84"/>
+      <c r="J120" s="84"/>
+      <c r="K120" s="84"/>
+      <c r="L120" s="84"/>
+      <c r="M120" s="84"/>
+      <c r="N120" s="84"/>
+      <c r="O120" s="84"/>
+      <c r="P120" s="84"/>
+      <c r="Q120" s="84"/>
+      <c r="R120" s="84"/>
+      <c r="S120" s="93"/>
+      <c r="V120" s="60"/>
+    </row>
+    <row r="121" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B121" s="57">
+        <f>B117+1</f>
+        <v>30</v>
+      </c>
+      <c r="D121" s="80"/>
+      <c r="E121" s="80"/>
+      <c r="F121" s="80"/>
+      <c r="G121" s="81"/>
+      <c r="H121" s="80"/>
+      <c r="I121" s="80"/>
+      <c r="J121" s="80"/>
+      <c r="K121" s="80"/>
+      <c r="L121" s="80"/>
+      <c r="M121" s="80"/>
+      <c r="N121" s="80"/>
+      <c r="O121" s="80"/>
+      <c r="P121" s="80"/>
+      <c r="Q121" s="80"/>
+      <c r="R121" s="80"/>
+      <c r="S121" s="94"/>
+      <c r="V121" s="60"/>
+    </row>
+    <row r="122" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B122" s="58"/>
+      <c r="D122" s="85"/>
+      <c r="E122" s="85"/>
+      <c r="F122" s="85"/>
+      <c r="G122" s="85"/>
+      <c r="H122" s="85"/>
+      <c r="I122" s="85"/>
+      <c r="J122" s="85"/>
+      <c r="K122" s="85"/>
+      <c r="L122" s="85"/>
+      <c r="M122" s="85"/>
+      <c r="N122" s="85"/>
+      <c r="O122" s="85"/>
+      <c r="P122" s="85"/>
+      <c r="Q122" s="85"/>
+      <c r="R122" s="85"/>
+      <c r="S122" s="96"/>
+      <c r="V122" s="60"/>
+    </row>
+    <row r="123" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B123" s="63"/>
+      <c r="C123" s="90"/>
+      <c r="D123" s="83"/>
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="83"/>
+      <c r="H123" s="83"/>
+      <c r="I123" s="83"/>
+      <c r="J123" s="83"/>
+      <c r="K123" s="83"/>
+      <c r="L123" s="83"/>
+      <c r="M123" s="83"/>
+      <c r="N123" s="83"/>
+      <c r="O123" s="83"/>
+      <c r="P123" s="83"/>
+      <c r="Q123" s="83"/>
+      <c r="R123" s="83"/>
+      <c r="V123" s="68"/>
+    </row>
+    <row r="124" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B124" s="56"/>
+      <c r="D124" s="84"/>
+      <c r="E124" s="84"/>
+      <c r="F124" s="84"/>
+      <c r="G124" s="84"/>
+      <c r="H124" s="84"/>
+      <c r="I124" s="84"/>
+      <c r="J124" s="84"/>
+      <c r="K124" s="84"/>
+      <c r="L124" s="84"/>
+      <c r="M124" s="84"/>
+      <c r="N124" s="84"/>
+      <c r="O124" s="84"/>
+      <c r="P124" s="84"/>
+      <c r="Q124" s="84"/>
+      <c r="R124" s="84"/>
+      <c r="S124" s="93"/>
+      <c r="V124" s="60"/>
+    </row>
+    <row r="125" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B125" s="57">
+        <f>B121+1</f>
+        <v>31</v>
+      </c>
+      <c r="D125" s="80"/>
+      <c r="E125" s="80"/>
+      <c r="F125" s="80"/>
+      <c r="G125" s="81"/>
+      <c r="H125" s="80"/>
+      <c r="I125" s="80"/>
+      <c r="J125" s="80"/>
+      <c r="K125" s="80"/>
+      <c r="L125" s="80"/>
+      <c r="M125" s="80"/>
+      <c r="N125" s="80"/>
+      <c r="O125" s="80"/>
+      <c r="P125" s="80"/>
+      <c r="Q125" s="80"/>
+      <c r="R125" s="80"/>
+      <c r="S125" s="94"/>
+      <c r="V125" s="60"/>
+    </row>
+    <row r="126" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B126" s="58"/>
+      <c r="D126" s="85"/>
+      <c r="E126" s="85"/>
+      <c r="F126" s="85"/>
+      <c r="G126" s="85"/>
+      <c r="H126" s="85"/>
+      <c r="I126" s="85"/>
+      <c r="J126" s="85"/>
+      <c r="K126" s="85"/>
+      <c r="L126" s="85"/>
+      <c r="M126" s="85"/>
+      <c r="N126" s="85"/>
+      <c r="O126" s="85"/>
+      <c r="P126" s="85"/>
+      <c r="Q126" s="85"/>
+      <c r="R126" s="85"/>
+      <c r="S126" s="96"/>
+      <c r="V126" s="60"/>
+    </row>
+    <row r="127" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B127" s="63"/>
+      <c r="C127" s="90"/>
+      <c r="D127" s="83"/>
+      <c r="E127" s="83"/>
+      <c r="F127" s="83"/>
+      <c r="G127" s="83"/>
+      <c r="H127" s="83"/>
+      <c r="I127" s="83"/>
+      <c r="J127" s="83"/>
+      <c r="K127" s="83"/>
+      <c r="L127" s="83"/>
+      <c r="M127" s="83"/>
+      <c r="N127" s="83"/>
+      <c r="O127" s="83"/>
+      <c r="P127" s="83"/>
+      <c r="Q127" s="83"/>
+      <c r="R127" s="83"/>
+      <c r="V127" s="68"/>
+    </row>
+    <row r="128" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B128" s="56"/>
+      <c r="D128" s="84"/>
+      <c r="E128" s="84"/>
+      <c r="F128" s="84"/>
+      <c r="G128" s="84"/>
+      <c r="H128" s="84"/>
+      <c r="I128" s="84"/>
+      <c r="J128" s="84"/>
+      <c r="K128" s="84"/>
+      <c r="L128" s="84"/>
+      <c r="M128" s="84"/>
+      <c r="N128" s="84"/>
+      <c r="O128" s="84"/>
+      <c r="P128" s="84"/>
+      <c r="Q128" s="84"/>
+      <c r="R128" s="84"/>
+      <c r="S128" s="93"/>
+      <c r="V128" s="60"/>
+    </row>
+    <row r="129" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B129" s="57">
+        <f>B125+1</f>
+        <v>32</v>
+      </c>
+      <c r="D129" s="80"/>
+      <c r="E129" s="80"/>
+      <c r="F129" s="80"/>
+      <c r="G129" s="81"/>
+      <c r="H129" s="80"/>
+      <c r="I129" s="80"/>
+      <c r="J129" s="80"/>
+      <c r="K129" s="80"/>
+      <c r="L129" s="80"/>
+      <c r="M129" s="80"/>
+      <c r="N129" s="80"/>
+      <c r="O129" s="80"/>
+      <c r="P129" s="80"/>
+      <c r="Q129" s="80"/>
+      <c r="R129" s="80"/>
+      <c r="S129" s="94"/>
+      <c r="V129" s="60"/>
+    </row>
+    <row r="130" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B130" s="58"/>
+      <c r="D130" s="85"/>
+      <c r="E130" s="85"/>
+      <c r="F130" s="85"/>
+      <c r="G130" s="85"/>
+      <c r="H130" s="85"/>
+      <c r="I130" s="85"/>
+      <c r="J130" s="85"/>
+      <c r="K130" s="85"/>
+      <c r="L130" s="85"/>
+      <c r="M130" s="85"/>
+      <c r="N130" s="85"/>
+      <c r="O130" s="85"/>
+      <c r="P130" s="85"/>
+      <c r="Q130" s="85"/>
+      <c r="R130" s="85"/>
+      <c r="S130" s="96"/>
+      <c r="V130" s="60"/>
+    </row>
+    <row r="131" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B131" s="63"/>
+      <c r="C131" s="90"/>
+      <c r="D131" s="83"/>
+      <c r="E131" s="83"/>
+      <c r="F131" s="83"/>
+      <c r="G131" s="83"/>
+      <c r="H131" s="83"/>
+      <c r="I131" s="83"/>
+      <c r="J131" s="83"/>
+      <c r="K131" s="83"/>
+      <c r="L131" s="83"/>
+      <c r="M131" s="83"/>
+      <c r="N131" s="83"/>
+      <c r="O131" s="83"/>
+      <c r="P131" s="83"/>
+      <c r="Q131" s="83"/>
+      <c r="R131" s="83"/>
+      <c r="V131" s="68"/>
+    </row>
+    <row r="132" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B132" s="56"/>
+      <c r="D132" s="84"/>
+      <c r="E132" s="84"/>
+      <c r="F132" s="84"/>
+      <c r="G132" s="84"/>
+      <c r="H132" s="84"/>
+      <c r="I132" s="84"/>
+      <c r="J132" s="84"/>
+      <c r="K132" s="84"/>
+      <c r="L132" s="84"/>
+      <c r="M132" s="84"/>
+      <c r="N132" s="84"/>
+      <c r="O132" s="84"/>
+      <c r="P132" s="84"/>
+      <c r="Q132" s="84"/>
+      <c r="R132" s="84"/>
+      <c r="S132" s="93"/>
+      <c r="V132" s="60"/>
+    </row>
+    <row r="133" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B133" s="57">
+        <f>B129+1</f>
+        <v>33</v>
+      </c>
+      <c r="D133" s="80"/>
+      <c r="E133" s="80"/>
+      <c r="F133" s="80"/>
+      <c r="G133" s="81"/>
+      <c r="H133" s="80"/>
+      <c r="I133" s="80"/>
+      <c r="J133" s="80"/>
+      <c r="K133" s="80"/>
+      <c r="L133" s="80"/>
+      <c r="M133" s="80"/>
+      <c r="N133" s="80"/>
+      <c r="O133" s="80"/>
+      <c r="P133" s="80"/>
+      <c r="Q133" s="80"/>
+      <c r="R133" s="80"/>
+      <c r="S133" s="94"/>
+      <c r="V133" s="60"/>
+    </row>
+    <row r="134" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B134" s="58"/>
+      <c r="D134" s="85"/>
+      <c r="E134" s="85"/>
+      <c r="F134" s="85"/>
+      <c r="G134" s="85"/>
+      <c r="H134" s="85"/>
+      <c r="I134" s="85"/>
+      <c r="J134" s="85"/>
+      <c r="K134" s="85"/>
+      <c r="L134" s="85"/>
+      <c r="M134" s="85"/>
+      <c r="N134" s="85"/>
+      <c r="O134" s="85"/>
+      <c r="P134" s="85"/>
+      <c r="Q134" s="85"/>
+      <c r="R134" s="85"/>
+      <c r="S134" s="96"/>
+      <c r="V134" s="60"/>
+    </row>
+    <row r="135" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B135" s="63"/>
+      <c r="C135" s="90"/>
+      <c r="D135" s="83"/>
+      <c r="E135" s="83"/>
+      <c r="F135" s="83"/>
+      <c r="G135" s="83"/>
+      <c r="H135" s="83"/>
+      <c r="I135" s="83"/>
+      <c r="J135" s="83"/>
+      <c r="K135" s="83"/>
+      <c r="L135" s="83"/>
+      <c r="M135" s="83"/>
+      <c r="N135" s="83"/>
+      <c r="O135" s="83"/>
+      <c r="P135" s="83"/>
+      <c r="Q135" s="83"/>
+      <c r="R135" s="83"/>
+      <c r="V135" s="68"/>
+    </row>
+    <row r="136" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B136" s="56"/>
+      <c r="D136" s="84"/>
+      <c r="E136" s="84"/>
+      <c r="F136" s="84"/>
+      <c r="G136" s="84"/>
+      <c r="H136" s="84"/>
+      <c r="I136" s="84"/>
+      <c r="J136" s="84"/>
+      <c r="K136" s="84"/>
+      <c r="L136" s="84"/>
+      <c r="M136" s="84"/>
+      <c r="N136" s="84"/>
+      <c r="O136" s="84"/>
+      <c r="P136" s="84"/>
+      <c r="Q136" s="84"/>
+      <c r="R136" s="84"/>
+      <c r="S136" s="93"/>
+      <c r="V136" s="60"/>
+    </row>
+    <row r="137" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B137" s="57">
+        <f>B133+1</f>
+        <v>34</v>
+      </c>
+      <c r="D137" s="80"/>
+      <c r="E137" s="80"/>
+      <c r="F137" s="80"/>
+      <c r="G137" s="80"/>
+      <c r="H137" s="80"/>
+      <c r="I137" s="80"/>
+      <c r="J137" s="80"/>
+      <c r="K137" s="80"/>
+      <c r="L137" s="80"/>
+      <c r="M137" s="80"/>
+      <c r="N137" s="80"/>
+      <c r="O137" s="80"/>
+      <c r="P137" s="80"/>
+      <c r="Q137" s="80"/>
+      <c r="R137" s="80"/>
+      <c r="S137" s="94"/>
+      <c r="V137" s="60"/>
+    </row>
+    <row r="138" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B138" s="58"/>
+      <c r="D138" s="85"/>
+      <c r="E138" s="85"/>
+      <c r="F138" s="85"/>
+      <c r="G138" s="85"/>
+      <c r="H138" s="85"/>
+      <c r="I138" s="85"/>
+      <c r="J138" s="85"/>
+      <c r="K138" s="85"/>
+      <c r="L138" s="85"/>
+      <c r="M138" s="85"/>
+      <c r="N138" s="85"/>
+      <c r="O138" s="85"/>
+      <c r="P138" s="85"/>
+      <c r="Q138" s="85"/>
+      <c r="R138" s="85"/>
+      <c r="S138" s="96"/>
+      <c r="V138" s="60"/>
+    </row>
+    <row r="139" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B139" s="63"/>
+      <c r="C139" s="90"/>
+      <c r="D139" s="83"/>
+      <c r="E139" s="83"/>
+      <c r="F139" s="83"/>
+      <c r="G139" s="83"/>
+      <c r="H139" s="83"/>
+      <c r="I139" s="83"/>
+      <c r="J139" s="83"/>
+      <c r="K139" s="83"/>
+      <c r="L139" s="83"/>
+      <c r="M139" s="83"/>
+      <c r="N139" s="83"/>
+      <c r="O139" s="83"/>
+      <c r="P139" s="83"/>
+      <c r="Q139" s="83"/>
+      <c r="R139" s="83"/>
+      <c r="V139" s="68"/>
+    </row>
+    <row r="140" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B140" s="56"/>
+      <c r="D140" s="84"/>
+      <c r="E140" s="84"/>
+      <c r="F140" s="84"/>
+      <c r="G140" s="84"/>
+      <c r="H140" s="84"/>
+      <c r="I140" s="84"/>
+      <c r="J140" s="84"/>
+      <c r="K140" s="84"/>
+      <c r="L140" s="84"/>
+      <c r="M140" s="84"/>
+      <c r="N140" s="84"/>
+      <c r="O140" s="84"/>
+      <c r="P140" s="84"/>
+      <c r="Q140" s="84"/>
+      <c r="R140" s="84"/>
+      <c r="S140" s="93"/>
+      <c r="V140" s="60"/>
+    </row>
+    <row r="141" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B141" s="57">
+        <f>B137+1</f>
+        <v>35</v>
+      </c>
+      <c r="D141" s="80"/>
+      <c r="E141" s="80"/>
+      <c r="F141" s="80"/>
+      <c r="G141" s="81"/>
+      <c r="H141" s="80"/>
+      <c r="I141" s="80"/>
+      <c r="J141" s="80"/>
+      <c r="K141" s="80"/>
+      <c r="L141" s="80"/>
+      <c r="M141" s="80"/>
+      <c r="N141" s="80"/>
+      <c r="O141" s="80"/>
+      <c r="P141" s="80"/>
+      <c r="Q141" s="80"/>
+      <c r="R141" s="80"/>
+      <c r="S141" s="94"/>
+      <c r="V141" s="60"/>
+    </row>
+    <row r="142" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B142" s="58"/>
+      <c r="D142" s="85"/>
+      <c r="E142" s="85"/>
+      <c r="F142" s="85"/>
+      <c r="G142" s="85"/>
+      <c r="H142" s="85"/>
+      <c r="I142" s="85"/>
+      <c r="J142" s="85"/>
+      <c r="K142" s="85"/>
+      <c r="L142" s="85"/>
+      <c r="M142" s="85"/>
+      <c r="N142" s="85"/>
+      <c r="O142" s="85"/>
+      <c r="P142" s="85"/>
+      <c r="Q142" s="85"/>
+      <c r="R142" s="85"/>
+      <c r="S142" s="96"/>
+      <c r="V142" s="60"/>
+    </row>
+    <row r="143" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B143" s="63"/>
+      <c r="C143" s="90"/>
+      <c r="D143" s="83"/>
+      <c r="E143" s="83"/>
+      <c r="F143" s="83"/>
+      <c r="G143" s="83"/>
+      <c r="H143" s="83"/>
+      <c r="I143" s="83"/>
+      <c r="J143" s="83"/>
+      <c r="K143" s="83"/>
+      <c r="L143" s="83"/>
+      <c r="M143" s="83"/>
+      <c r="N143" s="83"/>
+      <c r="O143" s="83"/>
+      <c r="P143" s="83"/>
+      <c r="Q143" s="83"/>
+      <c r="R143" s="83"/>
+      <c r="V143" s="68"/>
+    </row>
+    <row r="144" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B144" s="56"/>
+      <c r="D144" s="84"/>
+      <c r="E144" s="84"/>
+      <c r="F144" s="84"/>
+      <c r="G144" s="84"/>
+      <c r="H144" s="84"/>
+      <c r="I144" s="84"/>
+      <c r="J144" s="84"/>
+      <c r="K144" s="84"/>
+      <c r="L144" s="84"/>
+      <c r="M144" s="84"/>
+      <c r="N144" s="84"/>
+      <c r="O144" s="84"/>
+      <c r="P144" s="84"/>
+      <c r="Q144" s="84"/>
+      <c r="R144" s="84"/>
+      <c r="S144" s="93"/>
+      <c r="V144" s="60"/>
+    </row>
+    <row r="145" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B145" s="57">
+        <f>B141+1</f>
+        <v>36</v>
+      </c>
+      <c r="D145" s="80"/>
+      <c r="E145" s="80"/>
+      <c r="F145" s="80"/>
+      <c r="G145" s="81"/>
+      <c r="H145" s="80"/>
+      <c r="I145" s="80"/>
+      <c r="J145" s="80"/>
+      <c r="K145" s="80"/>
+      <c r="L145" s="80"/>
+      <c r="M145" s="80"/>
+      <c r="N145" s="80"/>
+      <c r="O145" s="80"/>
+      <c r="P145" s="80"/>
+      <c r="Q145" s="80"/>
+      <c r="R145" s="80"/>
+      <c r="S145" s="94"/>
+      <c r="V145" s="60"/>
+    </row>
+    <row r="146" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B146" s="58"/>
+      <c r="D146" s="85"/>
+      <c r="E146" s="85"/>
+      <c r="F146" s="85"/>
+      <c r="G146" s="85"/>
+      <c r="H146" s="85"/>
+      <c r="I146" s="85"/>
+      <c r="J146" s="85"/>
+      <c r="K146" s="85"/>
+      <c r="L146" s="85"/>
+      <c r="M146" s="85"/>
+      <c r="N146" s="85"/>
+      <c r="O146" s="85"/>
+      <c r="P146" s="85"/>
+      <c r="Q146" s="85"/>
+      <c r="R146" s="85"/>
+      <c r="S146" s="96"/>
+      <c r="V146" s="60"/>
+    </row>
+    <row r="147" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B147" s="63"/>
+      <c r="C147" s="90"/>
+      <c r="D147" s="83"/>
+      <c r="E147" s="83"/>
+      <c r="F147" s="83"/>
+      <c r="G147" s="83"/>
+      <c r="H147" s="83"/>
+      <c r="I147" s="83"/>
+      <c r="J147" s="83"/>
+      <c r="K147" s="83"/>
+      <c r="L147" s="83"/>
+      <c r="M147" s="83"/>
+      <c r="N147" s="83"/>
+      <c r="O147" s="83"/>
+      <c r="P147" s="83"/>
+      <c r="Q147" s="83"/>
+      <c r="R147" s="83"/>
+      <c r="V147" s="68"/>
+    </row>
+    <row r="148" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B148" s="56"/>
+      <c r="D148" s="84"/>
+      <c r="E148" s="84"/>
+      <c r="F148" s="84"/>
+      <c r="G148" s="84"/>
+      <c r="H148" s="84"/>
+      <c r="I148" s="84"/>
+      <c r="J148" s="84"/>
+      <c r="K148" s="84"/>
+      <c r="L148" s="84"/>
+      <c r="M148" s="84"/>
+      <c r="N148" s="84"/>
+      <c r="O148" s="84"/>
+      <c r="P148" s="84"/>
+      <c r="Q148" s="84"/>
+      <c r="R148" s="84"/>
+      <c r="S148" s="93"/>
+      <c r="V148" s="60"/>
+    </row>
+    <row r="149" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B149" s="57">
+        <f>B145+1</f>
+        <v>37</v>
+      </c>
+      <c r="D149" s="80"/>
+      <c r="E149" s="80"/>
+      <c r="F149" s="80"/>
+      <c r="G149" s="81"/>
+      <c r="H149" s="80"/>
+      <c r="I149" s="80"/>
+      <c r="J149" s="80"/>
+      <c r="K149" s="80"/>
+      <c r="L149" s="80"/>
+      <c r="M149" s="80"/>
+      <c r="N149" s="80"/>
+      <c r="O149" s="80"/>
+      <c r="P149" s="80"/>
+      <c r="Q149" s="80"/>
+      <c r="R149" s="80"/>
+      <c r="S149" s="94"/>
+      <c r="V149" s="60"/>
+    </row>
+    <row r="150" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B150" s="58"/>
+      <c r="D150" s="85"/>
+      <c r="E150" s="85"/>
+      <c r="F150" s="85"/>
+      <c r="G150" s="85"/>
+      <c r="H150" s="85"/>
+      <c r="I150" s="85"/>
+      <c r="J150" s="85"/>
+      <c r="K150" s="85"/>
+      <c r="L150" s="85"/>
+      <c r="M150" s="85"/>
+      <c r="N150" s="85"/>
+      <c r="O150" s="85"/>
+      <c r="P150" s="85"/>
+      <c r="Q150" s="85"/>
+      <c r="R150" s="85"/>
+      <c r="S150" s="96"/>
+      <c r="V150" s="60"/>
+    </row>
+    <row r="151" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B151" s="63"/>
+      <c r="C151" s="90"/>
+      <c r="D151" s="83"/>
+      <c r="E151" s="83"/>
+      <c r="F151" s="83"/>
+      <c r="G151" s="83"/>
+      <c r="H151" s="83"/>
+      <c r="I151" s="83"/>
+      <c r="J151" s="83"/>
+      <c r="K151" s="83"/>
+      <c r="L151" s="83"/>
+      <c r="M151" s="83"/>
+      <c r="N151" s="83"/>
+      <c r="O151" s="83"/>
+      <c r="P151" s="83"/>
+      <c r="Q151" s="83"/>
+      <c r="R151" s="83"/>
+      <c r="V151" s="68"/>
+    </row>
+    <row r="152" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B152" s="56"/>
+      <c r="D152" s="84"/>
+      <c r="E152" s="84"/>
+      <c r="F152" s="84"/>
+      <c r="G152" s="84"/>
+      <c r="H152" s="84"/>
+      <c r="I152" s="84"/>
+      <c r="J152" s="84"/>
+      <c r="K152" s="84"/>
+      <c r="L152" s="84"/>
+      <c r="M152" s="84"/>
+      <c r="N152" s="84"/>
+      <c r="O152" s="84"/>
+      <c r="P152" s="84"/>
+      <c r="Q152" s="84"/>
+      <c r="R152" s="84"/>
+      <c r="S152" s="93"/>
+      <c r="V152" s="60"/>
+    </row>
+    <row r="153" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B153" s="57">
+        <f>B149+1</f>
+        <v>38</v>
+      </c>
+      <c r="D153" s="80"/>
+      <c r="E153" s="80"/>
+      <c r="F153" s="80"/>
+      <c r="G153" s="81"/>
+      <c r="H153" s="80"/>
+      <c r="I153" s="80"/>
+      <c r="J153" s="80"/>
+      <c r="K153" s="80"/>
+      <c r="L153" s="80"/>
+      <c r="M153" s="80"/>
+      <c r="N153" s="80"/>
+      <c r="O153" s="80"/>
+      <c r="P153" s="80"/>
+      <c r="Q153" s="80"/>
+      <c r="R153" s="80"/>
+      <c r="S153" s="94"/>
+      <c r="V153" s="60"/>
+    </row>
+    <row r="154" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B154" s="58"/>
+      <c r="D154" s="85"/>
+      <c r="E154" s="85"/>
+      <c r="F154" s="85"/>
+      <c r="G154" s="85"/>
+      <c r="H154" s="85"/>
+      <c r="I154" s="85"/>
+      <c r="J154" s="85"/>
+      <c r="K154" s="85"/>
+      <c r="L154" s="85"/>
+      <c r="M154" s="85"/>
+      <c r="N154" s="85"/>
+      <c r="O154" s="85"/>
+      <c r="P154" s="85"/>
+      <c r="Q154" s="85"/>
+      <c r="R154" s="85"/>
+      <c r="S154" s="96"/>
+      <c r="V154" s="60"/>
+    </row>
+    <row r="155" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B155" s="63"/>
+      <c r="C155" s="90"/>
+      <c r="D155" s="83"/>
+      <c r="E155" s="83"/>
+      <c r="F155" s="83"/>
+      <c r="G155" s="83"/>
+      <c r="H155" s="83"/>
+      <c r="I155" s="83"/>
+      <c r="J155" s="83"/>
+      <c r="K155" s="83"/>
+      <c r="L155" s="83"/>
+      <c r="M155" s="83"/>
+      <c r="N155" s="83"/>
+      <c r="O155" s="83"/>
+      <c r="P155" s="83"/>
+      <c r="Q155" s="83"/>
+      <c r="R155" s="83"/>
+      <c r="V155" s="68"/>
+    </row>
+    <row r="156" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B156" s="56"/>
+      <c r="D156" s="84"/>
+      <c r="E156" s="84"/>
+      <c r="F156" s="84"/>
+      <c r="G156" s="84"/>
+      <c r="H156" s="84"/>
+      <c r="I156" s="84"/>
+      <c r="J156" s="84"/>
+      <c r="K156" s="84"/>
+      <c r="L156" s="84"/>
+      <c r="M156" s="84"/>
+      <c r="N156" s="84"/>
+      <c r="O156" s="84"/>
+      <c r="P156" s="84"/>
+      <c r="Q156" s="84"/>
+      <c r="R156" s="84"/>
+      <c r="S156" s="93"/>
+      <c r="V156" s="60"/>
+    </row>
+    <row r="157" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B157" s="57">
+        <f t="shared" ref="B157" si="1">B153+1</f>
+        <v>39</v>
+      </c>
+      <c r="D157" s="80"/>
+      <c r="E157" s="80"/>
+      <c r="F157" s="80"/>
+      <c r="G157" s="80"/>
+      <c r="H157" s="80"/>
+      <c r="I157" s="80"/>
+      <c r="J157" s="80"/>
+      <c r="K157" s="80"/>
+      <c r="L157" s="80"/>
+      <c r="M157" s="80"/>
+      <c r="N157" s="80"/>
+      <c r="O157" s="80"/>
+      <c r="P157" s="80"/>
+      <c r="Q157" s="80"/>
+      <c r="R157" s="80"/>
+      <c r="S157" s="94"/>
+      <c r="V157" s="60"/>
+    </row>
+    <row r="158" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B158" s="58"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="85"/>
+      <c r="H158" s="85"/>
+      <c r="I158" s="85"/>
+      <c r="J158" s="85"/>
+      <c r="K158" s="85"/>
+      <c r="L158" s="85"/>
+      <c r="M158" s="85"/>
+      <c r="N158" s="85"/>
+      <c r="O158" s="85"/>
+      <c r="P158" s="85"/>
+      <c r="Q158" s="85"/>
+      <c r="R158" s="85"/>
+      <c r="S158" s="96"/>
+      <c r="V158" s="60"/>
+    </row>
+    <row r="159" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B159" s="63"/>
+      <c r="C159" s="90"/>
+      <c r="D159" s="83"/>
+      <c r="E159" s="83"/>
+      <c r="F159" s="83"/>
+      <c r="G159" s="83"/>
+      <c r="H159" s="83"/>
+      <c r="I159" s="83"/>
+      <c r="J159" s="83"/>
+      <c r="K159" s="83"/>
+      <c r="L159" s="83"/>
+      <c r="M159" s="83"/>
+      <c r="N159" s="83"/>
+      <c r="O159" s="83"/>
+      <c r="P159" s="83"/>
+      <c r="Q159" s="83"/>
+      <c r="R159" s="83"/>
+      <c r="V159" s="68"/>
+    </row>
+    <row r="160" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B160" s="56"/>
+      <c r="D160" s="84"/>
+      <c r="E160" s="84"/>
+      <c r="F160" s="84"/>
+      <c r="G160" s="84"/>
+      <c r="H160" s="84"/>
+      <c r="I160" s="84"/>
+      <c r="J160" s="84"/>
+      <c r="K160" s="84"/>
+      <c r="L160" s="84"/>
+      <c r="M160" s="84"/>
+      <c r="N160" s="84"/>
+      <c r="O160" s="84"/>
+      <c r="P160" s="84"/>
+      <c r="Q160" s="84"/>
+      <c r="R160" s="84"/>
+      <c r="S160" s="93"/>
+      <c r="V160" s="60"/>
+    </row>
+    <row r="161" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B161" s="57">
+        <f t="shared" ref="B161" si="2">B157+1</f>
+        <v>40</v>
+      </c>
+      <c r="D161" s="80"/>
+      <c r="E161" s="80"/>
+      <c r="F161" s="80"/>
+      <c r="G161" s="81"/>
+      <c r="H161" s="80"/>
+      <c r="I161" s="80"/>
+      <c r="J161" s="80"/>
+      <c r="K161" s="80"/>
+      <c r="L161" s="80"/>
+      <c r="M161" s="80"/>
+      <c r="N161" s="80"/>
+      <c r="O161" s="80"/>
+      <c r="P161" s="80"/>
+      <c r="Q161" s="80"/>
+      <c r="R161" s="80"/>
+      <c r="S161" s="94"/>
+      <c r="V161" s="60"/>
+    </row>
+    <row r="162" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B162" s="58"/>
+      <c r="D162" s="85"/>
+      <c r="E162" s="85"/>
+      <c r="F162" s="85"/>
+      <c r="G162" s="85"/>
+      <c r="H162" s="85"/>
+      <c r="I162" s="85"/>
+      <c r="J162" s="85"/>
+      <c r="K162" s="85"/>
+      <c r="L162" s="85"/>
+      <c r="M162" s="85"/>
+      <c r="N162" s="85"/>
+      <c r="O162" s="85"/>
+      <c r="P162" s="85"/>
+      <c r="Q162" s="85"/>
+      <c r="R162" s="85"/>
+      <c r="S162" s="96"/>
+      <c r="V162" s="60"/>
+    </row>
+    <row r="163" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="B163" s="63"/>
+      <c r="C163" s="90"/>
+      <c r="D163" s="83"/>
+      <c r="E163" s="83"/>
+      <c r="F163" s="83"/>
+      <c r="G163" s="83"/>
+      <c r="H163" s="83"/>
+      <c r="I163" s="83"/>
+      <c r="J163" s="83"/>
+      <c r="K163" s="83"/>
+      <c r="L163" s="83"/>
+      <c r="M163" s="83"/>
+      <c r="N163" s="83"/>
+      <c r="O163" s="83"/>
+      <c r="P163" s="83"/>
+      <c r="Q163" s="83"/>
+      <c r="R163" s="83"/>
+      <c r="V163" s="68"/>
+    </row>
+    <row r="164" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B164" s="56"/>
+      <c r="D164" s="84"/>
+      <c r="E164" s="84"/>
+      <c r="F164" s="84"/>
+      <c r="G164" s="84"/>
+      <c r="H164" s="84"/>
+      <c r="I164" s="84"/>
+      <c r="J164" s="84"/>
+      <c r="K164" s="84"/>
+      <c r="L164" s="84"/>
+      <c r="M164" s="84"/>
+      <c r="N164" s="84"/>
+      <c r="O164" s="84"/>
+      <c r="P164" s="84"/>
+      <c r="Q164" s="84"/>
+      <c r="R164" s="84"/>
+      <c r="S164" s="93"/>
+      <c r="V164" s="60"/>
+    </row>
+    <row r="165" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B165" s="57">
+        <f t="shared" ref="B165" si="3">B161+1</f>
+        <v>41</v>
+      </c>
+      <c r="D165" s="80"/>
+      <c r="E165" s="80"/>
+      <c r="F165" s="80"/>
+      <c r="G165" s="81"/>
+      <c r="H165" s="80"/>
+      <c r="I165" s="80"/>
+      <c r="J165" s="80"/>
+      <c r="K165" s="80"/>
+      <c r="L165" s="80"/>
+      <c r="M165" s="80"/>
+      <c r="N165" s="80"/>
+      <c r="O165" s="80"/>
+      <c r="P165" s="80"/>
+      <c r="Q165" s="80"/>
+      <c r="R165" s="80"/>
+      <c r="S165" s="94"/>
+      <c r="V165" s="60"/>
+    </row>
+    <row r="166" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B166" s="58"/>
+      <c r="D166" s="85"/>
+      <c r="E166" s="85"/>
+      <c r="F166" s="85"/>
+      <c r="G166" s="85"/>
+      <c r="H166" s="85"/>
+      <c r="I166" s="85"/>
+      <c r="J166" s="85"/>
+      <c r="K166" s="85"/>
+      <c r="L166" s="85"/>
+      <c r="M166" s="85"/>
+      <c r="N166" s="85"/>
+      <c r="O166" s="85"/>
+      <c r="P166" s="85"/>
+      <c r="Q166" s="85"/>
+      <c r="R166" s="85"/>
+      <c r="S166" s="96"/>
+      <c r="V166" s="60"/>
+    </row>
+    <row r="167" spans="2:22">
+      <c r="B167" s="63"/>
+      <c r="C167" s="90"/>
+      <c r="D167" s="83"/>
+      <c r="E167" s="83"/>
+      <c r="F167" s="83"/>
+      <c r="G167" s="83"/>
+      <c r="H167" s="83"/>
+      <c r="I167" s="83"/>
+      <c r="J167" s="83"/>
+      <c r="K167" s="83"/>
+      <c r="L167" s="83"/>
+      <c r="M167" s="83"/>
+      <c r="N167" s="83"/>
+      <c r="O167" s="83"/>
+      <c r="P167" s="83"/>
+      <c r="Q167" s="83"/>
+      <c r="R167" s="83"/>
+    </row>
+    <row r="168" spans="2:22" ht="39.75">
+      <c r="B168" s="56"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="84"/>
+      <c r="E168" s="84"/>
+      <c r="F168" s="84"/>
+      <c r="G168" s="84"/>
+      <c r="H168" s="84"/>
+      <c r="I168" s="84"/>
+      <c r="J168" s="84"/>
+      <c r="K168" s="84"/>
+      <c r="L168" s="84"/>
+      <c r="M168" s="84"/>
+      <c r="N168" s="84"/>
+      <c r="O168" s="84"/>
+      <c r="P168" s="84"/>
+      <c r="Q168" s="84"/>
+      <c r="R168" s="84"/>
+    </row>
+    <row r="169" spans="2:22" ht="58.5">
+      <c r="B169" s="57">
+        <f t="shared" ref="B169" si="4">B165+1</f>
+        <v>42</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="80"/>
+      <c r="E169" s="80"/>
+      <c r="F169" s="80"/>
+      <c r="G169" s="80"/>
+      <c r="H169" s="80"/>
+      <c r="I169" s="80"/>
+      <c r="J169" s="80"/>
+      <c r="K169" s="80"/>
+      <c r="L169" s="80"/>
+      <c r="M169" s="80"/>
+      <c r="N169" s="80"/>
+      <c r="O169" s="80"/>
+      <c r="P169" s="80"/>
+      <c r="Q169" s="80"/>
+      <c r="R169" s="80"/>
+    </row>
+    <row r="170" spans="2:22">
+      <c r="B170" s="58"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="85"/>
+      <c r="E170" s="85"/>
+      <c r="F170" s="85"/>
+      <c r="G170" s="85"/>
+      <c r="H170" s="85"/>
+      <c r="I170" s="85"/>
+      <c r="J170" s="85"/>
+      <c r="K170" s="85"/>
+      <c r="L170" s="85"/>
+      <c r="M170" s="85"/>
+      <c r="N170" s="85"/>
+      <c r="O170" s="85"/>
+      <c r="P170" s="85"/>
+      <c r="Q170" s="85"/>
+      <c r="R170" s="85"/>
+    </row>
+    <row r="171" spans="2:22">
+      <c r="B171" s="63"/>
+      <c r="C171" s="90"/>
+      <c r="D171" s="83"/>
+      <c r="E171" s="83"/>
+      <c r="F171" s="83"/>
+      <c r="G171" s="83"/>
+      <c r="H171" s="83"/>
+      <c r="I171" s="83"/>
+      <c r="J171" s="83"/>
+      <c r="K171" s="83"/>
+      <c r="L171" s="83"/>
+      <c r="M171" s="83"/>
+      <c r="N171" s="83"/>
+      <c r="O171" s="83"/>
+      <c r="P171" s="83"/>
+      <c r="Q171" s="83"/>
+      <c r="R171" s="83"/>
+    </row>
+    <row r="172" spans="2:22" ht="39.75">
+      <c r="B172" s="56"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="84"/>
+      <c r="E172" s="84"/>
+      <c r="F172" s="84"/>
+      <c r="G172" s="84"/>
+      <c r="H172" s="84"/>
+      <c r="I172" s="84"/>
+      <c r="J172" s="84"/>
+      <c r="K172" s="84"/>
+      <c r="L172" s="84"/>
+      <c r="M172" s="84"/>
+      <c r="N172" s="84"/>
+      <c r="O172" s="84"/>
+      <c r="P172" s="84"/>
+      <c r="Q172" s="84"/>
+      <c r="R172" s="84"/>
+    </row>
+    <row r="173" spans="2:22" ht="58.5">
+      <c r="B173" s="57">
+        <f t="shared" ref="B173" si="5">B169+1</f>
+        <v>43</v>
+      </c>
+      <c r="C173" s="1"/>
+      <c r="D173" s="80"/>
+      <c r="E173" s="80"/>
+      <c r="F173" s="80"/>
+      <c r="G173" s="81"/>
+      <c r="H173" s="80"/>
+      <c r="I173" s="80"/>
+      <c r="J173" s="80"/>
+      <c r="K173" s="80"/>
+      <c r="L173" s="80"/>
+      <c r="M173" s="80"/>
+      <c r="N173" s="80"/>
+      <c r="O173" s="80"/>
+      <c r="P173" s="80"/>
+      <c r="Q173" s="80"/>
+      <c r="R173" s="80"/>
+    </row>
+    <row r="174" spans="2:22">
+      <c r="B174" s="58"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="85"/>
+      <c r="E174" s="85"/>
+      <c r="F174" s="85"/>
+      <c r="G174" s="85"/>
+      <c r="H174" s="85"/>
+      <c r="I174" s="85"/>
+      <c r="J174" s="85"/>
+      <c r="K174" s="85"/>
+      <c r="L174" s="85"/>
+      <c r="M174" s="85"/>
+      <c r="N174" s="85"/>
+      <c r="O174" s="85"/>
+      <c r="P174" s="85"/>
+      <c r="Q174" s="85"/>
+      <c r="R174" s="85"/>
+    </row>
+    <row r="175" spans="2:22">
+      <c r="B175" s="63"/>
+      <c r="C175" s="90"/>
+      <c r="D175" s="83"/>
+      <c r="E175" s="83"/>
+      <c r="F175" s="83"/>
+      <c r="G175" s="83"/>
+      <c r="H175" s="83"/>
+      <c r="I175" s="83"/>
+      <c r="J175" s="83"/>
+      <c r="K175" s="83"/>
+      <c r="L175" s="83"/>
+      <c r="M175" s="83"/>
+      <c r="N175" s="83"/>
+      <c r="O175" s="83"/>
+      <c r="P175" s="83"/>
+      <c r="Q175" s="83"/>
+      <c r="R175" s="83"/>
+    </row>
+    <row r="176" spans="2:22" ht="39.75">
+      <c r="B176" s="56"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="84"/>
+      <c r="E176" s="84"/>
+      <c r="F176" s="84"/>
+      <c r="G176" s="84"/>
+      <c r="H176" s="84"/>
+      <c r="I176" s="84"/>
+      <c r="J176" s="84"/>
+      <c r="K176" s="84"/>
+      <c r="L176" s="84"/>
+      <c r="M176" s="84"/>
+      <c r="N176" s="84"/>
+      <c r="O176" s="84"/>
+      <c r="P176" s="84"/>
+      <c r="Q176" s="84"/>
+      <c r="R176" s="84"/>
+    </row>
+    <row r="177" spans="2:18" ht="58.5">
+      <c r="B177" s="57">
+        <f t="shared" ref="B177" si="6">B173+1</f>
+        <v>44</v>
+      </c>
+      <c r="C177" s="1"/>
+      <c r="D177" s="80"/>
+      <c r="E177" s="80"/>
+      <c r="F177" s="80"/>
+      <c r="G177" s="81"/>
+      <c r="H177" s="80"/>
+      <c r="I177" s="80"/>
+      <c r="J177" s="80"/>
+      <c r="K177" s="80"/>
+      <c r="L177" s="80"/>
+      <c r="M177" s="80"/>
+      <c r="N177" s="80"/>
+      <c r="O177" s="80"/>
+      <c r="P177" s="80"/>
+      <c r="Q177" s="80"/>
+      <c r="R177" s="80"/>
+    </row>
+    <row r="178" spans="2:18">
+      <c r="B178" s="58"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="85"/>
+      <c r="E178" s="85"/>
+      <c r="F178" s="85"/>
+      <c r="G178" s="85"/>
+      <c r="H178" s="85"/>
+      <c r="I178" s="85"/>
+      <c r="J178" s="85"/>
+      <c r="K178" s="85"/>
+      <c r="L178" s="85"/>
+      <c r="M178" s="85"/>
+      <c r="N178" s="85"/>
+      <c r="O178" s="85"/>
+      <c r="P178" s="85"/>
+      <c r="Q178" s="85"/>
+      <c r="R178" s="85"/>
+    </row>
+    <row r="179" spans="2:18">
+      <c r="B179" s="63"/>
+      <c r="C179" s="90"/>
+      <c r="D179" s="83"/>
+      <c r="E179" s="83"/>
+      <c r="F179" s="83"/>
+      <c r="G179" s="83"/>
+      <c r="H179" s="83"/>
+      <c r="I179" s="83"/>
+      <c r="J179" s="83"/>
+      <c r="K179" s="83"/>
+      <c r="L179" s="83"/>
+      <c r="M179" s="83"/>
+      <c r="N179" s="83"/>
+      <c r="O179" s="83"/>
+      <c r="P179" s="83"/>
+      <c r="Q179" s="83"/>
+      <c r="R179" s="83"/>
+    </row>
+    <row r="180" spans="2:18" ht="39.75">
+      <c r="B180" s="56"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="84"/>
+      <c r="E180" s="84"/>
+      <c r="F180" s="84"/>
+      <c r="G180" s="84"/>
+      <c r="H180" s="84"/>
+      <c r="I180" s="84"/>
+      <c r="J180" s="84"/>
+      <c r="K180" s="84"/>
+      <c r="L180" s="84"/>
+      <c r="M180" s="84"/>
+      <c r="N180" s="84"/>
+      <c r="O180" s="84"/>
+      <c r="P180" s="84"/>
+      <c r="Q180" s="84"/>
+      <c r="R180" s="84"/>
+    </row>
+    <row r="181" spans="2:18" ht="58.5">
+      <c r="B181" s="57">
+        <f t="shared" ref="B181" si="7">B177+1</f>
+        <v>45</v>
+      </c>
+      <c r="C181" s="1"/>
+      <c r="D181" s="80"/>
+      <c r="E181" s="80"/>
+      <c r="F181" s="80"/>
+      <c r="G181" s="81"/>
+      <c r="H181" s="80"/>
+      <c r="I181" s="80"/>
+      <c r="J181" s="80"/>
+      <c r="K181" s="80"/>
+      <c r="L181" s="80"/>
+      <c r="M181" s="80"/>
+      <c r="N181" s="80"/>
+      <c r="O181" s="80"/>
+      <c r="P181" s="80"/>
+      <c r="Q181" s="80"/>
+      <c r="R181" s="80"/>
+    </row>
+    <row r="182" spans="2:18">
+      <c r="B182" s="58"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="85"/>
+      <c r="E182" s="85"/>
+      <c r="F182" s="85"/>
+      <c r="G182" s="85"/>
+      <c r="H182" s="85"/>
+      <c r="I182" s="85"/>
+      <c r="J182" s="85"/>
+      <c r="K182" s="85"/>
+      <c r="L182" s="85"/>
+      <c r="M182" s="85"/>
+      <c r="N182" s="85"/>
+      <c r="O182" s="85"/>
+      <c r="P182" s="85"/>
+      <c r="Q182" s="85"/>
+      <c r="R182" s="85"/>
+    </row>
+    <row r="183" spans="2:18">
+      <c r="B183" s="63"/>
+      <c r="C183" s="90"/>
+      <c r="D183" s="83"/>
+      <c r="E183" s="83"/>
+      <c r="F183" s="83"/>
+      <c r="G183" s="83"/>
+      <c r="H183" s="83"/>
+      <c r="I183" s="83"/>
+      <c r="J183" s="83"/>
+      <c r="K183" s="83"/>
+      <c r="L183" s="83"/>
+      <c r="M183" s="83"/>
+      <c r="N183" s="83"/>
+      <c r="O183" s="83"/>
+      <c r="P183" s="83"/>
+      <c r="Q183" s="83"/>
+      <c r="R183" s="83"/>
+    </row>
+    <row r="184" spans="2:18" ht="39.75">
+      <c r="B184" s="56"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="84"/>
+      <c r="E184" s="84"/>
+      <c r="F184" s="84"/>
+      <c r="G184" s="84"/>
+      <c r="H184" s="84"/>
+      <c r="I184" s="84"/>
+      <c r="J184" s="84"/>
+      <c r="K184" s="84"/>
+      <c r="L184" s="84"/>
+      <c r="M184" s="84"/>
+      <c r="N184" s="84"/>
+      <c r="O184" s="84"/>
+      <c r="P184" s="84"/>
+      <c r="Q184" s="84"/>
+      <c r="R184" s="84"/>
+    </row>
+    <row r="185" spans="2:18" ht="58.5">
+      <c r="B185" s="57">
+        <f t="shared" ref="B185" si="8">B181+1</f>
+        <v>46</v>
+      </c>
+      <c r="C185" s="1"/>
+      <c r="D185" s="80"/>
+      <c r="E185" s="80"/>
+      <c r="F185" s="80"/>
+      <c r="G185" s="81"/>
+      <c r="H185" s="80"/>
+      <c r="I185" s="80"/>
+      <c r="J185" s="80"/>
+      <c r="K185" s="80"/>
+      <c r="L185" s="80"/>
+      <c r="M185" s="80"/>
+      <c r="N185" s="80"/>
+      <c r="O185" s="80"/>
+      <c r="P185" s="80"/>
+      <c r="Q185" s="80"/>
+      <c r="R185" s="80"/>
+    </row>
+    <row r="186" spans="2:18">
+      <c r="B186" s="58"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="85"/>
+      <c r="E186" s="85"/>
+      <c r="F186" s="85"/>
+      <c r="G186" s="85"/>
+      <c r="H186" s="85"/>
+      <c r="I186" s="85"/>
+      <c r="J186" s="85"/>
+      <c r="K186" s="85"/>
+      <c r="L186" s="85"/>
+      <c r="M186" s="85"/>
+      <c r="N186" s="85"/>
+      <c r="O186" s="85"/>
+      <c r="P186" s="85"/>
+      <c r="Q186" s="85"/>
+      <c r="R186" s="85"/>
+    </row>
+    <row r="187" spans="2:18">
+      <c r="B187" s="63"/>
+      <c r="C187" s="90"/>
+      <c r="D187" s="83"/>
+      <c r="E187" s="83"/>
+      <c r="F187" s="83"/>
+      <c r="G187" s="83"/>
+      <c r="H187" s="83"/>
+      <c r="I187" s="83"/>
+      <c r="J187" s="83"/>
+      <c r="K187" s="83"/>
+      <c r="L187" s="83"/>
+      <c r="M187" s="83"/>
+      <c r="N187" s="83"/>
+      <c r="O187" s="83"/>
+      <c r="P187" s="83"/>
+      <c r="Q187" s="83"/>
+      <c r="R187" s="83"/>
+    </row>
+    <row r="188" spans="2:18" ht="39.75">
+      <c r="B188" s="56"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="84"/>
+      <c r="E188" s="84"/>
+      <c r="F188" s="84"/>
+      <c r="G188" s="84"/>
+      <c r="H188" s="84"/>
+      <c r="I188" s="84"/>
+      <c r="J188" s="84"/>
+      <c r="K188" s="84"/>
+      <c r="L188" s="84"/>
+      <c r="M188" s="84"/>
+      <c r="N188" s="84"/>
+      <c r="O188" s="84"/>
+      <c r="P188" s="84"/>
+      <c r="Q188" s="84"/>
+      <c r="R188" s="84"/>
+    </row>
+    <row r="189" spans="2:18" ht="58.5">
+      <c r="B189" s="57">
+        <f t="shared" ref="B189" si="9">B185+1</f>
+        <v>47</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="D189" s="80"/>
+      <c r="E189" s="80"/>
+      <c r="F189" s="80"/>
+      <c r="G189" s="81"/>
+      <c r="H189" s="80"/>
+      <c r="I189" s="80"/>
+      <c r="J189" s="80"/>
+      <c r="K189" s="80"/>
+      <c r="L189" s="80"/>
+      <c r="M189" s="80"/>
+      <c r="N189" s="80"/>
+      <c r="O189" s="80"/>
+      <c r="P189" s="80"/>
+      <c r="Q189" s="80"/>
+      <c r="R189" s="80"/>
+    </row>
+    <row r="190" spans="2:18">
+      <c r="B190" s="58"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="85"/>
+      <c r="E190" s="85"/>
+      <c r="F190" s="85"/>
+      <c r="G190" s="85"/>
+      <c r="H190" s="85"/>
+      <c r="I190" s="85"/>
+      <c r="J190" s="85"/>
+      <c r="K190" s="85"/>
+      <c r="L190" s="85"/>
+      <c r="M190" s="85"/>
+      <c r="N190" s="85"/>
+      <c r="O190" s="85"/>
+      <c r="P190" s="85"/>
+      <c r="Q190" s="85"/>
+      <c r="R190" s="85"/>
+    </row>
+    <row r="191" spans="2:18">
+      <c r="B191" s="63"/>
+      <c r="C191" s="90"/>
+      <c r="D191" s="83"/>
+      <c r="E191" s="83"/>
+      <c r="F191" s="83"/>
+      <c r="G191" s="83"/>
+      <c r="H191" s="83"/>
+      <c r="I191" s="83"/>
+      <c r="J191" s="83"/>
+      <c r="K191" s="83"/>
+      <c r="L191" s="83"/>
+      <c r="M191" s="83"/>
+      <c r="N191" s="83"/>
+      <c r="O191" s="83"/>
+      <c r="P191" s="83"/>
+      <c r="Q191" s="83"/>
+      <c r="R191" s="83"/>
+    </row>
+    <row r="192" spans="2:18" ht="39.75">
+      <c r="B192" s="56"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="84"/>
+      <c r="E192" s="84"/>
+      <c r="F192" s="84"/>
+      <c r="G192" s="84"/>
+      <c r="H192" s="84"/>
+      <c r="I192" s="84"/>
+      <c r="J192" s="84"/>
+      <c r="K192" s="84"/>
+      <c r="L192" s="84"/>
+      <c r="M192" s="84"/>
+      <c r="N192" s="84"/>
+      <c r="O192" s="84"/>
+      <c r="P192" s="84"/>
+      <c r="Q192" s="84"/>
+      <c r="R192" s="84"/>
+    </row>
+    <row r="193" spans="2:18" ht="58.5">
+      <c r="B193" s="57">
+        <f t="shared" ref="B193" si="10">B189+1</f>
+        <v>48</v>
+      </c>
+      <c r="C193" s="1"/>
+      <c r="D193" s="80"/>
+      <c r="E193" s="80"/>
+      <c r="F193" s="80"/>
+      <c r="G193" s="81"/>
+      <c r="H193" s="80"/>
+      <c r="I193" s="80"/>
+      <c r="J193" s="80"/>
+      <c r="K193" s="80"/>
+      <c r="L193" s="80"/>
+      <c r="M193" s="80"/>
+      <c r="N193" s="80"/>
+      <c r="O193" s="80"/>
+      <c r="P193" s="80"/>
+      <c r="Q193" s="80"/>
+      <c r="R193" s="80"/>
+    </row>
+    <row r="194" spans="2:18">
+      <c r="B194" s="58"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="85"/>
+      <c r="E194" s="85"/>
+      <c r="F194" s="85"/>
+      <c r="G194" s="85"/>
+      <c r="H194" s="85"/>
+      <c r="I194" s="85"/>
+      <c r="J194" s="85"/>
+      <c r="K194" s="85"/>
+      <c r="L194" s="85"/>
+      <c r="M194" s="85"/>
+      <c r="N194" s="85"/>
+      <c r="O194" s="85"/>
+      <c r="P194" s="85"/>
+      <c r="Q194" s="85"/>
+      <c r="R194" s="85"/>
+    </row>
+    <row r="195" spans="2:18">
+      <c r="B195" s="63"/>
+      <c r="C195" s="90"/>
+      <c r="D195" s="83"/>
+      <c r="E195" s="83"/>
+      <c r="F195" s="83"/>
+      <c r="G195" s="83"/>
+      <c r="H195" s="83"/>
+      <c r="I195" s="83"/>
+      <c r="J195" s="83"/>
+      <c r="K195" s="83"/>
+      <c r="L195" s="83"/>
+      <c r="M195" s="83"/>
+      <c r="N195" s="83"/>
+      <c r="O195" s="83"/>
+      <c r="P195" s="83"/>
+      <c r="Q195" s="83"/>
+      <c r="R195" s="83"/>
+    </row>
+    <row r="196" spans="2:18" ht="39.75">
+      <c r="B196" s="56"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="84"/>
+      <c r="E196" s="84"/>
+      <c r="F196" s="84"/>
+      <c r="G196" s="84"/>
+      <c r="H196" s="84"/>
+      <c r="I196" s="84"/>
+      <c r="J196" s="84"/>
+      <c r="K196" s="84"/>
+      <c r="L196" s="84"/>
+      <c r="M196" s="84"/>
+      <c r="N196" s="84"/>
+      <c r="O196" s="84"/>
+      <c r="P196" s="84"/>
+      <c r="Q196" s="84"/>
+      <c r="R196" s="84"/>
+    </row>
+    <row r="197" spans="2:18" ht="58.5">
+      <c r="B197" s="57">
+        <f t="shared" ref="B197" si="11">B193+1</f>
+        <v>49</v>
+      </c>
+      <c r="C197" s="1"/>
+      <c r="D197" s="80"/>
+      <c r="E197" s="80"/>
+      <c r="F197" s="80"/>
+      <c r="G197" s="81"/>
+      <c r="H197" s="80"/>
+      <c r="I197" s="80"/>
+      <c r="J197" s="80"/>
+      <c r="K197" s="80"/>
+      <c r="L197" s="80"/>
+      <c r="M197" s="80"/>
+      <c r="N197" s="80"/>
+      <c r="O197" s="80"/>
+      <c r="P197" s="80"/>
+      <c r="Q197" s="80"/>
+      <c r="R197" s="80"/>
+    </row>
+    <row r="198" spans="2:18">
+      <c r="B198" s="58"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="85"/>
+      <c r="E198" s="85"/>
+      <c r="F198" s="85"/>
+      <c r="G198" s="85"/>
+      <c r="H198" s="85"/>
+      <c r="I198" s="85"/>
+      <c r="J198" s="85"/>
+      <c r="K198" s="85"/>
+      <c r="L198" s="85"/>
+      <c r="M198" s="85"/>
+      <c r="N198" s="85"/>
+      <c r="O198" s="85"/>
+      <c r="P198" s="85"/>
+      <c r="Q198" s="85"/>
+      <c r="R198" s="85"/>
+    </row>
+    <row r="199" spans="2:18">
+      <c r="B199" s="63"/>
+      <c r="C199" s="90"/>
+      <c r="D199" s="83"/>
+      <c r="E199" s="83"/>
+      <c r="F199" s="83"/>
+      <c r="G199" s="83"/>
+      <c r="H199" s="83"/>
+      <c r="I199" s="83"/>
+      <c r="J199" s="83"/>
+      <c r="K199" s="83"/>
+      <c r="L199" s="83"/>
+      <c r="M199" s="83"/>
+      <c r="N199" s="83"/>
+      <c r="O199" s="83"/>
+      <c r="P199" s="83"/>
+      <c r="Q199" s="83"/>
+      <c r="R199" s="83"/>
+    </row>
+    <row r="200" spans="2:18" ht="39.75">
+      <c r="B200" s="56"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="84"/>
+      <c r="E200" s="84"/>
+      <c r="F200" s="84"/>
+      <c r="G200" s="84"/>
+      <c r="H200" s="84"/>
+      <c r="I200" s="84"/>
+      <c r="J200" s="84"/>
+      <c r="K200" s="84"/>
+      <c r="L200" s="84"/>
+      <c r="M200" s="84"/>
+      <c r="N200" s="84"/>
+      <c r="O200" s="84"/>
+      <c r="P200" s="84"/>
+      <c r="Q200" s="84"/>
+      <c r="R200" s="84"/>
+    </row>
+    <row r="201" spans="2:18" ht="58.5">
+      <c r="B201" s="57">
+        <f t="shared" ref="B201" si="12">B197+1</f>
+        <v>50</v>
+      </c>
+      <c r="C201" s="1"/>
+      <c r="D201" s="80"/>
+      <c r="E201" s="80"/>
+      <c r="F201" s="80"/>
+      <c r="G201" s="81"/>
+      <c r="H201" s="80"/>
+      <c r="I201" s="80"/>
+      <c r="J201" s="80"/>
+      <c r="K201" s="80"/>
+      <c r="L201" s="80"/>
+      <c r="M201" s="80"/>
+      <c r="N201" s="80"/>
+      <c r="O201" s="80"/>
+      <c r="P201" s="80"/>
+      <c r="Q201" s="80"/>
+      <c r="R201" s="80"/>
+    </row>
+    <row r="202" spans="2:18">
+      <c r="B202" s="58"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="85"/>
+      <c r="E202" s="85"/>
+      <c r="F202" s="85"/>
+      <c r="G202" s="85"/>
+      <c r="H202" s="85"/>
+      <c r="I202" s="85"/>
+      <c r="J202" s="85"/>
+      <c r="K202" s="85"/>
+      <c r="L202" s="85"/>
+      <c r="M202" s="85"/>
+      <c r="N202" s="85"/>
+      <c r="O202" s="85"/>
+      <c r="P202" s="85"/>
+      <c r="Q202" s="85"/>
+      <c r="R202" s="85"/>
+    </row>
+    <row r="203" spans="2:18">
+      <c r="B203" s="63"/>
+      <c r="C203" s="90"/>
+      <c r="D203" s="83"/>
+      <c r="E203" s="83"/>
+      <c r="F203" s="83"/>
+      <c r="G203" s="83"/>
+      <c r="H203" s="83"/>
+      <c r="I203" s="83"/>
+      <c r="J203" s="83"/>
+      <c r="K203" s="83"/>
+      <c r="L203" s="83"/>
+      <c r="M203" s="83"/>
+      <c r="N203" s="83"/>
+      <c r="O203" s="83"/>
+      <c r="P203" s="83"/>
+      <c r="Q203" s="83"/>
+      <c r="R203" s="83"/>
+    </row>
+    <row r="204" spans="2:18" ht="39.75">
+      <c r="B204" s="56"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="84"/>
+      <c r="E204" s="84"/>
+      <c r="F204" s="84"/>
+      <c r="G204" s="84"/>
+      <c r="H204" s="84"/>
+      <c r="I204" s="84"/>
+      <c r="J204" s="84"/>
+      <c r="K204" s="84"/>
+      <c r="L204" s="84"/>
+      <c r="M204" s="84"/>
+      <c r="N204" s="84"/>
+      <c r="O204" s="84"/>
+      <c r="P204" s="84"/>
+      <c r="Q204" s="84"/>
+      <c r="R204" s="84"/>
+    </row>
+    <row r="205" spans="2:18" ht="58.5">
+      <c r="B205" s="57">
+        <f t="shared" ref="B205" si="13">B201+1</f>
+        <v>51</v>
+      </c>
+      <c r="C205" s="1"/>
+      <c r="D205" s="80"/>
+      <c r="E205" s="80"/>
+      <c r="F205" s="80"/>
+      <c r="G205" s="81"/>
+      <c r="H205" s="80"/>
+      <c r="I205" s="80"/>
+      <c r="J205" s="80"/>
+      <c r="K205" s="80"/>
+      <c r="L205" s="80"/>
+      <c r="M205" s="80"/>
+      <c r="N205" s="80"/>
+      <c r="O205" s="80"/>
+      <c r="P205" s="80"/>
+      <c r="Q205" s="80"/>
+      <c r="R205" s="80"/>
+    </row>
+    <row r="206" spans="2:18">
+      <c r="B206" s="58"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="85"/>
+      <c r="E206" s="85"/>
+      <c r="F206" s="85"/>
+      <c r="G206" s="85"/>
+      <c r="H206" s="85"/>
+      <c r="I206" s="85"/>
+      <c r="J206" s="85"/>
+      <c r="K206" s="85"/>
+      <c r="L206" s="85"/>
+      <c r="M206" s="85"/>
+      <c r="N206" s="85"/>
+      <c r="O206" s="85"/>
+      <c r="P206" s="85"/>
+      <c r="Q206" s="85"/>
+      <c r="R206" s="85"/>
+    </row>
+    <row r="207" spans="2:18">
+      <c r="B207" s="63"/>
+      <c r="C207" s="90"/>
+      <c r="D207" s="83"/>
+      <c r="E207" s="83"/>
+      <c r="F207" s="83"/>
+      <c r="G207" s="83"/>
+      <c r="H207" s="83"/>
+      <c r="I207" s="83"/>
+      <c r="J207" s="83"/>
+      <c r="K207" s="83"/>
+      <c r="L207" s="83"/>
+      <c r="M207" s="83"/>
+      <c r="N207" s="83"/>
+      <c r="O207" s="83"/>
+      <c r="P207" s="83"/>
+      <c r="Q207" s="83"/>
+      <c r="R207" s="83"/>
+    </row>
+    <row r="208" spans="2:18" ht="39.75">
+      <c r="B208" s="56"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="84"/>
+      <c r="E208" s="84"/>
+      <c r="F208" s="84"/>
+      <c r="G208" s="84"/>
+      <c r="H208" s="84"/>
+      <c r="I208" s="84"/>
+      <c r="J208" s="84"/>
+      <c r="K208" s="84"/>
+      <c r="L208" s="84"/>
+      <c r="M208" s="84"/>
+      <c r="N208" s="84"/>
+      <c r="O208" s="84"/>
+      <c r="P208" s="84"/>
+      <c r="Q208" s="84"/>
+      <c r="R208" s="84"/>
+    </row>
+    <row r="209" spans="2:18" ht="58.5">
+      <c r="B209" s="57">
+        <f t="shared" ref="B209" si="14">B205+1</f>
+        <v>52</v>
+      </c>
+      <c r="C209" s="1"/>
+      <c r="D209" s="80"/>
+      <c r="E209" s="80"/>
+      <c r="F209" s="80"/>
+      <c r="G209" s="81"/>
+      <c r="H209" s="80"/>
+      <c r="I209" s="80"/>
+      <c r="J209" s="80"/>
+      <c r="K209" s="80"/>
+      <c r="L209" s="80"/>
+      <c r="M209" s="80"/>
+      <c r="N209" s="80"/>
+      <c r="O209" s="80"/>
+      <c r="P209" s="80"/>
+      <c r="Q209" s="80"/>
+      <c r="R209" s="80"/>
+    </row>
+    <row r="210" spans="2:18">
+      <c r="B210" s="58"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="85"/>
+      <c r="E210" s="85"/>
+      <c r="F210" s="85"/>
+      <c r="G210" s="85"/>
+      <c r="H210" s="85"/>
+      <c r="I210" s="85"/>
+      <c r="J210" s="85"/>
+      <c r="K210" s="85"/>
+      <c r="L210" s="85"/>
+      <c r="M210" s="85"/>
+      <c r="N210" s="85"/>
+      <c r="O210" s="85"/>
+      <c r="P210" s="85"/>
+      <c r="Q210" s="85"/>
+      <c r="R210" s="85"/>
+    </row>
+    <row r="211" spans="2:18">
+      <c r="B211" s="63"/>
+      <c r="C211" s="90"/>
+      <c r="D211" s="83"/>
+      <c r="E211" s="83"/>
+      <c r="F211" s="83"/>
+      <c r="G211" s="83"/>
+      <c r="H211" s="83"/>
+      <c r="I211" s="83"/>
+      <c r="J211" s="83"/>
+      <c r="K211" s="83"/>
+      <c r="L211" s="83"/>
+      <c r="M211" s="83"/>
+      <c r="N211" s="83"/>
+      <c r="O211" s="83"/>
+      <c r="P211" s="83"/>
+      <c r="Q211" s="83"/>
+      <c r="R211" s="83"/>
+    </row>
+    <row r="212" spans="2:18" ht="39.75">
+      <c r="B212" s="56"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="84"/>
+      <c r="E212" s="84"/>
+      <c r="F212" s="84"/>
+      <c r="G212" s="84"/>
+      <c r="H212" s="84"/>
+      <c r="I212" s="84"/>
+      <c r="J212" s="84"/>
+      <c r="K212" s="84"/>
+      <c r="L212" s="84"/>
+      <c r="M212" s="84"/>
+      <c r="N212" s="84"/>
+      <c r="O212" s="84"/>
+      <c r="P212" s="84"/>
+      <c r="Q212" s="84"/>
+      <c r="R212" s="84"/>
+    </row>
+    <row r="213" spans="2:18" ht="58.5">
+      <c r="B213" s="57">
+        <f t="shared" ref="B213" si="15">B209+1</f>
+        <v>53</v>
+      </c>
+      <c r="C213" s="1"/>
+      <c r="D213" s="80"/>
+      <c r="E213" s="80"/>
+      <c r="F213" s="80"/>
+      <c r="G213" s="81"/>
+      <c r="H213" s="80"/>
+      <c r="I213" s="80"/>
+      <c r="J213" s="80"/>
+      <c r="K213" s="80"/>
+      <c r="L213" s="80"/>
+      <c r="M213" s="80"/>
+      <c r="N213" s="80"/>
+      <c r="O213" s="80"/>
+      <c r="P213" s="80"/>
+      <c r="Q213" s="80"/>
+      <c r="R213" s="80"/>
+    </row>
+    <row r="214" spans="2:18">
+      <c r="B214" s="58"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="85"/>
+      <c r="E214" s="85"/>
+      <c r="F214" s="85"/>
+      <c r="G214" s="85"/>
+      <c r="H214" s="85"/>
+      <c r="I214" s="85"/>
+      <c r="J214" s="85"/>
+      <c r="K214" s="85"/>
+      <c r="L214" s="85"/>
+      <c r="M214" s="85"/>
+      <c r="N214" s="85"/>
+      <c r="O214" s="85"/>
+      <c r="P214" s="85"/>
+      <c r="Q214" s="85"/>
+      <c r="R214" s="85"/>
+    </row>
+    <row r="215" spans="2:18">
+      <c r="B215" s="63"/>
+      <c r="C215" s="90"/>
+      <c r="D215" s="83"/>
+      <c r="E215" s="83"/>
+      <c r="F215" s="83"/>
+      <c r="G215" s="83"/>
+      <c r="H215" s="83"/>
+      <c r="I215" s="83"/>
+      <c r="J215" s="83"/>
+      <c r="K215" s="83"/>
+      <c r="L215" s="83"/>
+      <c r="M215" s="83"/>
+      <c r="N215" s="83"/>
+      <c r="O215" s="83"/>
+      <c r="P215" s="83"/>
+      <c r="Q215" s="83"/>
+      <c r="R215" s="83"/>
+    </row>
+    <row r="216" spans="2:18" ht="39.75">
+      <c r="B216" s="56"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="84"/>
+      <c r="E216" s="84"/>
+      <c r="F216" s="84"/>
+      <c r="G216" s="84"/>
+      <c r="H216" s="84"/>
+      <c r="I216" s="84"/>
+      <c r="J216" s="84"/>
+      <c r="K216" s="84"/>
+      <c r="L216" s="84"/>
+      <c r="M216" s="84"/>
+      <c r="N216" s="84"/>
+      <c r="O216" s="84"/>
+      <c r="P216" s="84"/>
+      <c r="Q216" s="84"/>
+      <c r="R216" s="84"/>
+    </row>
+    <row r="217" spans="2:18" ht="58.5">
+      <c r="B217" s="57">
+        <f t="shared" ref="B217" si="16">B213+1</f>
+        <v>54</v>
+      </c>
+      <c r="C217" s="1"/>
+      <c r="D217" s="80"/>
+      <c r="E217" s="80"/>
+      <c r="F217" s="80"/>
+      <c r="G217" s="81"/>
+      <c r="H217" s="80"/>
+      <c r="I217" s="80"/>
+      <c r="J217" s="80"/>
+      <c r="K217" s="80"/>
+      <c r="L217" s="80"/>
+      <c r="M217" s="80"/>
+      <c r="N217" s="80"/>
+      <c r="O217" s="80"/>
+      <c r="P217" s="80"/>
+      <c r="Q217" s="80"/>
+      <c r="R217" s="80"/>
+    </row>
+    <row r="218" spans="2:18">
+      <c r="B218" s="58"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="85"/>
+      <c r="E218" s="85"/>
+      <c r="F218" s="85"/>
+      <c r="G218" s="85"/>
+      <c r="H218" s="85"/>
+      <c r="I218" s="85"/>
+      <c r="J218" s="85"/>
+      <c r="K218" s="85"/>
+      <c r="L218" s="85"/>
+      <c r="M218" s="85"/>
+      <c r="N218" s="85"/>
+      <c r="O218" s="85"/>
+      <c r="P218" s="85"/>
+      <c r="Q218" s="85"/>
+      <c r="R218" s="85"/>
+    </row>
+    <row r="219" spans="2:18">
+      <c r="B219" s="63"/>
+      <c r="C219" s="90"/>
+      <c r="D219" s="83"/>
+      <c r="E219" s="83"/>
+      <c r="F219" s="83"/>
+      <c r="G219" s="83"/>
+      <c r="H219" s="83"/>
+      <c r="I219" s="83"/>
+      <c r="J219" s="83"/>
+      <c r="K219" s="83"/>
+      <c r="L219" s="83"/>
+      <c r="M219" s="83"/>
+      <c r="N219" s="83"/>
+      <c r="O219" s="83"/>
+      <c r="P219" s="83"/>
+      <c r="Q219" s="83"/>
+      <c r="R219" s="83"/>
+    </row>
+    <row r="220" spans="2:18" ht="39.75">
+      <c r="B220" s="56"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="84"/>
+      <c r="E220" s="84"/>
+      <c r="F220" s="84"/>
+      <c r="G220" s="84"/>
+      <c r="H220" s="84"/>
+      <c r="I220" s="84"/>
+      <c r="J220" s="84"/>
+      <c r="K220" s="84"/>
+      <c r="L220" s="84"/>
+      <c r="M220" s="84"/>
+      <c r="N220" s="84"/>
+      <c r="O220" s="84"/>
+      <c r="P220" s="84"/>
+      <c r="Q220" s="84"/>
+      <c r="R220" s="84"/>
+    </row>
+    <row r="221" spans="2:18" ht="58.5">
+      <c r="B221" s="57">
+        <f t="shared" ref="B221" si="17">B217+1</f>
+        <v>55</v>
+      </c>
+      <c r="C221" s="1"/>
+      <c r="D221" s="80"/>
+      <c r="E221" s="80"/>
+      <c r="F221" s="80"/>
+      <c r="G221" s="81"/>
+      <c r="H221" s="80"/>
+      <c r="I221" s="80"/>
+      <c r="J221" s="80"/>
+      <c r="K221" s="80"/>
+      <c r="L221" s="80"/>
+      <c r="M221" s="80"/>
+      <c r="N221" s="80"/>
+      <c r="O221" s="80"/>
+      <c r="P221" s="80"/>
+      <c r="Q221" s="80"/>
+      <c r="R221" s="80"/>
+    </row>
+    <row r="222" spans="2:18">
+      <c r="B222" s="58"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="85"/>
+      <c r="E222" s="85"/>
+      <c r="F222" s="85"/>
+      <c r="G222" s="85"/>
+      <c r="H222" s="85"/>
+      <c r="I222" s="85"/>
+      <c r="J222" s="85"/>
+      <c r="K222" s="85"/>
+      <c r="L222" s="85"/>
+      <c r="M222" s="85"/>
+      <c r="N222" s="85"/>
+      <c r="O222" s="85"/>
+      <c r="P222" s="85"/>
+      <c r="Q222" s="85"/>
+      <c r="R222" s="85"/>
+    </row>
+    <row r="223" spans="2:18">
+      <c r="B223" s="63"/>
+      <c r="C223" s="90"/>
+      <c r="D223" s="83"/>
+      <c r="E223" s="83"/>
+      <c r="F223" s="83"/>
+      <c r="G223" s="83"/>
+      <c r="H223" s="83"/>
+      <c r="I223" s="83"/>
+      <c r="J223" s="83"/>
+      <c r="K223" s="83"/>
+      <c r="L223" s="83"/>
+      <c r="M223" s="83"/>
+      <c r="N223" s="83"/>
+      <c r="O223" s="83"/>
+      <c r="P223" s="83"/>
+      <c r="Q223" s="83"/>
+      <c r="R223" s="83"/>
+    </row>
+    <row r="224" spans="2:18" ht="39.75">
+      <c r="B224" s="56"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="84"/>
+      <c r="E224" s="84"/>
+      <c r="F224" s="84"/>
+      <c r="G224" s="84"/>
+      <c r="H224" s="84"/>
+      <c r="I224" s="84"/>
+      <c r="J224" s="84"/>
+      <c r="K224" s="84"/>
+      <c r="L224" s="84"/>
+      <c r="M224" s="84"/>
+      <c r="N224" s="84"/>
+      <c r="O224" s="84"/>
+      <c r="P224" s="84"/>
+      <c r="Q224" s="84"/>
+      <c r="R224" s="84"/>
+    </row>
+    <row r="225" spans="2:18" ht="58.5">
+      <c r="B225" s="57">
+        <f t="shared" ref="B225" si="18">B221+1</f>
+        <v>56</v>
+      </c>
+      <c r="C225" s="1"/>
+      <c r="D225" s="80"/>
+      <c r="E225" s="80"/>
+      <c r="F225" s="80"/>
+      <c r="G225" s="81"/>
+      <c r="H225" s="80"/>
+      <c r="I225" s="80"/>
+      <c r="J225" s="80"/>
+      <c r="K225" s="80"/>
+      <c r="L225" s="80"/>
+      <c r="M225" s="80"/>
+      <c r="N225" s="80"/>
+      <c r="O225" s="80"/>
+      <c r="P225" s="80"/>
+      <c r="Q225" s="80"/>
+      <c r="R225" s="80"/>
+    </row>
+    <row r="226" spans="2:18">
+      <c r="B226" s="58"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="85"/>
+      <c r="E226" s="85"/>
+      <c r="F226" s="85"/>
+      <c r="G226" s="85"/>
+      <c r="H226" s="85"/>
+      <c r="I226" s="85"/>
+      <c r="J226" s="85"/>
+      <c r="K226" s="85"/>
+      <c r="L226" s="85"/>
+      <c r="M226" s="85"/>
+      <c r="N226" s="85"/>
+      <c r="O226" s="85"/>
+      <c r="P226" s="85"/>
+      <c r="Q226" s="85"/>
+      <c r="R226" s="85"/>
+    </row>
+    <row r="227" spans="2:18">
+      <c r="B227" s="63"/>
+      <c r="C227" s="90"/>
+      <c r="D227" s="83"/>
+      <c r="E227" s="83"/>
+      <c r="F227" s="83"/>
+      <c r="G227" s="83"/>
+      <c r="H227" s="83"/>
+      <c r="I227" s="83"/>
+      <c r="J227" s="83"/>
+      <c r="K227" s="83"/>
+      <c r="L227" s="83"/>
+      <c r="M227" s="83"/>
+      <c r="N227" s="83"/>
+      <c r="O227" s="83"/>
+      <c r="P227" s="83"/>
+      <c r="Q227" s="83"/>
+      <c r="R227" s="83"/>
+    </row>
+    <row r="228" spans="2:18" ht="39.75">
+      <c r="B228" s="56"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="84"/>
+      <c r="E228" s="84"/>
+      <c r="F228" s="84"/>
+      <c r="G228" s="84"/>
+      <c r="H228" s="84"/>
+      <c r="I228" s="84"/>
+      <c r="J228" s="84"/>
+      <c r="K228" s="84"/>
+      <c r="L228" s="84"/>
+      <c r="M228" s="84"/>
+      <c r="N228" s="84"/>
+      <c r="O228" s="84"/>
+      <c r="P228" s="84"/>
+      <c r="Q228" s="84"/>
+      <c r="R228" s="84"/>
+    </row>
+    <row r="229" spans="2:18" ht="58.5">
+      <c r="B229" s="57">
+        <f t="shared" ref="B229" si="19">B225+1</f>
+        <v>57</v>
+      </c>
+      <c r="C229" s="1"/>
+      <c r="D229" s="80"/>
+      <c r="E229" s="80"/>
+      <c r="F229" s="80"/>
+      <c r="G229" s="81"/>
+      <c r="H229" s="80"/>
+      <c r="I229" s="80"/>
+      <c r="J229" s="80"/>
+      <c r="K229" s="80"/>
+      <c r="L229" s="80"/>
+      <c r="M229" s="80"/>
+      <c r="N229" s="80"/>
+      <c r="O229" s="80"/>
+      <c r="P229" s="80"/>
+      <c r="Q229" s="80"/>
+      <c r="R229" s="80"/>
+    </row>
+    <row r="230" spans="2:18">
+      <c r="B230" s="58"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="85"/>
+      <c r="E230" s="85"/>
+      <c r="F230" s="85"/>
+      <c r="G230" s="85"/>
+      <c r="H230" s="85"/>
+      <c r="I230" s="85"/>
+      <c r="J230" s="85"/>
+      <c r="K230" s="85"/>
+      <c r="L230" s="85"/>
+      <c r="M230" s="85"/>
+      <c r="N230" s="85"/>
+      <c r="O230" s="85"/>
+      <c r="P230" s="85"/>
+      <c r="Q230" s="85"/>
+      <c r="R230" s="85"/>
+    </row>
+    <row r="231" spans="2:18">
+      <c r="B231" s="63"/>
+      <c r="C231" s="90"/>
+      <c r="D231" s="83"/>
+      <c r="E231" s="83"/>
+      <c r="F231" s="83"/>
+      <c r="G231" s="83"/>
+      <c r="H231" s="83"/>
+      <c r="I231" s="83"/>
+      <c r="J231" s="83"/>
+      <c r="K231" s="83"/>
+      <c r="L231" s="83"/>
+      <c r="M231" s="83"/>
+      <c r="N231" s="83"/>
+      <c r="O231" s="83"/>
+      <c r="P231" s="83"/>
+      <c r="Q231" s="83"/>
+      <c r="R231" s="83"/>
+    </row>
+    <row r="232" spans="2:18" ht="39.75">
+      <c r="B232" s="56"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="84"/>
+      <c r="E232" s="84"/>
+      <c r="F232" s="84"/>
+      <c r="G232" s="84"/>
+      <c r="H232" s="84"/>
+      <c r="I232" s="84"/>
+      <c r="J232" s="84"/>
+      <c r="K232" s="84"/>
+      <c r="L232" s="84"/>
+      <c r="M232" s="84"/>
+      <c r="N232" s="84"/>
+      <c r="O232" s="84"/>
+      <c r="P232" s="84"/>
+      <c r="Q232" s="84"/>
+      <c r="R232" s="84"/>
+    </row>
+    <row r="233" spans="2:18" ht="58.5">
+      <c r="B233" s="57">
+        <f t="shared" ref="B233" si="20">B229+1</f>
+        <v>58</v>
+      </c>
+      <c r="C233" s="1"/>
+      <c r="D233" s="80"/>
+      <c r="E233" s="80"/>
+      <c r="F233" s="80"/>
+      <c r="G233" s="81"/>
+      <c r="H233" s="80"/>
+      <c r="I233" s="80"/>
+      <c r="J233" s="80"/>
+      <c r="K233" s="80"/>
+      <c r="L233" s="80"/>
+      <c r="M233" s="80"/>
+      <c r="N233" s="80"/>
+      <c r="O233" s="80"/>
+      <c r="P233" s="80"/>
+      <c r="Q233" s="80"/>
+      <c r="R233" s="80"/>
+    </row>
+    <row r="234" spans="2:18">
+      <c r="B234" s="58"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="85"/>
+      <c r="E234" s="85"/>
+      <c r="F234" s="85"/>
+      <c r="G234" s="85"/>
+      <c r="H234" s="85"/>
+      <c r="I234" s="85"/>
+      <c r="J234" s="85"/>
+      <c r="K234" s="85"/>
+      <c r="L234" s="85"/>
+      <c r="M234" s="85"/>
+      <c r="N234" s="85"/>
+      <c r="O234" s="85"/>
+      <c r="P234" s="85"/>
+      <c r="Q234" s="85"/>
+      <c r="R234" s="85"/>
+    </row>
+    <row r="235" spans="2:18">
+      <c r="B235" s="63"/>
+      <c r="C235" s="90"/>
+      <c r="D235" s="83"/>
+      <c r="E235" s="83"/>
+      <c r="F235" s="83"/>
+      <c r="G235" s="83"/>
+      <c r="H235" s="83"/>
+      <c r="I235" s="83"/>
+      <c r="J235" s="83"/>
+      <c r="K235" s="83"/>
+      <c r="L235" s="83"/>
+      <c r="M235" s="83"/>
+      <c r="N235" s="83"/>
+      <c r="O235" s="83"/>
+      <c r="P235" s="83"/>
+      <c r="Q235" s="83"/>
+      <c r="R235" s="83"/>
+    </row>
+    <row r="236" spans="2:18" ht="39.75">
+      <c r="B236" s="56"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="84"/>
+      <c r="E236" s="84"/>
+      <c r="F236" s="84"/>
+      <c r="G236" s="84"/>
+      <c r="H236" s="84"/>
+      <c r="I236" s="84"/>
+      <c r="J236" s="84"/>
+      <c r="K236" s="84"/>
+      <c r="L236" s="84"/>
+      <c r="M236" s="84"/>
+      <c r="N236" s="84"/>
+      <c r="O236" s="84"/>
+      <c r="P236" s="84"/>
+      <c r="Q236" s="84"/>
+      <c r="R236" s="84"/>
+    </row>
+    <row r="237" spans="2:18" ht="58.5">
+      <c r="B237" s="57">
+        <f t="shared" ref="B237" si="21">B233+1</f>
+        <v>59</v>
+      </c>
+      <c r="C237" s="1"/>
+      <c r="D237" s="80"/>
+      <c r="E237" s="80"/>
+      <c r="F237" s="80"/>
+      <c r="G237" s="81"/>
+      <c r="H237" s="80"/>
+      <c r="I237" s="80"/>
+      <c r="J237" s="80"/>
+      <c r="K237" s="80"/>
+      <c r="L237" s="80"/>
+      <c r="M237" s="80"/>
+      <c r="N237" s="80"/>
+      <c r="O237" s="80"/>
+      <c r="P237" s="80"/>
+      <c r="Q237" s="80"/>
+      <c r="R237" s="80"/>
+    </row>
+    <row r="238" spans="2:18">
+      <c r="B238" s="58"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="85"/>
+      <c r="E238" s="85"/>
+      <c r="F238" s="85"/>
+      <c r="G238" s="85"/>
+      <c r="H238" s="85"/>
+      <c r="I238" s="85"/>
+      <c r="J238" s="85"/>
+      <c r="K238" s="85"/>
+      <c r="L238" s="85"/>
+      <c r="M238" s="85"/>
+      <c r="N238" s="85"/>
+      <c r="O238" s="85"/>
+      <c r="P238" s="85"/>
+      <c r="Q238" s="85"/>
+      <c r="R238" s="85"/>
+    </row>
+    <row r="239" spans="2:18">
+      <c r="B239" s="63"/>
+      <c r="C239" s="90"/>
+      <c r="D239" s="83"/>
+      <c r="E239" s="83"/>
+      <c r="F239" s="83"/>
+      <c r="G239" s="83"/>
+      <c r="H239" s="83"/>
+      <c r="I239" s="83"/>
+      <c r="J239" s="83"/>
+      <c r="K239" s="83"/>
+      <c r="L239" s="83"/>
+      <c r="M239" s="83"/>
+      <c r="N239" s="83"/>
+      <c r="O239" s="83"/>
+      <c r="P239" s="83"/>
+      <c r="Q239" s="83"/>
+      <c r="R239" s="83"/>
+    </row>
+    <row r="240" spans="2:18" ht="39.75">
+      <c r="B240" s="56"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="84"/>
+      <c r="E240" s="84"/>
+      <c r="F240" s="84"/>
+      <c r="G240" s="84"/>
+      <c r="H240" s="84"/>
+      <c r="I240" s="84"/>
+      <c r="J240" s="84"/>
+      <c r="K240" s="84"/>
+      <c r="L240" s="84"/>
+      <c r="M240" s="84"/>
+      <c r="N240" s="84"/>
+      <c r="O240" s="84"/>
+      <c r="P240" s="84"/>
+      <c r="Q240" s="84"/>
+      <c r="R240" s="84"/>
+    </row>
+    <row r="241" spans="2:18" ht="58.5">
+      <c r="B241" s="57">
+        <f t="shared" ref="B241" si="22">B237+1</f>
+        <v>60</v>
+      </c>
+      <c r="C241" s="1"/>
+      <c r="D241" s="80"/>
+      <c r="E241" s="80"/>
+      <c r="F241" s="80"/>
+      <c r="G241" s="81"/>
+      <c r="H241" s="80"/>
+      <c r="I241" s="80"/>
+      <c r="J241" s="80"/>
+      <c r="K241" s="80"/>
+      <c r="L241" s="80"/>
+      <c r="M241" s="80"/>
+      <c r="N241" s="80"/>
+      <c r="O241" s="80"/>
+      <c r="P241" s="80"/>
+      <c r="Q241" s="80"/>
+      <c r="R241" s="80"/>
+    </row>
+    <row r="242" spans="2:18">
+      <c r="B242" s="58"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="85"/>
+      <c r="E242" s="85"/>
+      <c r="F242" s="85"/>
+      <c r="G242" s="85"/>
+      <c r="H242" s="85"/>
+      <c r="I242" s="85"/>
+      <c r="J242" s="85"/>
+      <c r="K242" s="85"/>
+      <c r="L242" s="85"/>
+      <c r="M242" s="85"/>
+      <c r="N242" s="85"/>
+      <c r="O242" s="85"/>
+      <c r="P242" s="85"/>
+      <c r="Q242" s="85"/>
+      <c r="R242" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="V3:V13"/>
+    <mergeCell ref="V3:V22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="25" priority="205">
+    <cfRule type="expression" dxfId="13" priority="363">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="206">
+    <cfRule type="expression" dxfId="12" priority="364">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="23" priority="61">
+  <conditionalFormatting sqref="D7:R7 D11:R11 D15:R15 D23:R23 D31:R31 D39:R39 D47:R47 D51:R51 D59:R59 D63:R63 D67:R67 D75:R75 D79:R79 D83:R83 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D107:R107 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163 D19:R19 D27:R27 D35:R35 D43:R43 D55:R55 D71:R71">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="62">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="21" priority="59">
+  <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="60">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="19" priority="57">
+  <conditionalFormatting sqref="D203:R203">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="58">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="17" priority="1">
+  <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:R27 D31:R31 D35:R35 D43:R43 D51:R51 D55:R55 D59:R59">
-    <cfRule type="expression" dxfId="13" priority="23">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="11" priority="19">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="9" priority="17">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="7" priority="13">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67:R67 D75:R75 D79:R79">
-    <cfRule type="expression" dxfId="5" priority="15">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="3" priority="11">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6075,7 +8806,7 @@
     <col min="4" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="8.3984375" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.296875" style="87" customWidth="1"/>
+    <col min="11" max="11" width="13.296875" style="69" customWidth="1"/>
     <col min="12" max="14" width="13.296875" customWidth="1"/>
     <col min="16" max="16" width="8.796875" style="3"/>
     <col min="17" max="17" width="8.796875" style="4"/>
@@ -6117,7 +8848,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="100" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -6135,7 +8866,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="100" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -6160,7 +8891,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="105"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -6180,7 +8911,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="105"/>
+      <c r="I6" s="101"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -6202,7 +8933,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="105"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -6218,7 +8949,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="105"/>
+      <c r="I7" s="101"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -6240,7 +8971,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="105"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -6256,7 +8987,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="105"/>
+      <c r="I8" s="101"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -6278,7 +9009,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="105"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -6294,7 +9025,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="105"/>
+      <c r="I9" s="101"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -6316,7 +9047,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="106"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -6332,7 +9063,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="106"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -6355,7 +9086,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="100" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -6373,7 +9104,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="104" t="s">
+      <c r="I11" s="100" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -6397,7 +9128,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="105"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -6417,7 +9148,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="105"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -6437,7 +9168,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="105"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -6451,7 +9182,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="105"/>
+      <c r="I13" s="101"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -6471,7 +9202,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="105"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -6485,7 +9216,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="105"/>
+      <c r="I14" s="101"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -6505,7 +9236,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="105"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -6519,7 +9250,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="105"/>
+      <c r="I15" s="101"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -6539,7 +9270,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="106"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -6553,7 +9284,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="106"/>
+      <c r="I16" s="102"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
@@ -6588,11 +9319,11 @@
     </row>
     <row r="19" spans="3:14" ht="42.75" customHeight="1">
       <c r="C19" s="36"/>
-      <c r="J19" s="89">
+      <c r="J19" s="70">
         <v>1</v>
       </c>
-      <c r="K19" s="90" t="s">
-        <v>178</v>
+      <c r="K19" s="71" t="s">
+        <v>173</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
@@ -6600,11 +9331,11 @@
     </row>
     <row r="20" spans="3:14" ht="42.75" customHeight="1">
       <c r="C20" s="36"/>
-      <c r="J20" s="89">
+      <c r="J20" s="70">
         <v>7</v>
       </c>
-      <c r="K20" s="90" t="s">
-        <v>182</v>
+      <c r="K20" s="71" t="s">
+        <v>177</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
@@ -6612,11 +9343,11 @@
     </row>
     <row r="21" spans="3:14" ht="42.75" customHeight="1">
       <c r="C21" s="36"/>
-      <c r="J21" s="89">
+      <c r="J21" s="70">
         <v>3</v>
       </c>
-      <c r="K21" s="90" t="s">
-        <v>183</v>
+      <c r="K21" s="71" t="s">
+        <v>178</v>
       </c>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
@@ -6624,11 +9355,11 @@
     </row>
     <row r="22" spans="3:14" ht="42.75" customHeight="1">
       <c r="C22" s="36"/>
-      <c r="J22" s="89">
+      <c r="J22" s="70">
         <v>2</v>
       </c>
-      <c r="K22" s="91" t="s">
-        <v>177</v>
+      <c r="K22" s="72" t="s">
+        <v>172</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
@@ -6636,11 +9367,11 @@
     </row>
     <row r="23" spans="3:14" ht="42.75" customHeight="1">
       <c r="C23" s="36"/>
-      <c r="J23" s="89">
+      <c r="J23" s="70">
         <v>5</v>
       </c>
-      <c r="K23" s="91" t="s">
-        <v>179</v>
+      <c r="K23" s="72" t="s">
+        <v>174</v>
       </c>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
@@ -6648,11 +9379,11 @@
     </row>
     <row r="24" spans="3:14" ht="42.75" customHeight="1">
       <c r="C24" s="36"/>
-      <c r="J24" s="89" t="s">
-        <v>184</v>
-      </c>
-      <c r="K24" s="92" t="s">
-        <v>184</v>
+      <c r="J24" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" s="73" t="s">
+        <v>179</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
@@ -6660,11 +9391,11 @@
     </row>
     <row r="25" spans="3:14" ht="42.75" customHeight="1">
       <c r="C25" s="36"/>
-      <c r="J25" s="89">
+      <c r="J25" s="70">
         <v>4</v>
       </c>
-      <c r="K25" s="90" t="s">
-        <v>185</v>
+      <c r="K25" s="71" t="s">
+        <v>180</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
@@ -6672,11 +9403,11 @@
     </row>
     <row r="26" spans="3:14" ht="42.75" customHeight="1">
       <c r="C26" s="36"/>
-      <c r="J26" s="89">
+      <c r="J26" s="70">
         <v>8</v>
       </c>
-      <c r="K26" s="90" t="s">
-        <v>186</v>
+      <c r="K26" s="71" t="s">
+        <v>181</v>
       </c>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
@@ -6828,13 +9559,13 @@
         <v>81</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G4" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J4" s="40" t="s">
         <v>83</v>
@@ -6898,13 +9629,13 @@
         <v>93</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>94</v>
@@ -6965,13 +9696,13 @@
         <v>104</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>105</v>
@@ -7032,13 +9763,13 @@
         <v>115</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J16" s="40" t="s">
         <v>116</v>
@@ -7099,13 +9830,13 @@
         <v>127</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J20" s="40" t="s">
         <v>128</v>

--- a/output2/【河洛話注音】金剛般若波羅蜜經005。如理實見分第五.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經005。如理實見分第五.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A61F85D-4A40-4776-B0E7-1DF2C4412FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4C4466-7453-4011-A452-BFA8EB38AF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="313">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1202,253 +1202,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngoo2</t>
-  </si>
-  <si>
-    <t>ㄫㆦˋ</t>
-  </si>
-  <si>
-    <t>hun1</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>te7</t>
-  </si>
-  <si>
-    <t>ㄉㆤ˫</t>
-  </si>
-  <si>
-    <t>su1</t>
-  </si>
-  <si>
-    <t>ㄙㄨˉ</t>
-  </si>
-  <si>
-    <t>phoo5</t>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-  </si>
-  <si>
-    <t>the5</t>
-  </si>
-  <si>
-    <t>ㄊㆤˊ</t>
-  </si>
-  <si>
-    <t>hut8</t>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ˙</t>
-  </si>
-  <si>
-    <t>se3</t>
-  </si>
-  <si>
-    <t>ㄙㆤ˪</t>
-  </si>
-  <si>
-    <t>zun1</t>
-  </si>
-  <si>
-    <t>ㄗㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>un5</t>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-  </si>
-  <si>
-    <t>ho5</t>
-  </si>
-  <si>
-    <t>ㄏㄜˊ</t>
-  </si>
-  <si>
-    <t>ko3</t>
-  </si>
-  <si>
-    <t>ㄍㄜ˪</t>
-  </si>
-  <si>
-    <t>ju5</t>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-  </si>
-  <si>
-    <t>si6</t>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-  </si>
-  <si>
-    <t>i2</t>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-  </si>
-  <si>
-    <t>iu2</t>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-  </si>
-  <si>
-    <t>sit8</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆵ˙</t>
-  </si>
-  <si>
-    <t>koo3</t>
-  </si>
-  <si>
-    <t>ㄍㆦ˪</t>
-  </si>
-  <si>
-    <t>jiok8</t>
-  </si>
-  <si>
-    <t>ㆢㄧㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>siong3</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ˪</t>
-  </si>
-  <si>
-    <t>zik4</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆻ</t>
-  </si>
-  <si>
-    <t>hui1</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄧˉ</t>
-  </si>
-  <si>
-    <t>soo2</t>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-  </si>
-  <si>
-    <t>u5</t>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-  </si>
-  <si>
-    <t>i3</t>
-  </si>
-  <si>
-    <t>ㄧ˪</t>
-  </si>
-  <si>
-    <t>lai5</t>
-  </si>
-  <si>
-    <t>ㄌㄞˊ</t>
-  </si>
-  <si>
-    <t>tit4</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆵ</t>
-  </si>
-  <si>
-    <t>put4</t>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ</t>
-  </si>
-  <si>
-    <t>ia7</t>
-  </si>
-  <si>
-    <t>ㄧㄚ˫</t>
-  </si>
-  <si>
-    <t>suat4</t>
-  </si>
-  <si>
-    <t>ㄙㄨㄚㆵ</t>
-  </si>
-  <si>
-    <t>zu1</t>
-  </si>
-  <si>
-    <t>ㄗㄨˉ</t>
-  </si>
-  <si>
-    <t>hi1</t>
-  </si>
-  <si>
-    <t>ㄏㄧˉ</t>
-  </si>
-  <si>
-    <t>kai1</t>
-  </si>
-  <si>
-    <t>ㄍㄞˉ</t>
-  </si>
-  <si>
-    <t>sin1</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄣˉ</t>
-  </si>
-  <si>
     <t>hiu2</t>
   </si>
   <si>
     <t>可</t>
   </si>
   <si>
-    <t>kho2</t>
-  </si>
-  <si>
-    <t>ㄎㄜˋ</t>
-  </si>
-  <si>
-    <t>ㄏㄧㄨˋ</t>
-  </si>
-  <si>
     <t>見</t>
   </si>
   <si>
-    <t>kian3</t>
-  </si>
-  <si>
-    <t>ㄍㄧㄢ˪</t>
-  </si>
-  <si>
     <t>五</t>
   </si>
   <si>
     <t>凡</t>
   </si>
   <si>
-    <t>huan5</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄢˊ</t>
-  </si>
-  <si>
     <t>理</t>
-  </si>
-  <si>
-    <t>li2</t>
-  </si>
-  <si>
-    <t>ㄌㄧˋ</t>
   </si>
   <si>
     <t>如理實見分第五
@@ -1459,10 +1228,324 @@
     <t>妄</t>
   </si>
   <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄫㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄜ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2472,6 +2555,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -2490,9 +2576,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2500,55 +2583,7 @@
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{AF644068-9C78-42CD-96C0-AD9C8A3B8BDE}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -3186,7 +3221,7 @@
   <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -3226,8 +3261,8 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="str">
-        <f xml:space="preserve"> "金剛般若波羅蜜經" &amp; TEXT(C7, "000") &amp; _xlfn.CONCAT("。", 漢字注音!D5:R5)</f>
-        <v>金剛般若波羅蜜經005。如理實見分第五</v>
+        <f xml:space="preserve"> "金剛般若波羅蜜經" &amp; TEXT(C7, "000")</f>
+        <v>金剛般若波羅蜜經005</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3250,7 +3285,7 @@
       <c r="B7" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="103">
+      <c r="C7" s="97">
         <v>5</v>
       </c>
     </row>
@@ -3351,32 +3386,32 @@
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
-      <c r="V3" s="97" t="s">
-        <v>308</v>
+      <c r="V3" s="98" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
       <c r="D4" s="84" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="J4" s="84" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="K4" s="84"/>
       <c r="L4" s="84"/>
@@ -3387,7 +3422,7 @@
       <c r="Q4" s="84"/>
       <c r="R4" s="84"/>
       <c r="S4" s="93"/>
-      <c r="V4" s="98"/>
+      <c r="V4" s="99"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -3397,13 +3432,13 @@
         <v>214</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="F5" s="80" t="s">
         <v>215</v>
       </c>
       <c r="G5" s="80" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="H5" s="80" t="s">
         <v>168</v>
@@ -3412,7 +3447,7 @@
         <v>169</v>
       </c>
       <c r="J5" s="80" t="s">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="K5" s="80"/>
       <c r="L5" s="80"/>
@@ -3423,31 +3458,31 @@
       <c r="Q5" s="80"/>
       <c r="R5" s="80"/>
       <c r="S5" s="94"/>
-      <c r="V5" s="98"/>
+      <c r="V5" s="99"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
       <c r="C6" s="87"/>
       <c r="D6" s="85" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>307</v>
+        <v>236</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H6" s="85" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="J6" s="85" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="K6" s="85"/>
       <c r="L6" s="85"/>
@@ -3458,7 +3493,7 @@
       <c r="Q6" s="85"/>
       <c r="R6" s="85"/>
       <c r="S6" s="95"/>
-      <c r="V6" s="98"/>
+      <c r="V6" s="99"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -3479,7 +3514,7 @@
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="99"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
@@ -3487,39 +3522,39 @@
       <c r="E8" s="84"/>
       <c r="F8" s="84"/>
       <c r="G8" s="84" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="H8" s="84" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="J8" s="84"/>
       <c r="K8" s="84" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="L8" s="84" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="M8" s="84" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="N8" s="84" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="O8" s="84"/>
       <c r="P8" s="84" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="84" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="R8" s="84" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="S8" s="93"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="99"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -3563,7 +3598,7 @@
         <v>212</v>
       </c>
       <c r="P9" s="80" t="s">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="Q9" s="80" t="s">
         <v>199</v>
@@ -3573,7 +3608,7 @@
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="99"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
@@ -3581,39 +3616,39 @@
       <c r="E10" s="85"/>
       <c r="F10" s="85"/>
       <c r="G10" s="85" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="H10" s="85" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="I10" s="85" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="J10" s="85"/>
       <c r="K10" s="85" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="L10" s="85" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="M10" s="85" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="N10" s="85" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="O10" s="85"/>
       <c r="P10" s="85" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="85" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="R10" s="85" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="S10" s="96"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="99"/>
     </row>
     <row r="11" spans="2:22" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -3623,7 +3658,7 @@
       <c r="F11" s="83"/>
       <c r="G11" s="83"/>
       <c r="H11" s="83" t="s">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="I11" s="83"/>
       <c r="J11" s="83"/>
@@ -3635,47 +3670,47 @@
       <c r="P11" s="83"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="83"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="99"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="I12" s="84"/>
       <c r="J12" s="84"/>
       <c r="K12" s="84"/>
       <c r="L12" s="84" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M12" s="84" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N12" s="84"/>
       <c r="O12" s="84" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="P12" s="84" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="Q12" s="84"/>
       <c r="R12" s="84" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="S12" s="93"/>
-      <c r="V12" s="98"/>
+      <c r="V12" s="99"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -3686,7 +3721,7 @@
         <v>216</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="F13" s="80" t="s">
         <v>214</v>
@@ -3728,47 +3763,47 @@
         <v>201</v>
       </c>
       <c r="S13" s="94"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="99"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="I14" s="85"/>
       <c r="J14" s="85"/>
       <c r="K14" s="85"/>
       <c r="L14" s="85" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="N14" s="85"/>
       <c r="O14" s="85" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="P14" s="85" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="85"/>
       <c r="R14" s="85" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="S14" s="96"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="99"/>
     </row>
     <row r="15" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -3788,53 +3823,53 @@
       <c r="P15" s="83"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="99"/>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="84" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="G16" s="84" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="I16" s="84" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="J16" s="84" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="K16" s="84" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L16" s="84"/>
       <c r="M16" s="84" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="N16" s="84" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="O16" s="84" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="P16" s="84"/>
       <c r="Q16" s="84" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="R16" s="84" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="S16" s="93"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="99"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -3842,7 +3877,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="E17" s="80" t="s">
         <v>199</v>
@@ -3857,7 +3892,7 @@
         <v>203</v>
       </c>
       <c r="I17" s="80" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="J17" s="80" t="s">
         <v>214</v>
@@ -3887,53 +3922,53 @@
         <v>219</v>
       </c>
       <c r="S17" s="94"/>
-      <c r="V17" s="98"/>
+      <c r="V17" s="99"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="85" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="G18" s="85" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H18" s="85" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="I18" s="85" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="J18" s="85" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="K18" s="85" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L18" s="85"/>
       <c r="M18" s="85" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="N18" s="85" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="O18" s="85" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="P18" s="85"/>
       <c r="Q18" s="85" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="R18" s="85" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="S18" s="96"/>
-      <c r="V18" s="98"/>
+      <c r="V18" s="99"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -3953,51 +3988,51 @@
       <c r="P19" s="83"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
-      <c r="V19" s="98"/>
+      <c r="V19" s="99"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="84" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="E20" s="84" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F20" s="84" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="G20" s="84" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H20" s="84"/>
       <c r="I20" s="84" t="s">
+        <v>289</v>
+      </c>
+      <c r="J20" s="84" t="s">
+        <v>291</v>
+      </c>
+      <c r="K20" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="J20" s="84" t="s">
+      <c r="L20" s="84" t="s">
         <v>267</v>
-      </c>
-      <c r="K20" s="84" t="s">
-        <v>291</v>
-      </c>
-      <c r="L20" s="84" t="s">
-        <v>263</v>
       </c>
       <c r="M20" s="84"/>
       <c r="N20" s="84"/>
       <c r="O20" s="84" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="P20" s="84" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q20" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="Q20" s="84" t="s">
-        <v>231</v>
-      </c>
       <c r="R20" s="84" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="S20" s="93"/>
-      <c r="V20" s="98"/>
+      <c r="V20" s="99"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -4050,51 +4085,51 @@
         <v>183</v>
       </c>
       <c r="S21" s="94"/>
-      <c r="V21" s="98"/>
+      <c r="V21" s="99"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="85" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F22" s="85" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="G22" s="85" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H22" s="85"/>
       <c r="I22" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="J22" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="K22" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="J22" s="85" t="s">
+      <c r="L22" s="85" t="s">
         <v>268</v>
-      </c>
-      <c r="K22" s="85" t="s">
-        <v>292</v>
-      </c>
-      <c r="L22" s="85" t="s">
-        <v>264</v>
       </c>
       <c r="M22" s="85"/>
       <c r="N22" s="85"/>
       <c r="O22" s="85" t="s">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="P22" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q22" s="85" t="s">
         <v>248</v>
       </c>
-      <c r="Q22" s="85" t="s">
-        <v>232</v>
-      </c>
       <c r="R22" s="85" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="S22" s="96"/>
-      <c r="V22" s="99"/>
+      <c r="V22" s="100"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -4119,41 +4154,41 @@
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="56"/>
       <c r="D24" s="84" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="84" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H24" s="84" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K24" s="84"/>
       <c r="L24" s="84" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M24" s="84" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="N24" s="84" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="O24" s="84" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P24" s="84"/>
       <c r="Q24" s="84" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="R24" s="84" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="S24" s="93"/>
       <c r="V24" s="60"/>
@@ -4173,7 +4208,7 @@
         <v>185</v>
       </c>
       <c r="G25" s="80" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="H25" s="80" t="s">
         <v>188</v>
@@ -4197,7 +4232,7 @@
         <v>222</v>
       </c>
       <c r="O25" s="80" t="s">
-        <v>309</v>
+        <v>232</v>
       </c>
       <c r="P25" s="80" t="s">
         <v>171</v>
@@ -4206,7 +4241,7 @@
         <v>198</v>
       </c>
       <c r="R25" s="80" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="S25" s="94"/>
       <c r="V25" s="60"/>
@@ -4214,41 +4249,41 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="85" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="E26" s="85"/>
       <c r="F26" s="85"/>
       <c r="G26" s="85" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H26" s="85" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="I26" s="85" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="J26" s="85" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K26" s="85"/>
       <c r="L26" s="85" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M26" s="85" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="N26" s="85" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="O26" s="85" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P26" s="85"/>
       <c r="Q26" s="85" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="R26" s="85" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="S26" s="96"/>
       <c r="U26" s="1" t="str">
@@ -4284,29 +4319,29 @@
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="56"/>
       <c r="D28" s="84" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="E28" s="84" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F28" s="84" t="s">
+        <v>291</v>
+      </c>
+      <c r="G28" s="84" t="s">
         <v>267</v>
-      </c>
-      <c r="G28" s="84" t="s">
-        <v>263</v>
       </c>
       <c r="H28" s="84"/>
       <c r="I28" s="84" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="J28" s="84" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="K28" s="84" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="L28" s="84" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M28" s="84"/>
       <c r="N28" s="84"/>
@@ -4345,7 +4380,7 @@
         <v>221</v>
       </c>
       <c r="J29" s="80" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="K29" s="80" t="s">
         <v>214</v>
@@ -4373,29 +4408,29 @@
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="58"/>
       <c r="D30" s="85" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F30" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="G30" s="85" t="s">
         <v>268</v>
-      </c>
-      <c r="G30" s="85" t="s">
-        <v>264</v>
       </c>
       <c r="H30" s="85"/>
       <c r="I30" s="85" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="J30" s="85" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K30" s="85" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="L30" s="85" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M30" s="85"/>
       <c r="N30" s="85"/>
@@ -8747,26 +8782,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="13" priority="363">
+    <cfRule type="expression" dxfId="9" priority="363">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="364">
+    <cfRule type="expression" dxfId="8" priority="364">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:R7 D11:R11 D15:R15 D23:R23 D31:R31 D39:R39 D47:R47 D51:R51 D59:R59 D63:R63 D67:R67 D75:R75 D79:R79 D83:R83 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D107:R107 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163 D19:R19 D27:R27 D35:R35 D43:R43 D55:R55 D71:R71">
-    <cfRule type="expression" dxfId="11" priority="7">
+  <conditionalFormatting sqref="D7:R7 D11:R11 D15:R15 D19:R19 D23:R23 D27:R27 D31:R31 D35:R35 D39:R39 D43:R43 D47:R47 D51:R51 D55:R55 D59:R59 D63:R63 D67:R67 D71:R71 D75:R75 D79:R79 D83:R83 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D107:R107 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8848,7 +8883,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -8866,7 +8901,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="101" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -8891,7 +8926,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="101"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -8911,7 +8946,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -8933,7 +8968,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="101"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -8949,7 +8984,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="101"/>
+      <c r="I7" s="102"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -8971,7 +9006,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -8987,7 +9022,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="101"/>
+      <c r="I8" s="102"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -9009,7 +9044,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="101"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9025,7 +9060,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="101"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9047,7 +9082,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="102"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -9063,7 +9098,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="102"/>
+      <c r="I10" s="103"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -9086,7 +9121,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="101" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -9104,7 +9139,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="100" t="s">
+      <c r="I11" s="101" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -9128,7 +9163,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="101"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -9148,7 +9183,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="101"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -9168,7 +9203,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="101"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9182,7 +9217,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="101"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9202,7 +9237,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="101"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9216,7 +9251,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="101"/>
+      <c r="I14" s="102"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9236,7 +9271,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="101"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -9250,7 +9285,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="101"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -9270,7 +9305,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="102"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -9284,7 +9319,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="102"/>
+      <c r="I16" s="103"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
